--- a/ExchangeMAPI/Docs/MS-OXNSPI/MS-OXNSPI_RequirementSpecification.xlsx
+++ b/ExchangeMAPI/Docs/MS-OXNSPI/MS-OXNSPI_RequirementSpecification.xlsx
@@ -11581,9 +11581,6 @@
     <t>[In Prerequisites/Preconditions] The mechanism for obtaining these credentials [the credentials of the client] is specific to the protocol of the security provider that is used.</t>
   </si>
   <si>
-    <t>[In Appendix A: Product Behavior] Implementation does not modify any properties of any objects in the address book. (Exchange 2010SP3 and below follow this behavior).</t>
-  </si>
-  <si>
     <t>[In Appendix A: Product Behavior] Implementation does follow the ABNF format. (Microsoft Exchange Server 2010 Service Pack 3 (SP3) follows this behavior).</t>
   </si>
   <si>
@@ -11597,6 +11594,9 @@
   </si>
   <si>
     <t>[In Appendix B: Product Behavior] Implementation does not ignore this request [a value of "fAnonymousLogin" in the input parameter dwFlags]. (Exchange 2010 and above follow this behavior.)</t>
+  </si>
+  <si>
+    <t>[In Appendix A: Product Behavior] Implementation does not modify any properties of any objects in the address book. (Microsoft Exchange Server 2010 Service Pack 3 (SP3) follows this behavior).</t>
   </si>
 </sst>
 </file>
@@ -11880,21 +11880,6 @@
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -11918,6 +11903,21 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -13342,8 +13342,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:L1641"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1511" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C1518" sqref="C1518"/>
+    <sheetView tabSelected="1" topLeftCell="A1519" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C1526" sqref="C1526"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -13398,127 +13398,127 @@
       <c r="J3" s="5"/>
     </row>
     <row r="4" spans="1:10" ht="21">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="35"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="43"/>
       <c r="J4" s="5"/>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="38" t="s">
+      <c r="B5" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="39"/>
-      <c r="I5" s="39"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="47"/>
       <c r="J5" s="5"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="37" t="s">
+      <c r="B6" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="37"/>
-      <c r="I6" s="37"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="45"/>
+      <c r="I6" s="45"/>
       <c r="J6" s="5"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="36" t="s">
+      <c r="B7" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="36"/>
-      <c r="D7" s="36"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36"/>
-      <c r="G7" s="36"/>
-      <c r="H7" s="36"/>
-      <c r="I7" s="36"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="44"/>
+      <c r="G7" s="44"/>
+      <c r="H7" s="44"/>
+      <c r="I7" s="44"/>
       <c r="J7" s="5"/>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="36" t="s">
+      <c r="B8" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="36"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="36"/>
-      <c r="H8" s="36"/>
-      <c r="I8" s="36"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="44"/>
       <c r="J8" s="5"/>
     </row>
     <row r="9" spans="1:10" ht="78.75" customHeight="1">
       <c r="A9" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="44" t="s">
+      <c r="B9" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="45"/>
-      <c r="D9" s="45"/>
-      <c r="E9" s="45"/>
-      <c r="F9" s="45"/>
-      <c r="G9" s="45"/>
-      <c r="H9" s="45"/>
-      <c r="I9" s="45"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="40"/>
+      <c r="I9" s="40"/>
       <c r="J9" s="5"/>
     </row>
     <row r="10" spans="1:10" ht="33.75" customHeight="1">
       <c r="A10" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="44" t="s">
+      <c r="B10" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="45"/>
-      <c r="D10" s="45"/>
-      <c r="E10" s="45"/>
-      <c r="F10" s="45"/>
-      <c r="G10" s="45"/>
-      <c r="H10" s="45"/>
-      <c r="I10" s="45"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="40"/>
+      <c r="I10" s="40"/>
       <c r="J10" s="5"/>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="40" t="s">
+      <c r="B11" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="40"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="40"/>
-      <c r="F11" s="40"/>
-      <c r="G11" s="40"/>
-      <c r="H11" s="40"/>
-      <c r="I11" s="40"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="35"/>
+      <c r="I11" s="35"/>
       <c r="J11" s="5"/>
     </row>
     <row r="12" spans="1:10">
@@ -13531,12 +13531,12 @@
       <c r="C12" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="41"/>
-      <c r="E12" s="41"/>
-      <c r="F12" s="41"/>
-      <c r="G12" s="41"/>
-      <c r="H12" s="41"/>
-      <c r="I12" s="41"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="36"/>
+      <c r="I12" s="36"/>
       <c r="J12" s="5"/>
     </row>
     <row r="13" spans="1:10" ht="15" customHeight="1">
@@ -13549,12 +13549,12 @@
       <c r="C13" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="42"/>
-      <c r="E13" s="42"/>
-      <c r="F13" s="42"/>
-      <c r="G13" s="42"/>
-      <c r="H13" s="42"/>
-      <c r="I13" s="42"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="37"/>
+      <c r="I13" s="37"/>
       <c r="J13" s="5"/>
     </row>
     <row r="14" spans="1:10">
@@ -13567,12 +13567,12 @@
       <c r="C14" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="42"/>
-      <c r="E14" s="42"/>
-      <c r="F14" s="42"/>
-      <c r="G14" s="42"/>
-      <c r="H14" s="42"/>
-      <c r="I14" s="42"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="37"/>
+      <c r="I14" s="37"/>
       <c r="J14" s="5"/>
     </row>
     <row r="15" spans="1:10">
@@ -13585,60 +13585,60 @@
       <c r="C15" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="43"/>
-      <c r="E15" s="43"/>
-      <c r="F15" s="43"/>
-      <c r="G15" s="43"/>
-      <c r="H15" s="43"/>
-      <c r="I15" s="43"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="38"/>
+      <c r="I15" s="38"/>
       <c r="J15" s="5"/>
     </row>
     <row r="16" spans="1:10" ht="30" customHeight="1">
       <c r="A16" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="40" t="s">
+      <c r="B16" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="C16" s="40"/>
-      <c r="D16" s="40"/>
-      <c r="E16" s="40"/>
-      <c r="F16" s="40"/>
-      <c r="G16" s="40"/>
-      <c r="H16" s="40"/>
-      <c r="I16" s="40"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="35"/>
+      <c r="I16" s="35"/>
       <c r="J16" s="5"/>
     </row>
     <row r="17" spans="1:12" ht="64.5" customHeight="1">
       <c r="A17" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="46" t="s">
+      <c r="B17" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="47"/>
-      <c r="D17" s="47"/>
-      <c r="E17" s="47"/>
-      <c r="F17" s="47"/>
-      <c r="G17" s="47"/>
-      <c r="H17" s="47"/>
-      <c r="I17" s="47"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="42"/>
+      <c r="I17" s="42"/>
       <c r="J17" s="5"/>
     </row>
     <row r="18" spans="1:12" ht="30" customHeight="1">
       <c r="A18" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="40" t="s">
+      <c r="B18" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="40"/>
-      <c r="D18" s="40"/>
-      <c r="E18" s="40"/>
-      <c r="F18" s="40"/>
-      <c r="G18" s="40"/>
-      <c r="H18" s="40"/>
-      <c r="I18" s="40"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="35"/>
+      <c r="I18" s="35"/>
       <c r="J18" s="5"/>
       <c r="L18" s="4"/>
     </row>
@@ -33701,7 +33701,7 @@
         <v>17</v>
       </c>
       <c r="I809" s="20" t="s">
-        <v>3643</v>
+        <v>3642</v>
       </c>
     </row>
     <row r="810" spans="1:9" ht="60">
@@ -41558,7 +41558,7 @@
         <v>17</v>
       </c>
       <c r="I1120" s="20" t="s">
-        <v>3642</v>
+        <v>3641</v>
       </c>
     </row>
     <row r="1121" spans="1:9" ht="60">
@@ -51639,7 +51639,7 @@
         <v>3171</v>
       </c>
       <c r="C1517" s="20" t="s">
-        <v>3644</v>
+        <v>3643</v>
       </c>
       <c r="D1517" s="22" t="s">
         <v>3181</v>
@@ -51666,7 +51666,7 @@
         <v>3171</v>
       </c>
       <c r="C1518" s="20" t="s">
-        <v>3645</v>
+        <v>3644</v>
       </c>
       <c r="D1518" s="22" t="s">
         <v>3183</v>
@@ -51778,7 +51778,7 @@
         <v>7</v>
       </c>
       <c r="C1522" s="33" t="s">
-        <v>3641</v>
+        <v>3640</v>
       </c>
       <c r="D1522" s="22" t="s">
         <v>3617</v>
@@ -51894,7 +51894,7 @@
         <v>7</v>
       </c>
       <c r="C1526" s="33" t="s">
-        <v>3640</v>
+        <v>3645</v>
       </c>
       <c r="D1526" s="22" t="s">
         <v>3619</v>
@@ -54692,6 +54692,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="B8:I8"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B5:I5"/>
     <mergeCell ref="B11:I11"/>
     <mergeCell ref="D12:I15"/>
     <mergeCell ref="B16:I16"/>
@@ -54699,11 +54704,6 @@
     <mergeCell ref="B9:I9"/>
     <mergeCell ref="B10:I10"/>
     <mergeCell ref="B17:I17"/>
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="B8:I8"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="B5:I5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1542:B1545 A1548:B1549 A1637:I1637 A1634:H1634 D1542:I1545 A1546:I1547 A1550:I1566 D1548:I1549 A1600:I1633 A20:I46 A1570:I1597 E1567:H1569 D1598:H1599 D1635:H1636 G47:G48 I47:K48 A49:I1541">

--- a/ExchangeMAPI/Docs/MS-OXNSPI/MS-OXNSPI_RequirementSpecification.xlsx
+++ b/ExchangeMAPI/Docs/MS-OXNSPI/MS-OXNSPI_RequirementSpecification.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="-15" yWindow="60" windowWidth="15405" windowHeight="6900" tabRatio="570"/>
@@ -11602,7 +11602,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="165" formatCode="0.0.0"/>
@@ -11880,21 +11880,6 @@
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -11918,6 +11903,21 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -13095,7 +13095,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -13130,7 +13130,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -13342,7 +13342,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:L1641"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B130" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H138" sqref="H138"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
@@ -13396,127 +13398,127 @@
       <c r="J3" s="5"/>
     </row>
     <row r="4" spans="1:10" ht="21">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="35"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="43"/>
       <c r="J4" s="5"/>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="38" t="s">
+      <c r="B5" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="39"/>
-      <c r="I5" s="39"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="47"/>
       <c r="J5" s="5"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="37" t="s">
+      <c r="B6" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="37"/>
-      <c r="I6" s="37"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="45"/>
+      <c r="I6" s="45"/>
       <c r="J6" s="5"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="36" t="s">
+      <c r="B7" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="36"/>
-      <c r="D7" s="36"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36"/>
-      <c r="G7" s="36"/>
-      <c r="H7" s="36"/>
-      <c r="I7" s="36"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="44"/>
+      <c r="G7" s="44"/>
+      <c r="H7" s="44"/>
+      <c r="I7" s="44"/>
       <c r="J7" s="5"/>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="36" t="s">
+      <c r="B8" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="36"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="36"/>
-      <c r="H8" s="36"/>
-      <c r="I8" s="36"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="44"/>
       <c r="J8" s="5"/>
     </row>
     <row r="9" spans="1:10" ht="78.75" customHeight="1">
       <c r="A9" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="44" t="s">
+      <c r="B9" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="45"/>
-      <c r="D9" s="45"/>
-      <c r="E9" s="45"/>
-      <c r="F9" s="45"/>
-      <c r="G9" s="45"/>
-      <c r="H9" s="45"/>
-      <c r="I9" s="45"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="40"/>
+      <c r="I9" s="40"/>
       <c r="J9" s="5"/>
     </row>
     <row r="10" spans="1:10" ht="33.75" customHeight="1">
       <c r="A10" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="44" t="s">
+      <c r="B10" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="45"/>
-      <c r="D10" s="45"/>
-      <c r="E10" s="45"/>
-      <c r="F10" s="45"/>
-      <c r="G10" s="45"/>
-      <c r="H10" s="45"/>
-      <c r="I10" s="45"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="40"/>
+      <c r="I10" s="40"/>
       <c r="J10" s="5"/>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="40" t="s">
+      <c r="B11" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="40"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="40"/>
-      <c r="F11" s="40"/>
-      <c r="G11" s="40"/>
-      <c r="H11" s="40"/>
-      <c r="I11" s="40"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="35"/>
+      <c r="I11" s="35"/>
       <c r="J11" s="5"/>
     </row>
     <row r="12" spans="1:10">
@@ -13529,12 +13531,12 @@
       <c r="C12" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="41"/>
-      <c r="E12" s="41"/>
-      <c r="F12" s="41"/>
-      <c r="G12" s="41"/>
-      <c r="H12" s="41"/>
-      <c r="I12" s="41"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="36"/>
+      <c r="I12" s="36"/>
       <c r="J12" s="5"/>
     </row>
     <row r="13" spans="1:10" ht="15" customHeight="1">
@@ -13547,12 +13549,12 @@
       <c r="C13" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="42"/>
-      <c r="E13" s="42"/>
-      <c r="F13" s="42"/>
-      <c r="G13" s="42"/>
-      <c r="H13" s="42"/>
-      <c r="I13" s="42"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="37"/>
+      <c r="I13" s="37"/>
       <c r="J13" s="5"/>
     </row>
     <row r="14" spans="1:10">
@@ -13565,12 +13567,12 @@
       <c r="C14" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="42"/>
-      <c r="E14" s="42"/>
-      <c r="F14" s="42"/>
-      <c r="G14" s="42"/>
-      <c r="H14" s="42"/>
-      <c r="I14" s="42"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="37"/>
+      <c r="I14" s="37"/>
       <c r="J14" s="5"/>
     </row>
     <row r="15" spans="1:10">
@@ -13583,60 +13585,60 @@
       <c r="C15" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="43"/>
-      <c r="E15" s="43"/>
-      <c r="F15" s="43"/>
-      <c r="G15" s="43"/>
-      <c r="H15" s="43"/>
-      <c r="I15" s="43"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="38"/>
+      <c r="I15" s="38"/>
       <c r="J15" s="5"/>
     </row>
     <row r="16" spans="1:10" ht="30" customHeight="1">
       <c r="A16" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="40" t="s">
+      <c r="B16" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="C16" s="40"/>
-      <c r="D16" s="40"/>
-      <c r="E16" s="40"/>
-      <c r="F16" s="40"/>
-      <c r="G16" s="40"/>
-      <c r="H16" s="40"/>
-      <c r="I16" s="40"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="35"/>
+      <c r="I16" s="35"/>
       <c r="J16" s="5"/>
     </row>
     <row r="17" spans="1:12" ht="64.5" customHeight="1">
       <c r="A17" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="46" t="s">
+      <c r="B17" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="47"/>
-      <c r="D17" s="47"/>
-      <c r="E17" s="47"/>
-      <c r="F17" s="47"/>
-      <c r="G17" s="47"/>
-      <c r="H17" s="47"/>
-      <c r="I17" s="47"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="42"/>
+      <c r="I17" s="42"/>
       <c r="J17" s="5"/>
     </row>
     <row r="18" spans="1:12" ht="30" customHeight="1">
       <c r="A18" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="40" t="s">
+      <c r="B18" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="40"/>
-      <c r="D18" s="40"/>
-      <c r="E18" s="40"/>
-      <c r="F18" s="40"/>
-      <c r="G18" s="40"/>
-      <c r="H18" s="40"/>
-      <c r="I18" s="40"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="35"/>
+      <c r="I18" s="35"/>
       <c r="J18" s="5"/>
       <c r="L18" s="4"/>
     </row>
@@ -16548,13 +16550,13 @@
         <v>19</v>
       </c>
       <c r="F133" s="22" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G133" s="22" t="s">
         <v>15</v>
       </c>
       <c r="H133" s="22" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I133" s="20"/>
     </row>
@@ -16573,13 +16575,13 @@
         <v>19</v>
       </c>
       <c r="F134" s="22" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G134" s="22" t="s">
         <v>15</v>
       </c>
       <c r="H134" s="22" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I134" s="20"/>
     </row>
@@ -16604,7 +16606,7 @@
         <v>15</v>
       </c>
       <c r="H135" s="32" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I135" s="34"/>
     </row>
@@ -54690,6 +54692,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="B8:I8"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B5:I5"/>
     <mergeCell ref="B11:I11"/>
     <mergeCell ref="D12:I15"/>
     <mergeCell ref="B16:I16"/>
@@ -54697,11 +54704,6 @@
     <mergeCell ref="B9:I9"/>
     <mergeCell ref="B10:I10"/>
     <mergeCell ref="B17:I17"/>
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="B8:I8"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="B5:I5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1542:B1545 A1548:B1549 A1637:I1637 A1634:H1634 D1542:I1545 A1546:I1547 A1550:I1566 D1548:I1549 A1600:I1633 A20:I46 A1570:I1597 E1567:H1569 D1598:H1599 D1635:H1636 G47:G48 I47:K48 A49:I1541">

--- a/ExchangeMAPI/Docs/MS-OXNSPI/MS-OXNSPI_RequirementSpecification.xlsx
+++ b/ExchangeMAPI/Docs/MS-OXNSPI/MS-OXNSPI_RequirementSpecification.xlsx
@@ -11930,6 +11930,368 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="131">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <strike/>
@@ -12522,368 +12884,6 @@
         <strike/>
       </font>
     </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color theme="0"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -13011,34 +13011,34 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Requirement" displayName="Requirement" ref="A19:I1637" tableType="xml" totalsRowShown="0" headerRowDxfId="130" dataDxfId="129" headerRowCellStyle="Normal" dataCellStyle="Normal">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Requirement" displayName="Requirement" ref="A19:I1637" tableType="xml" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17" headerRowCellStyle="Normal" dataCellStyle="Normal">
   <autoFilter ref="A19:I1637"/>
   <tableColumns count="9">
-    <tableColumn id="1" uniqueName="ns1:REQ_ID" name="Req ID" dataDxfId="128" dataCellStyle="Normal">
+    <tableColumn id="1" uniqueName="ns1:REQ_ID" name="Req ID" dataDxfId="16" dataCellStyle="Normal">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:REQ_ID" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="2" uniqueName="ns1:Doc_Sect" name="Doc Sect" dataDxfId="127" dataCellStyle="Normal">
+    <tableColumn id="2" uniqueName="ns1:Doc_Sect" name="Doc Sect" dataDxfId="15" dataCellStyle="Normal">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Doc_Sect" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="3" uniqueName="ns1:Description" name="Description" dataDxfId="126" dataCellStyle="Normal">
+    <tableColumn id="3" uniqueName="ns1:Description" name="Description" dataDxfId="14" dataCellStyle="Normal">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Description" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="18" uniqueName="ns1:Derived" name="Derived" dataDxfId="125" dataCellStyle="Normal">
+    <tableColumn id="18" uniqueName="ns1:Derived" name="Derived" dataDxfId="13" dataCellStyle="Normal">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Derived" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="6" uniqueName="ns1:Behavior" name="Behavior" dataDxfId="124" dataCellStyle="Normal">
+    <tableColumn id="6" uniqueName="ns1:Behavior" name="Behavior" dataDxfId="12" dataCellStyle="Normal">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Behavior" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="7" uniqueName="ns1:Scope" name="Scope" dataDxfId="123" dataCellStyle="Normal">
+    <tableColumn id="7" uniqueName="ns1:Scope" name="Scope" dataDxfId="11" dataCellStyle="Normal">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Scope" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="9" uniqueName="ns1:IsNormative" name="Informative_x000a_/Normative" dataDxfId="122" dataCellStyle="Normal">
+    <tableColumn id="9" uniqueName="ns1:IsNormative" name="Informative_x000a_/Normative" dataDxfId="10" dataCellStyle="Normal">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:IsNormative" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="10" uniqueName="ns1:Verification" name="Verification" dataDxfId="121" dataCellStyle="Normal">
+    <tableColumn id="10" uniqueName="ns1:Verification" name="Verification" dataDxfId="9" dataCellStyle="Normal">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Verification" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="8" uniqueName="ns1:VerificationComment" name="Verification Comment" dataDxfId="120">
+    <tableColumn id="8" uniqueName="ns1:VerificationComment" name="Verification Comment" dataDxfId="8">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:VerificationComment" xmlDataType="string"/>
     </tableColumn>
   </tableColumns>
@@ -13047,12 +13047,12 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Scope" displayName="Scope" ref="A12:C15" totalsRowShown="0" headerRowDxfId="119" dataDxfId="117" headerRowBorderDxfId="118" tableBorderDxfId="116" totalsRowBorderDxfId="115">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Scope" displayName="Scope" ref="A12:C15" totalsRowShown="0" headerRowDxfId="7" dataDxfId="5" headerRowBorderDxfId="6" tableBorderDxfId="4" totalsRowBorderDxfId="3">
   <autoFilter ref="A12:C15"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Scope" dataDxfId="114"/>
-    <tableColumn id="2" name="Test" dataDxfId="113"/>
-    <tableColumn id="3" name="Description" dataDxfId="112"/>
+    <tableColumn id="1" name="Scope" dataDxfId="2"/>
+    <tableColumn id="2" name="Test" dataDxfId="1"/>
+    <tableColumn id="3" name="Description" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -13352,10 +13352,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19.85546875" style="11" customWidth="1"/>
-    <col min="2" max="2" width="9" style="3" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" style="11" customWidth="1"/>
+    <col min="2" max="2" width="13" style="3" customWidth="1"/>
     <col min="3" max="3" width="85" style="3" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="28.5703125" style="3" customWidth="1"/>
     <col min="5" max="5" width="12.42578125" style="3" customWidth="1"/>
     <col min="6" max="6" width="12.140625" style="3" customWidth="1"/>
     <col min="7" max="7" width="13.42578125" style="3" customWidth="1"/>
@@ -35324,7 +35324,7 @@
       </c>
       <c r="I873" s="20"/>
     </row>
-    <row r="874" spans="1:9" ht="167.25" customHeight="1">
+    <row r="874" spans="1:9" ht="165">
       <c r="A874" s="22" t="s">
         <v>1842</v>
       </c>
@@ -35349,7 +35349,7 @@
       </c>
       <c r="I874" s="20"/>
     </row>
-    <row r="875" spans="1:9" ht="20.25" customHeight="1">
+    <row r="875" spans="1:9" ht="75">
       <c r="A875" s="22" t="s">
         <v>1843</v>
       </c>
@@ -35374,7 +35374,7 @@
       </c>
       <c r="I875" s="20"/>
     </row>
-    <row r="876" spans="1:9" ht="26.25" customHeight="1">
+    <row r="876" spans="1:9" ht="75">
       <c r="A876" s="22" t="s">
         <v>1845</v>
       </c>
@@ -35399,7 +35399,7 @@
       </c>
       <c r="I876" s="20"/>
     </row>
-    <row r="877" spans="1:9" ht="25.5" customHeight="1">
+    <row r="877" spans="1:9" ht="90">
       <c r="A877" s="22" t="s">
         <v>1847</v>
       </c>
@@ -35424,7 +35424,7 @@
       </c>
       <c r="I877" s="20"/>
     </row>
-    <row r="878" spans="1:9" ht="20.25" customHeight="1">
+    <row r="878" spans="1:9" ht="60">
       <c r="A878" s="22" t="s">
         <v>1849</v>
       </c>
@@ -35449,7 +35449,7 @@
       </c>
       <c r="I878" s="20"/>
     </row>
-    <row r="879" spans="1:9" ht="14.25" customHeight="1">
+    <row r="879" spans="1:9" ht="60">
       <c r="A879" s="22" t="s">
         <v>1851</v>
       </c>
@@ -54736,418 +54736,418 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1543:B1546 A1549:B1550 A1638:I1638 A1635:H1635 D1543:I1546 A1547:I1548 A1551:I1567 D1549:I1550 A1601:I1634 A20:I46 A1571:I1598 E1568:H1570 D1599:H1600 D1636:H1637 G47:G48 I47:K48 A49:I1542">
-    <cfRule type="expression" dxfId="111" priority="192">
+    <cfRule type="expression" dxfId="130" priority="192">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="110" priority="193">
+    <cfRule type="expression" dxfId="129" priority="193">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="109" priority="194">
+    <cfRule type="expression" dxfId="128" priority="194">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1543:B1546 A1549:B1550 A1638:I1638 A1635:H1635 D1543:I1546 A1547:I1548 A1551:I1567 D1549:I1550 A1601:I1634 A20:I46 A1571:I1598 E1568:H1570 D1599:H1600 D1636:H1637 G47:G48 I47:K48 A49:I1542">
-    <cfRule type="expression" dxfId="108" priority="187">
+    <cfRule type="expression" dxfId="127" priority="187">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="107" priority="188">
+    <cfRule type="expression" dxfId="126" priority="188">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="106" priority="189">
+    <cfRule type="expression" dxfId="125" priority="189">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1638 F1537:F1538 F1541:F1567 F1601:F1635 F20:F46 F1571:F1598 F49:F1527">
-    <cfRule type="expression" dxfId="105" priority="190">
+    <cfRule type="expression" dxfId="124" priority="190">
       <formula>NOT(VLOOKUP(F20,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="104" priority="191">
+    <cfRule type="expression" dxfId="123" priority="191">
       <formula>(VLOOKUP(F20,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1568:I1570 I1599:I1600 I1635:I1637">
-    <cfRule type="expression" dxfId="103" priority="179">
+    <cfRule type="expression" dxfId="122" priority="179">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="102" priority="180">
+    <cfRule type="expression" dxfId="121" priority="180">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="101" priority="181">
+    <cfRule type="expression" dxfId="120" priority="181">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1568:I1570 I1599:I1600 I1635:I1637">
-    <cfRule type="expression" dxfId="100" priority="184">
+    <cfRule type="expression" dxfId="119" priority="184">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="99" priority="185">
+    <cfRule type="expression" dxfId="118" priority="185">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="98" priority="186">
+    <cfRule type="expression" dxfId="117" priority="186">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1528:F1536">
-    <cfRule type="expression" dxfId="97" priority="182">
+    <cfRule type="expression" dxfId="116" priority="182">
       <formula>NOT(VLOOKUP(F1528,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="96" priority="183">
+    <cfRule type="expression" dxfId="115" priority="183">
       <formula>(VLOOKUP(F1528,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1568:D1570">
-    <cfRule type="expression" dxfId="95" priority="159">
+    <cfRule type="expression" dxfId="114" priority="159">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="94" priority="160">
+    <cfRule type="expression" dxfId="113" priority="160">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="93" priority="161">
+    <cfRule type="expression" dxfId="112" priority="161">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1568:D1570">
-    <cfRule type="expression" dxfId="92" priority="162">
+    <cfRule type="expression" dxfId="111" priority="162">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="91" priority="163">
+    <cfRule type="expression" dxfId="110" priority="163">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="90" priority="164">
+    <cfRule type="expression" dxfId="109" priority="164">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1568:F1570">
-    <cfRule type="expression" dxfId="89" priority="154">
+    <cfRule type="expression" dxfId="108" priority="154">
       <formula>NOT(VLOOKUP(F1568,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="88" priority="155">
+    <cfRule type="expression" dxfId="107" priority="155">
       <formula>(VLOOKUP(F1568,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1599:F1600">
-    <cfRule type="expression" dxfId="87" priority="146">
+    <cfRule type="expression" dxfId="106" priority="146">
       <formula>NOT(VLOOKUP(F1599,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="86" priority="147">
+    <cfRule type="expression" dxfId="105" priority="147">
       <formula>(VLOOKUP(F1599,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1599:C1600">
-    <cfRule type="expression" dxfId="85" priority="137">
+    <cfRule type="expression" dxfId="104" priority="137">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="84" priority="138">
+    <cfRule type="expression" dxfId="103" priority="138">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="83" priority="139">
+    <cfRule type="expression" dxfId="102" priority="139">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1599:C1600">
-    <cfRule type="expression" dxfId="82" priority="140">
+    <cfRule type="expression" dxfId="101" priority="140">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="81" priority="141">
+    <cfRule type="expression" dxfId="100" priority="141">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="80" priority="142">
+    <cfRule type="expression" dxfId="99" priority="142">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1636:F1637">
-    <cfRule type="expression" dxfId="79" priority="132">
+    <cfRule type="expression" dxfId="98" priority="132">
       <formula>NOT(VLOOKUP(F1636,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="78" priority="133">
+    <cfRule type="expression" dxfId="97" priority="133">
       <formula>(VLOOKUP(F1636,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1636:B1637">
-    <cfRule type="expression" dxfId="77" priority="120">
+    <cfRule type="expression" dxfId="96" priority="120">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="76" priority="121">
+    <cfRule type="expression" dxfId="95" priority="121">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="75" priority="122">
+    <cfRule type="expression" dxfId="94" priority="122">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1636:B1637">
-    <cfRule type="expression" dxfId="74" priority="117">
+    <cfRule type="expression" dxfId="93" priority="117">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="73" priority="118">
+    <cfRule type="expression" dxfId="92" priority="118">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="72" priority="119">
+    <cfRule type="expression" dxfId="91" priority="119">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1636:A1637 C1636:C1637">
-    <cfRule type="expression" dxfId="71" priority="123">
+    <cfRule type="expression" dxfId="90" priority="123">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="70" priority="124">
+    <cfRule type="expression" dxfId="89" priority="124">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="69" priority="125">
+    <cfRule type="expression" dxfId="88" priority="125">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1636:A1637 C1636:C1637">
-    <cfRule type="expression" dxfId="68" priority="126">
+    <cfRule type="expression" dxfId="87" priority="126">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="67" priority="127">
+    <cfRule type="expression" dxfId="86" priority="127">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="66" priority="128">
+    <cfRule type="expression" dxfId="85" priority="128">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1539:F1540">
-    <cfRule type="expression" dxfId="65" priority="100">
+    <cfRule type="expression" dxfId="84" priority="100">
       <formula>NOT(VLOOKUP(F1539,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="64" priority="101">
+    <cfRule type="expression" dxfId="83" priority="101">
       <formula>(VLOOKUP(F1539,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1543:C1544">
-    <cfRule type="expression" dxfId="63" priority="88">
+    <cfRule type="expression" dxfId="82" priority="88">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="62" priority="89">
+    <cfRule type="expression" dxfId="81" priority="89">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="61" priority="90">
+    <cfRule type="expression" dxfId="80" priority="90">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1543:C1544">
-    <cfRule type="expression" dxfId="60" priority="85">
+    <cfRule type="expression" dxfId="79" priority="85">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="59" priority="86">
+    <cfRule type="expression" dxfId="78" priority="86">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="58" priority="87">
+    <cfRule type="expression" dxfId="77" priority="87">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1545:C1546">
-    <cfRule type="expression" dxfId="57" priority="76">
+    <cfRule type="expression" dxfId="76" priority="76">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="56" priority="77">
+    <cfRule type="expression" dxfId="75" priority="77">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="55" priority="78">
+    <cfRule type="expression" dxfId="74" priority="78">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1545:C1546">
-    <cfRule type="expression" dxfId="54" priority="73">
+    <cfRule type="expression" dxfId="73" priority="73">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="53" priority="74">
+    <cfRule type="expression" dxfId="72" priority="74">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="75">
+    <cfRule type="expression" dxfId="71" priority="75">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1549:C1550">
-    <cfRule type="expression" dxfId="51" priority="64">
+    <cfRule type="expression" dxfId="70" priority="64">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="50" priority="65">
+    <cfRule type="expression" dxfId="69" priority="65">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="49" priority="66">
+    <cfRule type="expression" dxfId="68" priority="66">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1549:C1550">
-    <cfRule type="expression" dxfId="48" priority="61">
+    <cfRule type="expression" dxfId="67" priority="61">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="47" priority="62">
+    <cfRule type="expression" dxfId="66" priority="62">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="63">
+    <cfRule type="expression" dxfId="65" priority="63">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C47:E48">
-    <cfRule type="expression" dxfId="45" priority="58">
+    <cfRule type="expression" dxfId="64" priority="58">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="44" priority="59">
+    <cfRule type="expression" dxfId="63" priority="59">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="43" priority="60">
+    <cfRule type="expression" dxfId="62" priority="60">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C47:E48">
-    <cfRule type="expression" dxfId="42" priority="53">
+    <cfRule type="expression" dxfId="61" priority="53">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="41" priority="54">
+    <cfRule type="expression" dxfId="60" priority="54">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="55">
+    <cfRule type="expression" dxfId="59" priority="55">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A47:A48">
-    <cfRule type="expression" dxfId="39" priority="50">
+    <cfRule type="expression" dxfId="58" priority="50">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="51">
+    <cfRule type="expression" dxfId="57" priority="51">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="52">
+    <cfRule type="expression" dxfId="56" priority="52">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A47:A48">
-    <cfRule type="expression" dxfId="36" priority="47">
+    <cfRule type="expression" dxfId="55" priority="47">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="35" priority="48">
+    <cfRule type="expression" dxfId="54" priority="48">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="49">
+    <cfRule type="expression" dxfId="53" priority="49">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B47">
-    <cfRule type="expression" dxfId="33" priority="44">
+    <cfRule type="expression" dxfId="52" priority="44">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="45">
+    <cfRule type="expression" dxfId="51" priority="45">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="46">
+    <cfRule type="expression" dxfId="50" priority="46">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B47">
-    <cfRule type="expression" dxfId="30" priority="41">
+    <cfRule type="expression" dxfId="49" priority="41">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="29" priority="42">
+    <cfRule type="expression" dxfId="48" priority="42">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="43">
+    <cfRule type="expression" dxfId="47" priority="43">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B48">
-    <cfRule type="expression" dxfId="27" priority="38">
+    <cfRule type="expression" dxfId="46" priority="38">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="39">
+    <cfRule type="expression" dxfId="45" priority="39">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="40">
+    <cfRule type="expression" dxfId="44" priority="40">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B48">
-    <cfRule type="expression" dxfId="24" priority="35">
+    <cfRule type="expression" dxfId="43" priority="35">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="23" priority="36">
+    <cfRule type="expression" dxfId="42" priority="36">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="37">
+    <cfRule type="expression" dxfId="41" priority="37">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F48">
-    <cfRule type="expression" dxfId="21" priority="7">
+    <cfRule type="expression" dxfId="40" priority="7">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="8">
+    <cfRule type="expression" dxfId="39" priority="8">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="9">
+    <cfRule type="expression" dxfId="38" priority="9">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F48">
-    <cfRule type="expression" dxfId="18" priority="12">
+    <cfRule type="expression" dxfId="37" priority="12">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="17" priority="13">
+    <cfRule type="expression" dxfId="36" priority="13">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="14">
+    <cfRule type="expression" dxfId="35" priority="14">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F47">
-    <cfRule type="expression" dxfId="15" priority="20">
+    <cfRule type="expression" dxfId="34" priority="20">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="21">
+    <cfRule type="expression" dxfId="33" priority="21">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="22">
+    <cfRule type="expression" dxfId="32" priority="22">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F47">
-    <cfRule type="expression" dxfId="12" priority="15">
+    <cfRule type="expression" dxfId="31" priority="15">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="16">
+    <cfRule type="expression" dxfId="30" priority="16">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="17">
+    <cfRule type="expression" dxfId="29" priority="17">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F47">
-    <cfRule type="expression" dxfId="9" priority="18">
+    <cfRule type="expression" dxfId="28" priority="18">
       <formula>NOT(VLOOKUP(F47,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="19">
+    <cfRule type="expression" dxfId="27" priority="19">
       <formula>(VLOOKUP(F47,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F48">
-    <cfRule type="expression" dxfId="7" priority="10">
+    <cfRule type="expression" dxfId="26" priority="10">
       <formula>NOT(VLOOKUP(F48,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="11">
+    <cfRule type="expression" dxfId="25" priority="11">
       <formula>(VLOOKUP(F48,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H47:H48">
-    <cfRule type="expression" dxfId="5" priority="4">
+    <cfRule type="expression" dxfId="24" priority="4">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="5">
+    <cfRule type="expression" dxfId="23" priority="5">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="6">
+    <cfRule type="expression" dxfId="22" priority="6">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H47:H48">
-    <cfRule type="expression" dxfId="2" priority="1">
+    <cfRule type="expression" dxfId="21" priority="1">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="20" priority="2">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="3">
+    <cfRule type="expression" dxfId="19" priority="3">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -55175,7 +55175,7 @@
   <pageMargins left="0.25" right="0.25" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="74" orientation="landscape" blackAndWhite="1" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="B19:B46 B49:B53 B577:B698 B1528:B1642 B1307:B1521 B700:B1305" numberStoredAsText="1"/>
+    <ignoredError sqref="B19:B699 B1527:B1642 B1306:B1526 B700:B1305 C3" numberStoredAsText="1"/>
   </ignoredErrors>
   <tableParts count="2">
     <tablePart r:id="rId2"/>

--- a/ExchangeMAPI/Docs/MS-OXNSPI/MS-OXNSPI_RequirementSpecification.xlsx
+++ b/ExchangeMAPI/Docs/MS-OXNSPI/MS-OXNSPI_RequirementSpecification.xlsx
@@ -11880,6 +11880,21 @@
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -11904,26 +11919,373 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="131">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <strike/>
@@ -12516,368 +12878,6 @@
         <strike/>
       </font>
     </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color theme="0"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -13005,34 +13005,34 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Requirement" displayName="Requirement" ref="A19:I1636" tableType="xml" totalsRowShown="0" headerRowDxfId="130" dataDxfId="129" headerRowCellStyle="Normal" dataCellStyle="Normal">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Requirement" displayName="Requirement" ref="A19:I1636" tableType="xml" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17" headerRowCellStyle="Normal" dataCellStyle="Normal">
   <autoFilter ref="A19:I1636"/>
   <tableColumns count="9">
-    <tableColumn id="1" uniqueName="ns1:REQ_ID" name="Req ID" dataDxfId="128" dataCellStyle="Normal">
+    <tableColumn id="1" uniqueName="ns1:REQ_ID" name="Req ID" dataDxfId="16" dataCellStyle="Normal">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:REQ_ID" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="2" uniqueName="ns1:Doc_Sect" name="Doc Sect" dataDxfId="127" dataCellStyle="Normal">
+    <tableColumn id="2" uniqueName="ns1:Doc_Sect" name="Doc Sect" dataDxfId="15" dataCellStyle="Normal">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Doc_Sect" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="3" uniqueName="ns1:Description" name="Description" dataDxfId="126" dataCellStyle="Normal">
+    <tableColumn id="3" uniqueName="ns1:Description" name="Description" dataDxfId="14" dataCellStyle="Normal">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Description" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="18" uniqueName="ns1:Derived" name="Derived" dataDxfId="125" dataCellStyle="Normal">
+    <tableColumn id="18" uniqueName="ns1:Derived" name="Derived" dataDxfId="13" dataCellStyle="Normal">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Derived" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="6" uniqueName="ns1:Behavior" name="Behavior" dataDxfId="124" dataCellStyle="Normal">
+    <tableColumn id="6" uniqueName="ns1:Behavior" name="Behavior" dataDxfId="12" dataCellStyle="Normal">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Behavior" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="7" uniqueName="ns1:Scope" name="Scope" dataDxfId="123" dataCellStyle="Normal">
+    <tableColumn id="7" uniqueName="ns1:Scope" name="Scope" dataDxfId="11" dataCellStyle="Normal">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Scope" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="9" uniqueName="ns1:IsNormative" name="Informative_x000a_/Normative" dataDxfId="122" dataCellStyle="Normal">
+    <tableColumn id="9" uniqueName="ns1:IsNormative" name="Informative_x000a_/Normative" dataDxfId="10" dataCellStyle="Normal">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:IsNormative" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="10" uniqueName="ns1:Verification" name="Verification" dataDxfId="121" dataCellStyle="Normal">
+    <tableColumn id="10" uniqueName="ns1:Verification" name="Verification" dataDxfId="9" dataCellStyle="Normal">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Verification" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="8" uniqueName="ns1:VerificationComment" name="Verification Comment" dataDxfId="120">
+    <tableColumn id="8" uniqueName="ns1:VerificationComment" name="Verification Comment" dataDxfId="8">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:VerificationComment" xmlDataType="string"/>
     </tableColumn>
   </tableColumns>
@@ -13041,12 +13041,12 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Scope" displayName="Scope" ref="A12:C15" totalsRowShown="0" headerRowDxfId="119" dataDxfId="117" headerRowBorderDxfId="118" tableBorderDxfId="116" totalsRowBorderDxfId="115">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Scope" displayName="Scope" ref="A12:C15" totalsRowShown="0" headerRowDxfId="7" dataDxfId="5" headerRowBorderDxfId="6" tableBorderDxfId="4" totalsRowBorderDxfId="3">
   <autoFilter ref="A12:C15"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Scope" dataDxfId="114"/>
-    <tableColumn id="2" name="Test" dataDxfId="113"/>
-    <tableColumn id="3" name="Description" dataDxfId="112"/>
+    <tableColumn id="1" name="Scope" dataDxfId="2"/>
+    <tableColumn id="2" name="Test" dataDxfId="1"/>
+    <tableColumn id="3" name="Description" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -13396,127 +13396,127 @@
       <c r="J3" s="5"/>
     </row>
     <row r="4" spans="1:10" ht="21">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="43"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
       <c r="J4" s="5"/>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="46" t="s">
+      <c r="B5" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="47"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="47"/>
-      <c r="G5" s="47"/>
-      <c r="H5" s="47"/>
-      <c r="I5" s="47"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="39"/>
+      <c r="I5" s="39"/>
       <c r="J5" s="5"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="45" t="s">
+      <c r="B6" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="45"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="45"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="37"/>
       <c r="J6" s="5"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="44" t="s">
+      <c r="B7" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44"/>
-      <c r="E7" s="44"/>
-      <c r="F7" s="44"/>
-      <c r="G7" s="44"/>
-      <c r="H7" s="44"/>
-      <c r="I7" s="44"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="36"/>
       <c r="J7" s="5"/>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="44" t="s">
+      <c r="B8" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="44"/>
-      <c r="D8" s="44"/>
-      <c r="E8" s="44"/>
-      <c r="F8" s="44"/>
-      <c r="G8" s="44"/>
-      <c r="H8" s="44"/>
-      <c r="I8" s="44"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="36"/>
       <c r="J8" s="5"/>
     </row>
     <row r="9" spans="1:10" ht="78.75" customHeight="1">
       <c r="A9" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="39" t="s">
+      <c r="B9" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="40"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="40"/>
-      <c r="F9" s="40"/>
-      <c r="G9" s="40"/>
-      <c r="H9" s="40"/>
-      <c r="I9" s="40"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="45"/>
+      <c r="F9" s="45"/>
+      <c r="G9" s="45"/>
+      <c r="H9" s="45"/>
+      <c r="I9" s="45"/>
       <c r="J9" s="5"/>
     </row>
     <row r="10" spans="1:10" ht="33.75" customHeight="1">
       <c r="A10" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="39" t="s">
+      <c r="B10" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="40"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="40"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="40"/>
-      <c r="H10" s="40"/>
-      <c r="I10" s="40"/>
+      <c r="C10" s="45"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="45"/>
+      <c r="F10" s="45"/>
+      <c r="G10" s="45"/>
+      <c r="H10" s="45"/>
+      <c r="I10" s="45"/>
       <c r="J10" s="5"/>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="35" t="s">
+      <c r="B11" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="35"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="35"/>
-      <c r="H11" s="35"/>
-      <c r="I11" s="35"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="40"/>
+      <c r="I11" s="40"/>
       <c r="J11" s="5"/>
     </row>
     <row r="12" spans="1:10">
@@ -13529,12 +13529,12 @@
       <c r="C12" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="36"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="36"/>
-      <c r="G12" s="36"/>
-      <c r="H12" s="36"/>
-      <c r="I12" s="36"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="41"/>
+      <c r="I12" s="41"/>
       <c r="J12" s="5"/>
     </row>
     <row r="13" spans="1:10" ht="15" customHeight="1">
@@ -13547,12 +13547,12 @@
       <c r="C13" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="37"/>
-      <c r="E13" s="37"/>
-      <c r="F13" s="37"/>
-      <c r="G13" s="37"/>
-      <c r="H13" s="37"/>
-      <c r="I13" s="37"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="42"/>
+      <c r="I13" s="42"/>
       <c r="J13" s="5"/>
     </row>
     <row r="14" spans="1:10">
@@ -13565,12 +13565,12 @@
       <c r="C14" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="37"/>
-      <c r="E14" s="37"/>
-      <c r="F14" s="37"/>
-      <c r="G14" s="37"/>
-      <c r="H14" s="37"/>
-      <c r="I14" s="37"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="42"/>
+      <c r="I14" s="42"/>
       <c r="J14" s="5"/>
     </row>
     <row r="15" spans="1:10">
@@ -13583,60 +13583,60 @@
       <c r="C15" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="38"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="38"/>
-      <c r="H15" s="38"/>
-      <c r="I15" s="38"/>
+      <c r="D15" s="43"/>
+      <c r="E15" s="43"/>
+      <c r="F15" s="43"/>
+      <c r="G15" s="43"/>
+      <c r="H15" s="43"/>
+      <c r="I15" s="43"/>
       <c r="J15" s="5"/>
     </row>
     <row r="16" spans="1:10" ht="30" customHeight="1">
       <c r="A16" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="35" t="s">
+      <c r="B16" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="C16" s="35"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="35"/>
-      <c r="I16" s="35"/>
+      <c r="C16" s="40"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="40"/>
+      <c r="H16" s="40"/>
+      <c r="I16" s="40"/>
       <c r="J16" s="5"/>
     </row>
     <row r="17" spans="1:12" ht="64.5" customHeight="1">
       <c r="A17" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="41" t="s">
+      <c r="B17" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="42"/>
-      <c r="D17" s="42"/>
-      <c r="E17" s="42"/>
-      <c r="F17" s="42"/>
-      <c r="G17" s="42"/>
-      <c r="H17" s="42"/>
-      <c r="I17" s="42"/>
+      <c r="C17" s="47"/>
+      <c r="D17" s="47"/>
+      <c r="E17" s="47"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="47"/>
+      <c r="H17" s="47"/>
+      <c r="I17" s="47"/>
       <c r="J17" s="5"/>
     </row>
     <row r="18" spans="1:12" ht="30" customHeight="1">
       <c r="A18" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="35" t="s">
+      <c r="B18" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="35"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="35"/>
-      <c r="H18" s="35"/>
-      <c r="I18" s="35"/>
+      <c r="C18" s="40"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="40"/>
+      <c r="H18" s="40"/>
+      <c r="I18" s="40"/>
       <c r="J18" s="5"/>
       <c r="L18" s="4"/>
     </row>
@@ -19642,7 +19642,7 @@
         <v>15</v>
       </c>
       <c r="H255" s="22" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I255" s="20"/>
     </row>
@@ -19667,7 +19667,7 @@
         <v>15</v>
       </c>
       <c r="H256" s="22" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I256" s="20"/>
     </row>
@@ -19692,7 +19692,7 @@
         <v>15</v>
       </c>
       <c r="H257" s="22" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I257" s="20"/>
     </row>
@@ -19716,8 +19716,8 @@
       <c r="G258" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="H258" s="32" t="s">
-        <v>20</v>
+      <c r="H258" s="22" t="s">
+        <v>18</v>
       </c>
       <c r="I258" s="34"/>
     </row>
@@ -54690,11 +54690,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="B8:I8"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="B5:I5"/>
     <mergeCell ref="B11:I11"/>
     <mergeCell ref="D12:I15"/>
     <mergeCell ref="B16:I16"/>
@@ -54702,421 +54697,426 @@
     <mergeCell ref="B9:I9"/>
     <mergeCell ref="B10:I10"/>
     <mergeCell ref="B17:I17"/>
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="B8:I8"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B5:I5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1542:B1545 A1548:B1549 A1637:I1637 A1634:H1634 D1542:I1545 A1546:I1547 A1550:I1566 D1548:I1549 A1600:I1633 A20:I46 A1570:I1597 E1567:H1569 D1598:H1599 D1635:H1636 G47:G48 I47:K48 A49:I1541">
-    <cfRule type="expression" dxfId="111" priority="192">
+    <cfRule type="expression" dxfId="130" priority="192">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="110" priority="193">
+    <cfRule type="expression" dxfId="129" priority="193">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="109" priority="194">
+    <cfRule type="expression" dxfId="128" priority="194">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1542:B1545 A1548:B1549 A1637:I1637 A1634:H1634 D1542:I1545 A1546:I1547 A1550:I1566 D1548:I1549 A1600:I1633 A20:I46 A1570:I1597 E1567:H1569 D1598:H1599 D1635:H1636 G47:G48 I47:K48 A49:I1541">
-    <cfRule type="expression" dxfId="108" priority="187">
+    <cfRule type="expression" dxfId="127" priority="187">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="107" priority="188">
+    <cfRule type="expression" dxfId="126" priority="188">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="106" priority="189">
+    <cfRule type="expression" dxfId="125" priority="189">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1637 F1536:F1537 F1540:F1566 F1600:F1634 F20:F46 F1570:F1597 F49:F1526">
-    <cfRule type="expression" dxfId="105" priority="190">
+    <cfRule type="expression" dxfId="124" priority="190">
       <formula>NOT(VLOOKUP(F20,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="104" priority="191">
+    <cfRule type="expression" dxfId="123" priority="191">
       <formula>(VLOOKUP(F20,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1567:I1569 I1598:I1599 I1634:I1636">
-    <cfRule type="expression" dxfId="103" priority="179">
+    <cfRule type="expression" dxfId="122" priority="179">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="102" priority="180">
+    <cfRule type="expression" dxfId="121" priority="180">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="101" priority="181">
+    <cfRule type="expression" dxfId="120" priority="181">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1567:I1569 I1598:I1599 I1634:I1636">
-    <cfRule type="expression" dxfId="100" priority="184">
+    <cfRule type="expression" dxfId="119" priority="184">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="99" priority="185">
+    <cfRule type="expression" dxfId="118" priority="185">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="98" priority="186">
+    <cfRule type="expression" dxfId="117" priority="186">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1527:F1535">
-    <cfRule type="expression" dxfId="97" priority="182">
+    <cfRule type="expression" dxfId="116" priority="182">
       <formula>NOT(VLOOKUP(F1527,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="96" priority="183">
+    <cfRule type="expression" dxfId="115" priority="183">
       <formula>(VLOOKUP(F1527,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1567:D1569">
-    <cfRule type="expression" dxfId="95" priority="159">
+    <cfRule type="expression" dxfId="114" priority="159">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="94" priority="160">
+    <cfRule type="expression" dxfId="113" priority="160">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="93" priority="161">
+    <cfRule type="expression" dxfId="112" priority="161">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1567:D1569">
-    <cfRule type="expression" dxfId="92" priority="162">
+    <cfRule type="expression" dxfId="111" priority="162">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="91" priority="163">
+    <cfRule type="expression" dxfId="110" priority="163">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="90" priority="164">
+    <cfRule type="expression" dxfId="109" priority="164">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1567:F1569">
-    <cfRule type="expression" dxfId="89" priority="154">
+    <cfRule type="expression" dxfId="108" priority="154">
       <formula>NOT(VLOOKUP(F1567,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="88" priority="155">
+    <cfRule type="expression" dxfId="107" priority="155">
       <formula>(VLOOKUP(F1567,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1598:F1599">
-    <cfRule type="expression" dxfId="87" priority="146">
+    <cfRule type="expression" dxfId="106" priority="146">
       <formula>NOT(VLOOKUP(F1598,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="86" priority="147">
+    <cfRule type="expression" dxfId="105" priority="147">
       <formula>(VLOOKUP(F1598,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1598:C1599">
-    <cfRule type="expression" dxfId="85" priority="137">
+    <cfRule type="expression" dxfId="104" priority="137">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="84" priority="138">
+    <cfRule type="expression" dxfId="103" priority="138">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="83" priority="139">
+    <cfRule type="expression" dxfId="102" priority="139">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1598:C1599">
-    <cfRule type="expression" dxfId="82" priority="140">
+    <cfRule type="expression" dxfId="101" priority="140">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="81" priority="141">
+    <cfRule type="expression" dxfId="100" priority="141">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="80" priority="142">
+    <cfRule type="expression" dxfId="99" priority="142">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1635:F1636">
-    <cfRule type="expression" dxfId="79" priority="132">
+    <cfRule type="expression" dxfId="98" priority="132">
       <formula>NOT(VLOOKUP(F1635,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="78" priority="133">
+    <cfRule type="expression" dxfId="97" priority="133">
       <formula>(VLOOKUP(F1635,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1635:B1636">
-    <cfRule type="expression" dxfId="77" priority="120">
+    <cfRule type="expression" dxfId="96" priority="120">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="76" priority="121">
+    <cfRule type="expression" dxfId="95" priority="121">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="75" priority="122">
+    <cfRule type="expression" dxfId="94" priority="122">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1635:B1636">
-    <cfRule type="expression" dxfId="74" priority="117">
+    <cfRule type="expression" dxfId="93" priority="117">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="73" priority="118">
+    <cfRule type="expression" dxfId="92" priority="118">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="72" priority="119">
+    <cfRule type="expression" dxfId="91" priority="119">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1635:A1636 C1635:C1636">
-    <cfRule type="expression" dxfId="71" priority="123">
+    <cfRule type="expression" dxfId="90" priority="123">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="70" priority="124">
+    <cfRule type="expression" dxfId="89" priority="124">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="69" priority="125">
+    <cfRule type="expression" dxfId="88" priority="125">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1635:A1636 C1635:C1636">
-    <cfRule type="expression" dxfId="68" priority="126">
+    <cfRule type="expression" dxfId="87" priority="126">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="67" priority="127">
+    <cfRule type="expression" dxfId="86" priority="127">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="66" priority="128">
+    <cfRule type="expression" dxfId="85" priority="128">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1538:F1539">
-    <cfRule type="expression" dxfId="65" priority="100">
+    <cfRule type="expression" dxfId="84" priority="100">
       <formula>NOT(VLOOKUP(F1538,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="64" priority="101">
+    <cfRule type="expression" dxfId="83" priority="101">
       <formula>(VLOOKUP(F1538,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1542:C1543">
-    <cfRule type="expression" dxfId="63" priority="88">
+    <cfRule type="expression" dxfId="82" priority="88">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="62" priority="89">
+    <cfRule type="expression" dxfId="81" priority="89">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="61" priority="90">
+    <cfRule type="expression" dxfId="80" priority="90">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1542:C1543">
-    <cfRule type="expression" dxfId="60" priority="85">
+    <cfRule type="expression" dxfId="79" priority="85">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="59" priority="86">
+    <cfRule type="expression" dxfId="78" priority="86">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="58" priority="87">
+    <cfRule type="expression" dxfId="77" priority="87">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1544:C1545">
-    <cfRule type="expression" dxfId="57" priority="76">
+    <cfRule type="expression" dxfId="76" priority="76">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="56" priority="77">
+    <cfRule type="expression" dxfId="75" priority="77">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="55" priority="78">
+    <cfRule type="expression" dxfId="74" priority="78">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1544:C1545">
-    <cfRule type="expression" dxfId="54" priority="73">
+    <cfRule type="expression" dxfId="73" priority="73">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="53" priority="74">
+    <cfRule type="expression" dxfId="72" priority="74">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="75">
+    <cfRule type="expression" dxfId="71" priority="75">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1548:C1549">
-    <cfRule type="expression" dxfId="51" priority="64">
+    <cfRule type="expression" dxfId="70" priority="64">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="50" priority="65">
+    <cfRule type="expression" dxfId="69" priority="65">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="49" priority="66">
+    <cfRule type="expression" dxfId="68" priority="66">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1548:C1549">
-    <cfRule type="expression" dxfId="48" priority="61">
+    <cfRule type="expression" dxfId="67" priority="61">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="47" priority="62">
+    <cfRule type="expression" dxfId="66" priority="62">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="63">
+    <cfRule type="expression" dxfId="65" priority="63">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C47:E48">
-    <cfRule type="expression" dxfId="45" priority="58">
+    <cfRule type="expression" dxfId="64" priority="58">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="44" priority="59">
+    <cfRule type="expression" dxfId="63" priority="59">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="43" priority="60">
+    <cfRule type="expression" dxfId="62" priority="60">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C47:E48">
-    <cfRule type="expression" dxfId="42" priority="53">
+    <cfRule type="expression" dxfId="61" priority="53">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="41" priority="54">
+    <cfRule type="expression" dxfId="60" priority="54">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="55">
+    <cfRule type="expression" dxfId="59" priority="55">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A47:A48">
-    <cfRule type="expression" dxfId="39" priority="50">
+    <cfRule type="expression" dxfId="58" priority="50">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="51">
+    <cfRule type="expression" dxfId="57" priority="51">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="52">
+    <cfRule type="expression" dxfId="56" priority="52">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A47:A48">
-    <cfRule type="expression" dxfId="36" priority="47">
+    <cfRule type="expression" dxfId="55" priority="47">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="35" priority="48">
+    <cfRule type="expression" dxfId="54" priority="48">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="49">
+    <cfRule type="expression" dxfId="53" priority="49">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B47">
-    <cfRule type="expression" dxfId="33" priority="44">
+    <cfRule type="expression" dxfId="52" priority="44">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="45">
+    <cfRule type="expression" dxfId="51" priority="45">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="46">
+    <cfRule type="expression" dxfId="50" priority="46">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B47">
-    <cfRule type="expression" dxfId="30" priority="41">
+    <cfRule type="expression" dxfId="49" priority="41">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="29" priority="42">
+    <cfRule type="expression" dxfId="48" priority="42">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="43">
+    <cfRule type="expression" dxfId="47" priority="43">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B48">
-    <cfRule type="expression" dxfId="27" priority="38">
+    <cfRule type="expression" dxfId="46" priority="38">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="39">
+    <cfRule type="expression" dxfId="45" priority="39">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="40">
+    <cfRule type="expression" dxfId="44" priority="40">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B48">
-    <cfRule type="expression" dxfId="24" priority="35">
+    <cfRule type="expression" dxfId="43" priority="35">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="23" priority="36">
+    <cfRule type="expression" dxfId="42" priority="36">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="37">
+    <cfRule type="expression" dxfId="41" priority="37">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F48">
-    <cfRule type="expression" dxfId="21" priority="7">
+    <cfRule type="expression" dxfId="40" priority="7">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="8">
+    <cfRule type="expression" dxfId="39" priority="8">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="9">
+    <cfRule type="expression" dxfId="38" priority="9">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F48">
-    <cfRule type="expression" dxfId="18" priority="12">
+    <cfRule type="expression" dxfId="37" priority="12">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="17" priority="13">
+    <cfRule type="expression" dxfId="36" priority="13">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="14">
+    <cfRule type="expression" dxfId="35" priority="14">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F47">
-    <cfRule type="expression" dxfId="15" priority="20">
+    <cfRule type="expression" dxfId="34" priority="20">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="21">
+    <cfRule type="expression" dxfId="33" priority="21">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="22">
+    <cfRule type="expression" dxfId="32" priority="22">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F47">
-    <cfRule type="expression" dxfId="12" priority="15">
+    <cfRule type="expression" dxfId="31" priority="15">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="16">
+    <cfRule type="expression" dxfId="30" priority="16">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="17">
+    <cfRule type="expression" dxfId="29" priority="17">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F47">
-    <cfRule type="expression" dxfId="9" priority="18">
+    <cfRule type="expression" dxfId="28" priority="18">
       <formula>NOT(VLOOKUP(F47,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="19">
+    <cfRule type="expression" dxfId="27" priority="19">
       <formula>(VLOOKUP(F47,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F48">
-    <cfRule type="expression" dxfId="7" priority="10">
+    <cfRule type="expression" dxfId="26" priority="10">
       <formula>NOT(VLOOKUP(F48,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="11">
+    <cfRule type="expression" dxfId="25" priority="11">
       <formula>(VLOOKUP(F48,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H47:H48">
-    <cfRule type="expression" dxfId="5" priority="4">
+    <cfRule type="expression" dxfId="24" priority="4">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="5">
+    <cfRule type="expression" dxfId="23" priority="5">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="6">
+    <cfRule type="expression" dxfId="22" priority="6">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H47:H48">
-    <cfRule type="expression" dxfId="2" priority="1">
+    <cfRule type="expression" dxfId="21" priority="1">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="20" priority="2">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="3">
+    <cfRule type="expression" dxfId="19" priority="3">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>

--- a/ExchangeMAPI/Docs/MS-OXNSPI/MS-OXNSPI_RequirementSpecification.xlsx
+++ b/ExchangeMAPI/Docs/MS-OXNSPI/MS-OXNSPI_RequirementSpecification.xlsx
@@ -11872,6 +11872,21 @@
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -11895,21 +11910,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -13388,127 +13388,127 @@
       <c r="J3" s="5"/>
     </row>
     <row r="4" spans="1:10" ht="21">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="43"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
       <c r="J4" s="5"/>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="46" t="s">
+      <c r="B5" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="47"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="47"/>
-      <c r="G5" s="47"/>
-      <c r="H5" s="47"/>
-      <c r="I5" s="47"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="39"/>
+      <c r="I5" s="39"/>
       <c r="J5" s="5"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="45" t="s">
+      <c r="B6" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="45"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="45"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="37"/>
       <c r="J6" s="5"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="44" t="s">
+      <c r="B7" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44"/>
-      <c r="E7" s="44"/>
-      <c r="F7" s="44"/>
-      <c r="G7" s="44"/>
-      <c r="H7" s="44"/>
-      <c r="I7" s="44"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="36"/>
       <c r="J7" s="5"/>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="44" t="s">
+      <c r="B8" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="44"/>
-      <c r="D8" s="44"/>
-      <c r="E8" s="44"/>
-      <c r="F8" s="44"/>
-      <c r="G8" s="44"/>
-      <c r="H8" s="44"/>
-      <c r="I8" s="44"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="36"/>
       <c r="J8" s="5"/>
     </row>
     <row r="9" spans="1:10" ht="78.75" customHeight="1">
       <c r="A9" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="39" t="s">
+      <c r="B9" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="40"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="40"/>
-      <c r="F9" s="40"/>
-      <c r="G9" s="40"/>
-      <c r="H9" s="40"/>
-      <c r="I9" s="40"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="45"/>
+      <c r="F9" s="45"/>
+      <c r="G9" s="45"/>
+      <c r="H9" s="45"/>
+      <c r="I9" s="45"/>
       <c r="J9" s="5"/>
     </row>
     <row r="10" spans="1:10" ht="33.75" customHeight="1">
       <c r="A10" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="39" t="s">
+      <c r="B10" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="40"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="40"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="40"/>
-      <c r="H10" s="40"/>
-      <c r="I10" s="40"/>
+      <c r="C10" s="45"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="45"/>
+      <c r="F10" s="45"/>
+      <c r="G10" s="45"/>
+      <c r="H10" s="45"/>
+      <c r="I10" s="45"/>
       <c r="J10" s="5"/>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="35" t="s">
+      <c r="B11" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="35"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="35"/>
-      <c r="H11" s="35"/>
-      <c r="I11" s="35"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="40"/>
+      <c r="I11" s="40"/>
       <c r="J11" s="5"/>
     </row>
     <row r="12" spans="1:10">
@@ -13521,12 +13521,12 @@
       <c r="C12" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="36"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="36"/>
-      <c r="G12" s="36"/>
-      <c r="H12" s="36"/>
-      <c r="I12" s="36"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="41"/>
+      <c r="I12" s="41"/>
       <c r="J12" s="5"/>
     </row>
     <row r="13" spans="1:10" ht="15" customHeight="1">
@@ -13539,12 +13539,12 @@
       <c r="C13" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="37"/>
-      <c r="E13" s="37"/>
-      <c r="F13" s="37"/>
-      <c r="G13" s="37"/>
-      <c r="H13" s="37"/>
-      <c r="I13" s="37"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="42"/>
+      <c r="I13" s="42"/>
       <c r="J13" s="5"/>
     </row>
     <row r="14" spans="1:10">
@@ -13557,12 +13557,12 @@
       <c r="C14" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="37"/>
-      <c r="E14" s="37"/>
-      <c r="F14" s="37"/>
-      <c r="G14" s="37"/>
-      <c r="H14" s="37"/>
-      <c r="I14" s="37"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="42"/>
+      <c r="I14" s="42"/>
       <c r="J14" s="5"/>
     </row>
     <row r="15" spans="1:10">
@@ -13575,60 +13575,60 @@
       <c r="C15" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="38"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="38"/>
-      <c r="H15" s="38"/>
-      <c r="I15" s="38"/>
+      <c r="D15" s="43"/>
+      <c r="E15" s="43"/>
+      <c r="F15" s="43"/>
+      <c r="G15" s="43"/>
+      <c r="H15" s="43"/>
+      <c r="I15" s="43"/>
       <c r="J15" s="5"/>
     </row>
     <row r="16" spans="1:10" ht="30" customHeight="1">
       <c r="A16" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="35" t="s">
+      <c r="B16" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="C16" s="35"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="35"/>
-      <c r="I16" s="35"/>
+      <c r="C16" s="40"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="40"/>
+      <c r="H16" s="40"/>
+      <c r="I16" s="40"/>
       <c r="J16" s="5"/>
     </row>
     <row r="17" spans="1:12" ht="64.5" customHeight="1">
       <c r="A17" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="41" t="s">
+      <c r="B17" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="42"/>
-      <c r="D17" s="42"/>
-      <c r="E17" s="42"/>
-      <c r="F17" s="42"/>
-      <c r="G17" s="42"/>
-      <c r="H17" s="42"/>
-      <c r="I17" s="42"/>
+      <c r="C17" s="47"/>
+      <c r="D17" s="47"/>
+      <c r="E17" s="47"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="47"/>
+      <c r="H17" s="47"/>
+      <c r="I17" s="47"/>
       <c r="J17" s="5"/>
     </row>
     <row r="18" spans="1:12" ht="30" customHeight="1">
       <c r="A18" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="35" t="s">
+      <c r="B18" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="35"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="35"/>
-      <c r="H18" s="35"/>
-      <c r="I18" s="35"/>
+      <c r="C18" s="40"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="40"/>
+      <c r="H18" s="40"/>
+      <c r="I18" s="40"/>
       <c r="J18" s="5"/>
       <c r="L18" s="4"/>
     </row>
@@ -51834,8 +51834,8 @@
       <c r="G1524" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="H1524" s="22" t="s">
-        <v>20</v>
+      <c r="H1524" s="32" t="s">
+        <v>18</v>
       </c>
       <c r="I1524" s="20" t="s">
         <v>2401</v>
@@ -54676,11 +54676,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="B8:I8"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="B5:I5"/>
     <mergeCell ref="B11:I11"/>
     <mergeCell ref="D12:I15"/>
     <mergeCell ref="B16:I16"/>
@@ -54688,6 +54683,11 @@
     <mergeCell ref="B9:I9"/>
     <mergeCell ref="B10:I10"/>
     <mergeCell ref="B17:I17"/>
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="B8:I8"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B5:I5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1542:B1545 A1548:B1549 A1637:I1637 A1634:H1634 D1542:I1545 A1546:I1547 A1550:I1566 D1548:I1549 A1600:I1633 A20:I46 A1570:I1597 E1567:H1569 D1598:H1599 D1635:H1636 G47:G48 I47:K48 A49:I1541">

--- a/ExchangeMAPI/Docs/MS-OXNSPI/MS-OXNSPI_RequirementSpecification.xlsx
+++ b/ExchangeMAPI/Docs/MS-OXNSPI/MS-OXNSPI_RequirementSpecification.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11639" uniqueCount="3643">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11637" uniqueCount="3642">
   <si>
     <t>Req ID</t>
   </si>
@@ -10699,10 +10699,6 @@
     <t>2.8.1.1</t>
   </si>
   <si>
-    <t>[In StandardPropertyRow Structure] Flag (1 byte): An unsigned integer.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>MS-OXCDATA_R73</t>
   </si>
   <si>
@@ -10935,10 +10931,6 @@
   </si>
   <si>
     <t>MS-OXCDATA_R6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MS-OXCDATA_R72</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -11479,9 +11471,6 @@
     <t>MS-OXNSPI_R2003010</t>
   </si>
   <si>
-    <t xml:space="preserve">MS-OXNSPI_R1527:I, MS-OXNSPI_R1301:I </t>
-  </si>
-  <si>
     <t>MS-OXNSPI_R412:i</t>
   </si>
   <si>
@@ -11554,9 +11543,6 @@
     <t>[In Appendix A: Product Behavior] Implementation does follow the ABNF format. (Microsoft Exchange Server 2010 Service Pack 3 (SP3) follows this behavior).</t>
   </si>
   <si>
-    <t>Verified by derived requirement: MS-OXNSPI_R2003007.</t>
-  </si>
-  <si>
     <t>Verified by derived requirement: MS-OXNSPI_R2003005.</t>
   </si>
   <si>
@@ -11588,6 +11574,15 @@
   </si>
   <si>
     <t>[In Appendix A: Product Behavior] Implementation does return "GeneralFailure" when modify either the PidTagAddressBookMember property or the PidTagAddressBookPublicDelegates property of any objects in the address book. &lt;6&gt; Section 3.1.4.1.15:  Exchange 2013 and Exchange 2016 return "GeneralFailure" (0x80004005) when modification of either the PidTagAddressBookMember property ([MS-OXOABK] section 2.2.6.1) or the PidTagAddressBookPublicDelegates property ([MS-OXOABK] section 2.2.5.5) is attempted.</t>
+  </si>
+  <si>
+    <t>MS-OXCDATA_R72</t>
+  </si>
+  <si>
+    <t>[In StandardPropertyRow Structure] Flag (1 byte): An unsigned integer.</t>
+  </si>
+  <si>
+    <t>MS-OXNSPI_R1527:i, MS-OXNSPI_R1301:i</t>
   </si>
 </sst>
 </file>
@@ -11872,21 +11867,6 @@
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -11910,6 +11890,21 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -13120,6 +13115,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -13155,6 +13167,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -13377,7 +13406,7 @@
         <v>25</v>
       </c>
       <c r="C3" s="31" t="s">
-        <v>3613</v>
+        <v>3610</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>26</v>
@@ -13388,127 +13417,127 @@
       <c r="J3" s="5"/>
     </row>
     <row r="4" spans="1:10" ht="21">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="35"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="43"/>
       <c r="J4" s="5"/>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="38" t="s">
+      <c r="B5" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="39"/>
-      <c r="I5" s="39"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="47"/>
       <c r="J5" s="5"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="37" t="s">
+      <c r="B6" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="37"/>
-      <c r="I6" s="37"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="45"/>
+      <c r="I6" s="45"/>
       <c r="J6" s="5"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="36" t="s">
+      <c r="B7" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="36"/>
-      <c r="D7" s="36"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36"/>
-      <c r="G7" s="36"/>
-      <c r="H7" s="36"/>
-      <c r="I7" s="36"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="44"/>
+      <c r="G7" s="44"/>
+      <c r="H7" s="44"/>
+      <c r="I7" s="44"/>
       <c r="J7" s="5"/>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="36" t="s">
+      <c r="B8" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="36"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="36"/>
-      <c r="H8" s="36"/>
-      <c r="I8" s="36"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="44"/>
       <c r="J8" s="5"/>
     </row>
     <row r="9" spans="1:10" ht="78.75" customHeight="1">
       <c r="A9" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="44" t="s">
+      <c r="B9" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="45"/>
-      <c r="D9" s="45"/>
-      <c r="E9" s="45"/>
-      <c r="F9" s="45"/>
-      <c r="G9" s="45"/>
-      <c r="H9" s="45"/>
-      <c r="I9" s="45"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="40"/>
+      <c r="I9" s="40"/>
       <c r="J9" s="5"/>
     </row>
     <row r="10" spans="1:10" ht="33.75" customHeight="1">
       <c r="A10" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="44" t="s">
+      <c r="B10" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="45"/>
-      <c r="D10" s="45"/>
-      <c r="E10" s="45"/>
-      <c r="F10" s="45"/>
-      <c r="G10" s="45"/>
-      <c r="H10" s="45"/>
-      <c r="I10" s="45"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="40"/>
+      <c r="I10" s="40"/>
       <c r="J10" s="5"/>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="40" t="s">
+      <c r="B11" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="40"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="40"/>
-      <c r="F11" s="40"/>
-      <c r="G11" s="40"/>
-      <c r="H11" s="40"/>
-      <c r="I11" s="40"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="35"/>
+      <c r="I11" s="35"/>
       <c r="J11" s="5"/>
     </row>
     <row r="12" spans="1:10">
@@ -13521,12 +13550,12 @@
       <c r="C12" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="41"/>
-      <c r="E12" s="41"/>
-      <c r="F12" s="41"/>
-      <c r="G12" s="41"/>
-      <c r="H12" s="41"/>
-      <c r="I12" s="41"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="36"/>
+      <c r="I12" s="36"/>
       <c r="J12" s="5"/>
     </row>
     <row r="13" spans="1:10" ht="15" customHeight="1">
@@ -13539,12 +13568,12 @@
       <c r="C13" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="42"/>
-      <c r="E13" s="42"/>
-      <c r="F13" s="42"/>
-      <c r="G13" s="42"/>
-      <c r="H13" s="42"/>
-      <c r="I13" s="42"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="37"/>
+      <c r="I13" s="37"/>
       <c r="J13" s="5"/>
     </row>
     <row r="14" spans="1:10">
@@ -13557,12 +13586,12 @@
       <c r="C14" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="42"/>
-      <c r="E14" s="42"/>
-      <c r="F14" s="42"/>
-      <c r="G14" s="42"/>
-      <c r="H14" s="42"/>
-      <c r="I14" s="42"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="37"/>
+      <c r="I14" s="37"/>
       <c r="J14" s="5"/>
     </row>
     <row r="15" spans="1:10">
@@ -13575,60 +13604,60 @@
       <c r="C15" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="43"/>
-      <c r="E15" s="43"/>
-      <c r="F15" s="43"/>
-      <c r="G15" s="43"/>
-      <c r="H15" s="43"/>
-      <c r="I15" s="43"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="38"/>
+      <c r="I15" s="38"/>
       <c r="J15" s="5"/>
     </row>
     <row r="16" spans="1:10" ht="30" customHeight="1">
       <c r="A16" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="40" t="s">
+      <c r="B16" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="C16" s="40"/>
-      <c r="D16" s="40"/>
-      <c r="E16" s="40"/>
-      <c r="F16" s="40"/>
-      <c r="G16" s="40"/>
-      <c r="H16" s="40"/>
-      <c r="I16" s="40"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="35"/>
+      <c r="I16" s="35"/>
       <c r="J16" s="5"/>
     </row>
     <row r="17" spans="1:12" ht="64.5" customHeight="1">
       <c r="A17" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="46" t="s">
+      <c r="B17" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="47"/>
-      <c r="D17" s="47"/>
-      <c r="E17" s="47"/>
-      <c r="F17" s="47"/>
-      <c r="G17" s="47"/>
-      <c r="H17" s="47"/>
-      <c r="I17" s="47"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="42"/>
+      <c r="I17" s="42"/>
       <c r="J17" s="5"/>
     </row>
     <row r="18" spans="1:12" ht="30" customHeight="1">
       <c r="A18" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="40" t="s">
+      <c r="B18" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="40"/>
-      <c r="D18" s="40"/>
-      <c r="E18" s="40"/>
-      <c r="F18" s="40"/>
-      <c r="G18" s="40"/>
-      <c r="H18" s="40"/>
-      <c r="I18" s="40"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="35"/>
+      <c r="I18" s="35"/>
       <c r="J18" s="5"/>
       <c r="L18" s="4"/>
     </row>
@@ -13795,7 +13824,7 @@
         <v>43</v>
       </c>
       <c r="C25" s="20" t="s">
-        <v>3627</v>
+        <v>3624</v>
       </c>
       <c r="D25" s="22"/>
       <c r="E25" s="22" t="s">
@@ -13945,7 +13974,7 @@
         <v>43</v>
       </c>
       <c r="C31" s="20" t="s">
-        <v>3629</v>
+        <v>3626</v>
       </c>
       <c r="D31" s="22"/>
       <c r="E31" s="22" t="s">
@@ -14222,7 +14251,7 @@
         <v>87</v>
       </c>
       <c r="C42" s="20" t="s">
-        <v>3636</v>
+        <v>3632</v>
       </c>
       <c r="D42" s="22"/>
       <c r="E42" s="22" t="s">
@@ -14343,13 +14372,13 @@
     </row>
     <row r="47" spans="1:11" ht="30">
       <c r="A47" s="22" t="s">
-        <v>3450</v>
+        <v>3448</v>
       </c>
       <c r="B47" s="25" t="s">
         <v>87</v>
       </c>
       <c r="C47" s="33" t="s">
-        <v>3615</v>
+        <v>3612</v>
       </c>
       <c r="D47" s="32"/>
       <c r="E47" s="32" t="s">
@@ -14370,13 +14399,13 @@
     </row>
     <row r="48" spans="1:11" ht="30">
       <c r="A48" s="22" t="s">
-        <v>3451</v>
+        <v>3449</v>
       </c>
       <c r="B48" s="25" t="s">
         <v>87</v>
       </c>
       <c r="C48" s="33" t="s">
-        <v>3614</v>
+        <v>3611</v>
       </c>
       <c r="D48" s="32"/>
       <c r="E48" s="32" t="s">
@@ -16116,7 +16145,7 @@
         <v>176</v>
       </c>
       <c r="B117" s="25" t="s">
-        <v>3452</v>
+        <v>3450</v>
       </c>
       <c r="C117" s="20" t="s">
         <v>178</v>
@@ -16141,7 +16170,7 @@
         <v>179</v>
       </c>
       <c r="B118" s="25" t="s">
-        <v>3452</v>
+        <v>3450</v>
       </c>
       <c r="C118" s="20" t="s">
         <v>180</v>
@@ -16166,7 +16195,7 @@
         <v>181</v>
       </c>
       <c r="B119" s="25" t="s">
-        <v>3452</v>
+        <v>3450</v>
       </c>
       <c r="C119" s="20" t="s">
         <v>182</v>
@@ -16193,7 +16222,7 @@
         <v>184</v>
       </c>
       <c r="B120" s="25" t="s">
-        <v>3452</v>
+        <v>3450</v>
       </c>
       <c r="C120" s="20" t="s">
         <v>185</v>
@@ -16220,7 +16249,7 @@
         <v>186</v>
       </c>
       <c r="B121" s="25" t="s">
-        <v>3452</v>
+        <v>3450</v>
       </c>
       <c r="C121" s="20" t="s">
         <v>187</v>
@@ -16247,7 +16276,7 @@
         <v>188</v>
       </c>
       <c r="B122" s="25" t="s">
-        <v>3452</v>
+        <v>3450</v>
       </c>
       <c r="C122" s="20" t="s">
         <v>189</v>
@@ -16274,7 +16303,7 @@
         <v>191</v>
       </c>
       <c r="B123" s="25" t="s">
-        <v>3452</v>
+        <v>3450</v>
       </c>
       <c r="C123" s="20" t="s">
         <v>192</v>
@@ -16301,7 +16330,7 @@
         <v>194</v>
       </c>
       <c r="B124" s="25" t="s">
-        <v>3453</v>
+        <v>3451</v>
       </c>
       <c r="C124" s="20" t="s">
         <v>195</v>
@@ -16326,7 +16355,7 @@
         <v>196</v>
       </c>
       <c r="B125" s="25" t="s">
-        <v>3453</v>
+        <v>3451</v>
       </c>
       <c r="C125" s="20" t="s">
         <v>197</v>
@@ -16351,7 +16380,7 @@
         <v>198</v>
       </c>
       <c r="B126" s="25" t="s">
-        <v>3453</v>
+        <v>3451</v>
       </c>
       <c r="C126" s="20" t="s">
         <v>199</v>
@@ -16378,7 +16407,7 @@
         <v>201</v>
       </c>
       <c r="B127" s="25" t="s">
-        <v>3453</v>
+        <v>3451</v>
       </c>
       <c r="C127" s="20" t="s">
         <v>202</v>
@@ -16405,7 +16434,7 @@
         <v>204</v>
       </c>
       <c r="B128" s="25" t="s">
-        <v>3453</v>
+        <v>3451</v>
       </c>
       <c r="C128" s="20" t="s">
         <v>205</v>
@@ -16430,7 +16459,7 @@
         <v>206</v>
       </c>
       <c r="B129" s="25" t="s">
-        <v>3453</v>
+        <v>3451</v>
       </c>
       <c r="C129" s="20" t="s">
         <v>207</v>
@@ -16455,7 +16484,7 @@
         <v>208</v>
       </c>
       <c r="B130" s="25" t="s">
-        <v>3453</v>
+        <v>3451</v>
       </c>
       <c r="C130" s="20" t="s">
         <v>209</v>
@@ -16480,7 +16509,7 @@
         <v>210</v>
       </c>
       <c r="B131" s="25" t="s">
-        <v>3453</v>
+        <v>3451</v>
       </c>
       <c r="C131" s="20" t="s">
         <v>211</v>
@@ -16505,7 +16534,7 @@
         <v>212</v>
       </c>
       <c r="B132" s="25" t="s">
-        <v>3453</v>
+        <v>3451</v>
       </c>
       <c r="C132" s="20" t="s">
         <v>213</v>
@@ -16530,7 +16559,7 @@
         <v>214</v>
       </c>
       <c r="B133" s="25" t="s">
-        <v>3453</v>
+        <v>3451</v>
       </c>
       <c r="C133" s="20" t="s">
         <v>215</v>
@@ -16555,7 +16584,7 @@
         <v>216</v>
       </c>
       <c r="B134" s="25" t="s">
-        <v>3453</v>
+        <v>3451</v>
       </c>
       <c r="C134" s="20" t="s">
         <v>217</v>
@@ -16577,13 +16606,13 @@
     </row>
     <row r="135" spans="1:9" ht="30">
       <c r="A135" s="22" t="s">
-        <v>3617</v>
+        <v>3614</v>
       </c>
       <c r="B135" s="25" t="s">
-        <v>3453</v>
-      </c>
-      <c r="C135" s="33" t="s">
-        <v>3616</v>
+        <v>3451</v>
+      </c>
+      <c r="C135" s="20" t="s">
+        <v>3613</v>
       </c>
       <c r="D135" s="32"/>
       <c r="E135" s="32" t="s">
@@ -16605,7 +16634,7 @@
         <v>218</v>
       </c>
       <c r="B136" s="25" t="s">
-        <v>3453</v>
+        <v>3451</v>
       </c>
       <c r="C136" s="20" t="s">
         <v>219</v>
@@ -16630,7 +16659,7 @@
         <v>220</v>
       </c>
       <c r="B137" s="25" t="s">
-        <v>3453</v>
+        <v>3451</v>
       </c>
       <c r="C137" s="20" t="s">
         <v>221</v>
@@ -16655,7 +16684,7 @@
         <v>222</v>
       </c>
       <c r="B138" s="25" t="s">
-        <v>3453</v>
+        <v>3451</v>
       </c>
       <c r="C138" s="20" t="s">
         <v>223</v>
@@ -16680,7 +16709,7 @@
         <v>224</v>
       </c>
       <c r="B139" s="25" t="s">
-        <v>3453</v>
+        <v>3451</v>
       </c>
       <c r="C139" s="20" t="s">
         <v>225</v>
@@ -16707,7 +16736,7 @@
         <v>227</v>
       </c>
       <c r="B140" s="25" t="s">
-        <v>3453</v>
+        <v>3451</v>
       </c>
       <c r="C140" s="20" t="s">
         <v>228</v>
@@ -16734,7 +16763,7 @@
         <v>230</v>
       </c>
       <c r="B141" s="25" t="s">
-        <v>3453</v>
+        <v>3451</v>
       </c>
       <c r="C141" s="20" t="s">
         <v>231</v>
@@ -16761,7 +16790,7 @@
         <v>232</v>
       </c>
       <c r="B142" s="25" t="s">
-        <v>3453</v>
+        <v>3451</v>
       </c>
       <c r="C142" s="20" t="s">
         <v>233</v>
@@ -16786,7 +16815,7 @@
         <v>234</v>
       </c>
       <c r="B143" s="25" t="s">
-        <v>3453</v>
+        <v>3451</v>
       </c>
       <c r="C143" s="20" t="s">
         <v>235</v>
@@ -16811,7 +16840,7 @@
         <v>236</v>
       </c>
       <c r="B144" s="25" t="s">
-        <v>3453</v>
+        <v>3451</v>
       </c>
       <c r="C144" s="20" t="s">
         <v>237</v>
@@ -16836,7 +16865,7 @@
         <v>238</v>
       </c>
       <c r="B145" s="25" t="s">
-        <v>3453</v>
+        <v>3451</v>
       </c>
       <c r="C145" s="20" t="s">
         <v>239</v>
@@ -16863,7 +16892,7 @@
         <v>241</v>
       </c>
       <c r="B146" s="25" t="s">
-        <v>3453</v>
+        <v>3451</v>
       </c>
       <c r="C146" s="20" t="s">
         <v>242</v>
@@ -16890,7 +16919,7 @@
         <v>244</v>
       </c>
       <c r="B147" s="25" t="s">
-        <v>3453</v>
+        <v>3451</v>
       </c>
       <c r="C147" s="20" t="s">
         <v>245</v>
@@ -16917,7 +16946,7 @@
         <v>246</v>
       </c>
       <c r="B148" s="25" t="s">
-        <v>3453</v>
+        <v>3451</v>
       </c>
       <c r="C148" s="20" t="s">
         <v>247</v>
@@ -16942,7 +16971,7 @@
         <v>248</v>
       </c>
       <c r="B149" s="25" t="s">
-        <v>3453</v>
+        <v>3451</v>
       </c>
       <c r="C149" s="20" t="s">
         <v>249</v>
@@ -16967,7 +16996,7 @@
         <v>250</v>
       </c>
       <c r="B150" s="25" t="s">
-        <v>3453</v>
+        <v>3451</v>
       </c>
       <c r="C150" s="20" t="s">
         <v>251</v>
@@ -16994,7 +17023,7 @@
         <v>253</v>
       </c>
       <c r="B151" s="25" t="s">
-        <v>3453</v>
+        <v>3451</v>
       </c>
       <c r="C151" s="20" t="s">
         <v>254</v>
@@ -17021,7 +17050,7 @@
         <v>256</v>
       </c>
       <c r="B152" s="25" t="s">
-        <v>3454</v>
+        <v>3452</v>
       </c>
       <c r="C152" s="20" t="s">
         <v>257</v>
@@ -17046,7 +17075,7 @@
         <v>258</v>
       </c>
       <c r="B153" s="25" t="s">
-        <v>3454</v>
+        <v>3452</v>
       </c>
       <c r="C153" s="20" t="s">
         <v>259</v>
@@ -17071,7 +17100,7 @@
         <v>260</v>
       </c>
       <c r="B154" s="25" t="s">
-        <v>3454</v>
+        <v>3452</v>
       </c>
       <c r="C154" s="20" t="s">
         <v>261</v>
@@ -17096,7 +17125,7 @@
         <v>262</v>
       </c>
       <c r="B155" s="25" t="s">
-        <v>3454</v>
+        <v>3452</v>
       </c>
       <c r="C155" s="20" t="s">
         <v>263</v>
@@ -17121,7 +17150,7 @@
         <v>264</v>
       </c>
       <c r="B156" s="25" t="s">
-        <v>3454</v>
+        <v>3452</v>
       </c>
       <c r="C156" s="20" t="s">
         <v>265</v>
@@ -17146,7 +17175,7 @@
         <v>266</v>
       </c>
       <c r="B157" s="25" t="s">
-        <v>3455</v>
+        <v>3453</v>
       </c>
       <c r="C157" s="20" t="s">
         <v>267</v>
@@ -17171,7 +17200,7 @@
         <v>268</v>
       </c>
       <c r="B158" s="25" t="s">
-        <v>3455</v>
+        <v>3453</v>
       </c>
       <c r="C158" s="20" t="s">
         <v>269</v>
@@ -17198,7 +17227,7 @@
         <v>271</v>
       </c>
       <c r="B159" s="25" t="s">
-        <v>3455</v>
+        <v>3453</v>
       </c>
       <c r="C159" s="20" t="s">
         <v>272</v>
@@ -17223,7 +17252,7 @@
         <v>273</v>
       </c>
       <c r="B160" s="25" t="s">
-        <v>3455</v>
+        <v>3453</v>
       </c>
       <c r="C160" s="20" t="s">
         <v>274</v>
@@ -17248,7 +17277,7 @@
         <v>275</v>
       </c>
       <c r="B161" s="25" t="s">
-        <v>3455</v>
+        <v>3453</v>
       </c>
       <c r="C161" s="20" t="s">
         <v>3363</v>
@@ -17273,7 +17302,7 @@
         <v>276</v>
       </c>
       <c r="B162" s="25" t="s">
-        <v>3456</v>
+        <v>3454</v>
       </c>
       <c r="C162" s="20" t="s">
         <v>277</v>
@@ -17298,10 +17327,10 @@
         <v>278</v>
       </c>
       <c r="B163" s="25" t="s">
-        <v>3456</v>
+        <v>3454</v>
       </c>
       <c r="C163" s="20" t="s">
-        <v>3457</v>
+        <v>3455</v>
       </c>
       <c r="D163" s="22"/>
       <c r="E163" s="22" t="s">
@@ -17323,7 +17352,7 @@
         <v>279</v>
       </c>
       <c r="B164" s="25" t="s">
-        <v>3456</v>
+        <v>3454</v>
       </c>
       <c r="C164" s="20" t="s">
         <v>280</v>
@@ -17348,7 +17377,7 @@
         <v>281</v>
       </c>
       <c r="B165" s="25" t="s">
-        <v>3456</v>
+        <v>3454</v>
       </c>
       <c r="C165" s="20" t="s">
         <v>282</v>
@@ -17373,7 +17402,7 @@
         <v>283</v>
       </c>
       <c r="B166" s="25" t="s">
-        <v>3456</v>
+        <v>3454</v>
       </c>
       <c r="C166" s="20" t="s">
         <v>284</v>
@@ -17398,7 +17427,7 @@
         <v>285</v>
       </c>
       <c r="B167" s="25" t="s">
-        <v>3456</v>
+        <v>3454</v>
       </c>
       <c r="C167" s="20" t="s">
         <v>286</v>
@@ -17423,7 +17452,7 @@
         <v>287</v>
       </c>
       <c r="B168" s="25" t="s">
-        <v>3456</v>
+        <v>3454</v>
       </c>
       <c r="C168" s="20" t="s">
         <v>288</v>
@@ -17448,7 +17477,7 @@
         <v>289</v>
       </c>
       <c r="B169" s="25" t="s">
-        <v>3456</v>
+        <v>3454</v>
       </c>
       <c r="C169" s="20" t="s">
         <v>290</v>
@@ -17473,10 +17502,10 @@
         <v>291</v>
       </c>
       <c r="B170" s="25" t="s">
+        <v>3454</v>
+      </c>
+      <c r="C170" s="20" t="s">
         <v>3456</v>
-      </c>
-      <c r="C170" s="20" t="s">
-        <v>3458</v>
       </c>
       <c r="D170" s="22"/>
       <c r="E170" s="22" t="s">
@@ -17498,7 +17527,7 @@
         <v>292</v>
       </c>
       <c r="B171" s="25" t="s">
-        <v>3459</v>
+        <v>3457</v>
       </c>
       <c r="C171" s="20" t="s">
         <v>294</v>
@@ -17523,7 +17552,7 @@
         <v>295</v>
       </c>
       <c r="B172" s="25" t="s">
-        <v>3459</v>
+        <v>3457</v>
       </c>
       <c r="C172" s="20" t="s">
         <v>296</v>
@@ -17548,7 +17577,7 @@
         <v>297</v>
       </c>
       <c r="B173" s="25" t="s">
-        <v>3459</v>
+        <v>3457</v>
       </c>
       <c r="C173" s="20" t="s">
         <v>298</v>
@@ -17573,7 +17602,7 @@
         <v>299</v>
       </c>
       <c r="B174" s="25" t="s">
-        <v>3459</v>
+        <v>3457</v>
       </c>
       <c r="C174" s="20" t="s">
         <v>300</v>
@@ -17598,7 +17627,7 @@
         <v>301</v>
       </c>
       <c r="B175" s="25" t="s">
-        <v>3459</v>
+        <v>3457</v>
       </c>
       <c r="C175" s="20" t="s">
         <v>302</v>
@@ -17623,7 +17652,7 @@
         <v>303</v>
       </c>
       <c r="B176" s="25" t="s">
-        <v>3459</v>
+        <v>3457</v>
       </c>
       <c r="C176" s="20" t="s">
         <v>304</v>
@@ -17648,7 +17677,7 @@
         <v>305</v>
       </c>
       <c r="B177" s="25" t="s">
-        <v>3459</v>
+        <v>3457</v>
       </c>
       <c r="C177" s="20" t="s">
         <v>306</v>
@@ -17673,7 +17702,7 @@
         <v>307</v>
       </c>
       <c r="B178" s="25" t="s">
-        <v>3459</v>
+        <v>3457</v>
       </c>
       <c r="C178" s="20" t="s">
         <v>308</v>
@@ -17698,7 +17727,7 @@
         <v>309</v>
       </c>
       <c r="B179" s="25" t="s">
-        <v>3459</v>
+        <v>3457</v>
       </c>
       <c r="C179" s="20" t="s">
         <v>310</v>
@@ -17723,7 +17752,7 @@
         <v>311</v>
       </c>
       <c r="B180" s="25" t="s">
-        <v>3459</v>
+        <v>3457</v>
       </c>
       <c r="C180" s="20" t="s">
         <v>312</v>
@@ -17748,7 +17777,7 @@
         <v>313</v>
       </c>
       <c r="B181" s="25" t="s">
-        <v>3459</v>
+        <v>3457</v>
       </c>
       <c r="C181" s="20" t="s">
         <v>314</v>
@@ -17773,7 +17802,7 @@
         <v>315</v>
       </c>
       <c r="B182" s="25" t="s">
-        <v>3459</v>
+        <v>3457</v>
       </c>
       <c r="C182" s="20" t="s">
         <v>316</v>
@@ -17798,7 +17827,7 @@
         <v>317</v>
       </c>
       <c r="B183" s="25" t="s">
-        <v>3459</v>
+        <v>3457</v>
       </c>
       <c r="C183" s="20" t="s">
         <v>318</v>
@@ -17823,7 +17852,7 @@
         <v>319</v>
       </c>
       <c r="B184" s="25" t="s">
-        <v>3459</v>
+        <v>3457</v>
       </c>
       <c r="C184" s="20" t="s">
         <v>320</v>
@@ -17848,7 +17877,7 @@
         <v>321</v>
       </c>
       <c r="B185" s="25" t="s">
-        <v>3459</v>
+        <v>3457</v>
       </c>
       <c r="C185" s="20" t="s">
         <v>322</v>
@@ -17873,7 +17902,7 @@
         <v>323</v>
       </c>
       <c r="B186" s="25" t="s">
-        <v>3459</v>
+        <v>3457</v>
       </c>
       <c r="C186" s="20" t="s">
         <v>324</v>
@@ -17898,7 +17927,7 @@
         <v>325</v>
       </c>
       <c r="B187" s="25" t="s">
-        <v>3459</v>
+        <v>3457</v>
       </c>
       <c r="C187" s="20" t="s">
         <v>326</v>
@@ -17923,7 +17952,7 @@
         <v>327</v>
       </c>
       <c r="B188" s="25" t="s">
-        <v>3459</v>
+        <v>3457</v>
       </c>
       <c r="C188" s="20" t="s">
         <v>328</v>
@@ -17948,7 +17977,7 @@
         <v>329</v>
       </c>
       <c r="B189" s="25" t="s">
-        <v>3459</v>
+        <v>3457</v>
       </c>
       <c r="C189" s="20" t="s">
         <v>330</v>
@@ -17973,7 +18002,7 @@
         <v>331</v>
       </c>
       <c r="B190" s="25" t="s">
-        <v>3459</v>
+        <v>3457</v>
       </c>
       <c r="C190" s="20" t="s">
         <v>332</v>
@@ -17998,7 +18027,7 @@
         <v>333</v>
       </c>
       <c r="B191" s="25" t="s">
-        <v>3459</v>
+        <v>3457</v>
       </c>
       <c r="C191" s="20" t="s">
         <v>334</v>
@@ -18023,7 +18052,7 @@
         <v>335</v>
       </c>
       <c r="B192" s="25" t="s">
-        <v>3459</v>
+        <v>3457</v>
       </c>
       <c r="C192" s="20" t="s">
         <v>336</v>
@@ -18048,7 +18077,7 @@
         <v>337</v>
       </c>
       <c r="B193" s="25" t="s">
-        <v>3459</v>
+        <v>3457</v>
       </c>
       <c r="C193" s="20" t="s">
         <v>338</v>
@@ -18073,7 +18102,7 @@
         <v>339</v>
       </c>
       <c r="B194" s="25" t="s">
-        <v>3459</v>
+        <v>3457</v>
       </c>
       <c r="C194" s="20" t="s">
         <v>340</v>
@@ -18098,7 +18127,7 @@
         <v>341</v>
       </c>
       <c r="B195" s="25" t="s">
-        <v>3459</v>
+        <v>3457</v>
       </c>
       <c r="C195" s="20" t="s">
         <v>342</v>
@@ -18123,7 +18152,7 @@
         <v>343</v>
       </c>
       <c r="B196" s="25" t="s">
-        <v>3459</v>
+        <v>3457</v>
       </c>
       <c r="C196" s="20" t="s">
         <v>344</v>
@@ -18148,7 +18177,7 @@
         <v>345</v>
       </c>
       <c r="B197" s="25" t="s">
-        <v>3459</v>
+        <v>3457</v>
       </c>
       <c r="C197" s="20" t="s">
         <v>346</v>
@@ -18173,7 +18202,7 @@
         <v>347</v>
       </c>
       <c r="B198" s="25" t="s">
-        <v>3459</v>
+        <v>3457</v>
       </c>
       <c r="C198" s="20" t="s">
         <v>348</v>
@@ -18198,7 +18227,7 @@
         <v>349</v>
       </c>
       <c r="B199" s="25" t="s">
-        <v>3459</v>
+        <v>3457</v>
       </c>
       <c r="C199" s="20" t="s">
         <v>350</v>
@@ -18223,7 +18252,7 @@
         <v>351</v>
       </c>
       <c r="B200" s="25" t="s">
-        <v>3459</v>
+        <v>3457</v>
       </c>
       <c r="C200" s="20" t="s">
         <v>352</v>
@@ -18248,7 +18277,7 @@
         <v>353</v>
       </c>
       <c r="B201" s="25" t="s">
-        <v>3459</v>
+        <v>3457</v>
       </c>
       <c r="C201" s="20" t="s">
         <v>354</v>
@@ -18273,7 +18302,7 @@
         <v>355</v>
       </c>
       <c r="B202" s="25" t="s">
-        <v>3459</v>
+        <v>3457</v>
       </c>
       <c r="C202" s="20" t="s">
         <v>356</v>
@@ -18298,7 +18327,7 @@
         <v>357</v>
       </c>
       <c r="B203" s="25" t="s">
-        <v>3459</v>
+        <v>3457</v>
       </c>
       <c r="C203" s="20" t="s">
         <v>358</v>
@@ -18323,7 +18352,7 @@
         <v>359</v>
       </c>
       <c r="B204" s="25" t="s">
-        <v>3459</v>
+        <v>3457</v>
       </c>
       <c r="C204" s="20" t="s">
         <v>360</v>
@@ -18348,7 +18377,7 @@
         <v>361</v>
       </c>
       <c r="B205" s="25" t="s">
-        <v>3459</v>
+        <v>3457</v>
       </c>
       <c r="C205" s="20" t="s">
         <v>362</v>
@@ -18373,7 +18402,7 @@
         <v>363</v>
       </c>
       <c r="B206" s="25" t="s">
-        <v>3460</v>
+        <v>3458</v>
       </c>
       <c r="C206" s="20" t="s">
         <v>365</v>
@@ -18398,7 +18427,7 @@
         <v>366</v>
       </c>
       <c r="B207" s="25" t="s">
-        <v>3460</v>
+        <v>3458</v>
       </c>
       <c r="C207" s="20" t="s">
         <v>367</v>
@@ -18423,7 +18452,7 @@
         <v>368</v>
       </c>
       <c r="B208" s="25" t="s">
-        <v>3462</v>
+        <v>3460</v>
       </c>
       <c r="C208" s="20" t="s">
         <v>370</v>
@@ -18450,10 +18479,10 @@
         <v>372</v>
       </c>
       <c r="B209" s="25" t="s">
-        <v>3462</v>
+        <v>3460</v>
       </c>
       <c r="C209" s="20" t="s">
-        <v>3461</v>
+        <v>3459</v>
       </c>
       <c r="D209" s="22"/>
       <c r="E209" s="22" t="s">
@@ -18477,7 +18506,7 @@
         <v>374</v>
       </c>
       <c r="B210" s="25" t="s">
-        <v>3462</v>
+        <v>3460</v>
       </c>
       <c r="C210" s="20" t="s">
         <v>375</v>
@@ -18502,7 +18531,7 @@
         <v>376</v>
       </c>
       <c r="B211" s="25" t="s">
-        <v>3462</v>
+        <v>3460</v>
       </c>
       <c r="C211" s="20" t="s">
         <v>377</v>
@@ -18527,7 +18556,7 @@
         <v>378</v>
       </c>
       <c r="B212" s="25" t="s">
-        <v>3462</v>
+        <v>3460</v>
       </c>
       <c r="C212" s="20" t="s">
         <v>379</v>
@@ -18552,7 +18581,7 @@
         <v>380</v>
       </c>
       <c r="B213" s="25" t="s">
-        <v>3462</v>
+        <v>3460</v>
       </c>
       <c r="C213" s="20" t="s">
         <v>381</v>
@@ -18577,7 +18606,7 @@
         <v>382</v>
       </c>
       <c r="B214" s="25" t="s">
-        <v>3462</v>
+        <v>3460</v>
       </c>
       <c r="C214" s="20" t="s">
         <v>383</v>
@@ -18604,7 +18633,7 @@
         <v>385</v>
       </c>
       <c r="B215" s="25" t="s">
-        <v>3462</v>
+        <v>3460</v>
       </c>
       <c r="C215" s="20" t="s">
         <v>386</v>
@@ -18631,7 +18660,7 @@
         <v>388</v>
       </c>
       <c r="B216" s="25" t="s">
-        <v>3462</v>
+        <v>3460</v>
       </c>
       <c r="C216" s="20" t="s">
         <v>389</v>
@@ -18658,7 +18687,7 @@
         <v>391</v>
       </c>
       <c r="B217" s="25" t="s">
-        <v>3462</v>
+        <v>3460</v>
       </c>
       <c r="C217" s="20" t="s">
         <v>392</v>
@@ -18685,7 +18714,7 @@
         <v>394</v>
       </c>
       <c r="B218" s="25" t="s">
-        <v>3463</v>
+        <v>3461</v>
       </c>
       <c r="C218" s="20" t="s">
         <v>396</v>
@@ -18710,7 +18739,7 @@
         <v>397</v>
       </c>
       <c r="B219" s="25" t="s">
-        <v>3463</v>
+        <v>3461</v>
       </c>
       <c r="C219" s="20" t="s">
         <v>398</v>
@@ -18737,7 +18766,7 @@
         <v>400</v>
       </c>
       <c r="B220" s="25" t="s">
-        <v>3463</v>
+        <v>3461</v>
       </c>
       <c r="C220" s="20" t="s">
         <v>401</v>
@@ -18762,7 +18791,7 @@
         <v>402</v>
       </c>
       <c r="B221" s="25" t="s">
-        <v>3463</v>
+        <v>3461</v>
       </c>
       <c r="C221" s="20" t="s">
         <v>403</v>
@@ -18787,7 +18816,7 @@
         <v>404</v>
       </c>
       <c r="B222" s="25" t="s">
-        <v>3463</v>
+        <v>3461</v>
       </c>
       <c r="C222" s="20" t="s">
         <v>405</v>
@@ -18812,7 +18841,7 @@
         <v>406</v>
       </c>
       <c r="B223" s="25" t="s">
-        <v>3463</v>
+        <v>3461</v>
       </c>
       <c r="C223" s="20" t="s">
         <v>407</v>
@@ -18837,7 +18866,7 @@
         <v>408</v>
       </c>
       <c r="B224" s="25" t="s">
-        <v>3466</v>
+        <v>3464</v>
       </c>
       <c r="C224" s="20" t="s">
         <v>410</v>
@@ -18862,10 +18891,10 @@
         <v>411</v>
       </c>
       <c r="B225" s="25" t="s">
-        <v>3466</v>
+        <v>3464</v>
       </c>
       <c r="C225" s="20" t="s">
-        <v>3464</v>
+        <v>3462</v>
       </c>
       <c r="D225" s="22"/>
       <c r="E225" s="22" t="s">
@@ -18887,7 +18916,7 @@
         <v>412</v>
       </c>
       <c r="B226" s="25" t="s">
-        <v>3466</v>
+        <v>3464</v>
       </c>
       <c r="C226" s="20" t="s">
         <v>413</v>
@@ -18912,7 +18941,7 @@
         <v>414</v>
       </c>
       <c r="B227" s="25" t="s">
-        <v>3466</v>
+        <v>3464</v>
       </c>
       <c r="C227" s="20" t="s">
         <v>415</v>
@@ -18939,7 +18968,7 @@
         <v>417</v>
       </c>
       <c r="B228" s="25" t="s">
-        <v>3466</v>
+        <v>3464</v>
       </c>
       <c r="C228" s="20" t="s">
         <v>418</v>
@@ -18966,7 +18995,7 @@
         <v>420</v>
       </c>
       <c r="B229" s="25" t="s">
-        <v>3466</v>
+        <v>3464</v>
       </c>
       <c r="C229" s="20" t="s">
         <v>421</v>
@@ -18991,10 +19020,10 @@
         <v>422</v>
       </c>
       <c r="B230" s="25" t="s">
-        <v>3466</v>
+        <v>3464</v>
       </c>
       <c r="C230" s="20" t="s">
-        <v>3465</v>
+        <v>3463</v>
       </c>
       <c r="D230" s="22"/>
       <c r="E230" s="22" t="s">
@@ -19016,7 +19045,7 @@
         <v>423</v>
       </c>
       <c r="B231" s="25" t="s">
-        <v>3466</v>
+        <v>3464</v>
       </c>
       <c r="C231" s="20" t="s">
         <v>424</v>
@@ -19041,7 +19070,7 @@
         <v>425</v>
       </c>
       <c r="B232" s="25" t="s">
-        <v>3466</v>
+        <v>3464</v>
       </c>
       <c r="C232" s="20" t="s">
         <v>426</v>
@@ -19066,7 +19095,7 @@
         <v>427</v>
       </c>
       <c r="B233" s="25" t="s">
-        <v>3466</v>
+        <v>3464</v>
       </c>
       <c r="C233" s="20" t="s">
         <v>428</v>
@@ -19091,7 +19120,7 @@
         <v>429</v>
       </c>
       <c r="B234" s="25" t="s">
-        <v>3466</v>
+        <v>3464</v>
       </c>
       <c r="C234" s="20" t="s">
         <v>430</v>
@@ -19116,7 +19145,7 @@
         <v>431</v>
       </c>
       <c r="B235" s="25" t="s">
-        <v>3467</v>
+        <v>3465</v>
       </c>
       <c r="C235" s="20" t="s">
         <v>432</v>
@@ -19141,7 +19170,7 @@
         <v>433</v>
       </c>
       <c r="B236" s="25" t="s">
-        <v>3467</v>
+        <v>3465</v>
       </c>
       <c r="C236" s="20" t="s">
         <v>434</v>
@@ -19166,7 +19195,7 @@
         <v>435</v>
       </c>
       <c r="B237" s="25" t="s">
-        <v>3467</v>
+        <v>3465</v>
       </c>
       <c r="C237" s="20" t="s">
         <v>436</v>
@@ -19191,7 +19220,7 @@
         <v>437</v>
       </c>
       <c r="B238" s="25" t="s">
-        <v>3467</v>
+        <v>3465</v>
       </c>
       <c r="C238" s="20" t="s">
         <v>438</v>
@@ -19216,7 +19245,7 @@
         <v>439</v>
       </c>
       <c r="B239" s="25" t="s">
-        <v>3468</v>
+        <v>3466</v>
       </c>
       <c r="C239" s="20" t="s">
         <v>440</v>
@@ -19241,7 +19270,7 @@
         <v>441</v>
       </c>
       <c r="B240" s="25" t="s">
-        <v>3468</v>
+        <v>3466</v>
       </c>
       <c r="C240" s="20" t="s">
         <v>442</v>
@@ -19266,7 +19295,7 @@
         <v>443</v>
       </c>
       <c r="B241" s="25" t="s">
-        <v>3468</v>
+        <v>3466</v>
       </c>
       <c r="C241" s="20" t="s">
         <v>444</v>
@@ -19291,7 +19320,7 @@
         <v>445</v>
       </c>
       <c r="B242" s="25" t="s">
-        <v>3468</v>
+        <v>3466</v>
       </c>
       <c r="C242" s="20" t="s">
         <v>446</v>
@@ -19316,7 +19345,7 @@
         <v>447</v>
       </c>
       <c r="B243" s="25" t="s">
-        <v>3468</v>
+        <v>3466</v>
       </c>
       <c r="C243" s="20" t="s">
         <v>448</v>
@@ -19341,7 +19370,7 @@
         <v>449</v>
       </c>
       <c r="B244" s="25" t="s">
-        <v>3468</v>
+        <v>3466</v>
       </c>
       <c r="C244" s="20" t="s">
         <v>450</v>
@@ -19366,7 +19395,7 @@
         <v>451</v>
       </c>
       <c r="B245" s="25" t="s">
-        <v>3470</v>
+        <v>3468</v>
       </c>
       <c r="C245" s="20" t="s">
         <v>452</v>
@@ -19391,7 +19420,7 @@
         <v>453</v>
       </c>
       <c r="B246" s="25" t="s">
-        <v>3470</v>
+        <v>3468</v>
       </c>
       <c r="C246" s="20" t="s">
         <v>454</v>
@@ -19416,7 +19445,7 @@
         <v>455</v>
       </c>
       <c r="B247" s="25" t="s">
-        <v>3470</v>
+        <v>3468</v>
       </c>
       <c r="C247" s="20" t="s">
         <v>456</v>
@@ -19441,7 +19470,7 @@
         <v>457</v>
       </c>
       <c r="B248" s="25" t="s">
-        <v>3470</v>
+        <v>3468</v>
       </c>
       <c r="C248" s="20" t="s">
         <v>458</v>
@@ -19466,10 +19495,10 @@
         <v>459</v>
       </c>
       <c r="B249" s="25" t="s">
-        <v>3470</v>
+        <v>3468</v>
       </c>
       <c r="C249" s="20" t="s">
-        <v>3469</v>
+        <v>3467</v>
       </c>
       <c r="D249" s="22"/>
       <c r="E249" s="22" t="s">
@@ -19491,7 +19520,7 @@
         <v>460</v>
       </c>
       <c r="B250" s="25" t="s">
-        <v>3476</v>
+        <v>3474</v>
       </c>
       <c r="C250" s="20" t="s">
         <v>461</v>
@@ -19516,7 +19545,7 @@
         <v>462</v>
       </c>
       <c r="B251" s="25" t="s">
-        <v>3476</v>
+        <v>3474</v>
       </c>
       <c r="C251" s="20" t="s">
         <v>463</v>
@@ -19541,7 +19570,7 @@
         <v>464</v>
       </c>
       <c r="B252" s="25" t="s">
-        <v>3476</v>
+        <v>3474</v>
       </c>
       <c r="C252" s="20" t="s">
         <v>465</v>
@@ -19566,7 +19595,7 @@
         <v>466</v>
       </c>
       <c r="B253" s="25" t="s">
-        <v>3476</v>
+        <v>3474</v>
       </c>
       <c r="C253" s="20" t="s">
         <v>467</v>
@@ -19591,10 +19620,10 @@
         <v>468</v>
       </c>
       <c r="B254" s="25" t="s">
-        <v>3476</v>
+        <v>3474</v>
       </c>
       <c r="C254" s="20" t="s">
-        <v>3473</v>
+        <v>3471</v>
       </c>
       <c r="D254" s="22"/>
       <c r="E254" s="22" t="s">
@@ -19616,10 +19645,10 @@
         <v>469</v>
       </c>
       <c r="B255" s="25" t="s">
-        <v>3476</v>
+        <v>3474</v>
       </c>
       <c r="C255" s="20" t="s">
-        <v>3477</v>
+        <v>3475</v>
       </c>
       <c r="D255" s="22"/>
       <c r="E255" s="22" t="s">
@@ -19641,10 +19670,10 @@
         <v>470</v>
       </c>
       <c r="B256" s="25" t="s">
-        <v>3476</v>
+        <v>3474</v>
       </c>
       <c r="C256" s="20" t="s">
-        <v>3474</v>
+        <v>3472</v>
       </c>
       <c r="D256" s="22"/>
       <c r="E256" s="22" t="s">
@@ -19666,10 +19695,10 @@
         <v>471</v>
       </c>
       <c r="B257" s="25" t="s">
-        <v>3476</v>
+        <v>3474</v>
       </c>
       <c r="C257" s="20" t="s">
-        <v>3475</v>
+        <v>3473</v>
       </c>
       <c r="D257" s="22"/>
       <c r="E257" s="22" t="s">
@@ -19688,13 +19717,13 @@
     </row>
     <row r="258" spans="1:9" ht="30">
       <c r="A258" s="22" t="s">
-        <v>3471</v>
+        <v>3469</v>
       </c>
       <c r="B258" s="25" t="s">
-        <v>3476</v>
+        <v>3474</v>
       </c>
       <c r="C258" s="33" t="s">
-        <v>3472</v>
+        <v>3470</v>
       </c>
       <c r="D258" s="32"/>
       <c r="E258" s="32" t="s">
@@ -19716,7 +19745,7 @@
         <v>472</v>
       </c>
       <c r="B259" s="25" t="s">
-        <v>3479</v>
+        <v>3477</v>
       </c>
       <c r="C259" s="20" t="s">
         <v>473</v>
@@ -19741,7 +19770,7 @@
         <v>474</v>
       </c>
       <c r="B260" s="25" t="s">
-        <v>3479</v>
+        <v>3477</v>
       </c>
       <c r="C260" s="20" t="s">
         <v>475</v>
@@ -19766,7 +19795,7 @@
         <v>476</v>
       </c>
       <c r="B261" s="25" t="s">
-        <v>3479</v>
+        <v>3477</v>
       </c>
       <c r="C261" s="20" t="s">
         <v>477</v>
@@ -19791,7 +19820,7 @@
         <v>478</v>
       </c>
       <c r="B262" s="25" t="s">
-        <v>3479</v>
+        <v>3477</v>
       </c>
       <c r="C262" s="20" t="s">
         <v>479</v>
@@ -19816,10 +19845,10 @@
         <v>480</v>
       </c>
       <c r="B263" s="25" t="s">
-        <v>3479</v>
+        <v>3477</v>
       </c>
       <c r="C263" s="20" t="s">
-        <v>3478</v>
+        <v>3476</v>
       </c>
       <c r="D263" s="22"/>
       <c r="E263" s="22" t="s">
@@ -19866,7 +19895,7 @@
         <v>552</v>
       </c>
       <c r="B265" s="25" t="s">
-        <v>3480</v>
+        <v>3478</v>
       </c>
       <c r="C265" s="20" t="s">
         <v>553</v>
@@ -19893,7 +19922,7 @@
         <v>555</v>
       </c>
       <c r="B266" s="25" t="s">
-        <v>3481</v>
+        <v>3479</v>
       </c>
       <c r="C266" s="20" t="s">
         <v>556</v>
@@ -19918,7 +19947,7 @@
         <v>557</v>
       </c>
       <c r="B267" s="25" t="s">
-        <v>3481</v>
+        <v>3479</v>
       </c>
       <c r="C267" s="20" t="s">
         <v>558</v>
@@ -19943,7 +19972,7 @@
         <v>559</v>
       </c>
       <c r="B268" s="25" t="s">
-        <v>3481</v>
+        <v>3479</v>
       </c>
       <c r="C268" s="20" t="s">
         <v>560</v>
@@ -19970,7 +19999,7 @@
         <v>561</v>
       </c>
       <c r="B269" s="25" t="s">
-        <v>3481</v>
+        <v>3479</v>
       </c>
       <c r="C269" s="20" t="s">
         <v>562</v>
@@ -19997,7 +20026,7 @@
         <v>564</v>
       </c>
       <c r="B270" s="25" t="s">
-        <v>3481</v>
+        <v>3479</v>
       </c>
       <c r="C270" s="20" t="s">
         <v>565</v>
@@ -20022,7 +20051,7 @@
         <v>566</v>
       </c>
       <c r="B271" s="25" t="s">
-        <v>3481</v>
+        <v>3479</v>
       </c>
       <c r="C271" s="20" t="s">
         <v>567</v>
@@ -20047,7 +20076,7 @@
         <v>568</v>
       </c>
       <c r="B272" s="25" t="s">
-        <v>3481</v>
+        <v>3479</v>
       </c>
       <c r="C272" s="20" t="s">
         <v>569</v>
@@ -20072,7 +20101,7 @@
         <v>570</v>
       </c>
       <c r="B273" s="25" t="s">
-        <v>3481</v>
+        <v>3479</v>
       </c>
       <c r="C273" s="20" t="s">
         <v>571</v>
@@ -20099,7 +20128,7 @@
         <v>573</v>
       </c>
       <c r="B274" s="25" t="s">
-        <v>3481</v>
+        <v>3479</v>
       </c>
       <c r="C274" s="20" t="s">
         <v>574</v>
@@ -20126,7 +20155,7 @@
         <v>576</v>
       </c>
       <c r="B275" s="25" t="s">
-        <v>3482</v>
+        <v>3480</v>
       </c>
       <c r="C275" s="20" t="s">
         <v>577</v>
@@ -20151,7 +20180,7 @@
         <v>578</v>
       </c>
       <c r="B276" s="25" t="s">
-        <v>3482</v>
+        <v>3480</v>
       </c>
       <c r="C276" s="20" t="s">
         <v>579</v>
@@ -20176,7 +20205,7 @@
         <v>580</v>
       </c>
       <c r="B277" s="25" t="s">
-        <v>3482</v>
+        <v>3480</v>
       </c>
       <c r="C277" s="20" t="s">
         <v>581</v>
@@ -20201,7 +20230,7 @@
         <v>582</v>
       </c>
       <c r="B278" s="25" t="s">
-        <v>3482</v>
+        <v>3480</v>
       </c>
       <c r="C278" s="20" t="s">
         <v>583</v>
@@ -20226,7 +20255,7 @@
         <v>584</v>
       </c>
       <c r="B279" s="25" t="s">
-        <v>3482</v>
+        <v>3480</v>
       </c>
       <c r="C279" s="20" t="s">
         <v>585</v>
@@ -20251,7 +20280,7 @@
         <v>586</v>
       </c>
       <c r="B280" s="25" t="s">
-        <v>3483</v>
+        <v>3481</v>
       </c>
       <c r="C280" s="20" t="s">
         <v>587</v>
@@ -20276,7 +20305,7 @@
         <v>588</v>
       </c>
       <c r="B281" s="25" t="s">
-        <v>3483</v>
+        <v>3481</v>
       </c>
       <c r="C281" s="20" t="s">
         <v>589</v>
@@ -20301,7 +20330,7 @@
         <v>590</v>
       </c>
       <c r="B282" s="25" t="s">
-        <v>3483</v>
+        <v>3481</v>
       </c>
       <c r="C282" s="20" t="s">
         <v>591</v>
@@ -20326,7 +20355,7 @@
         <v>592</v>
       </c>
       <c r="B283" s="25" t="s">
-        <v>3483</v>
+        <v>3481</v>
       </c>
       <c r="C283" s="20" t="s">
         <v>593</v>
@@ -20351,7 +20380,7 @@
         <v>594</v>
       </c>
       <c r="B284" s="25" t="s">
-        <v>3483</v>
+        <v>3481</v>
       </c>
       <c r="C284" s="20" t="s">
         <v>595</v>
@@ -20376,7 +20405,7 @@
         <v>596</v>
       </c>
       <c r="B285" s="25" t="s">
-        <v>3484</v>
+        <v>3482</v>
       </c>
       <c r="C285" s="20" t="s">
         <v>597</v>
@@ -20401,7 +20430,7 @@
         <v>598</v>
       </c>
       <c r="B286" s="25" t="s">
-        <v>3484</v>
+        <v>3482</v>
       </c>
       <c r="C286" s="20" t="s">
         <v>599</v>
@@ -20426,7 +20455,7 @@
         <v>600</v>
       </c>
       <c r="B287" s="25" t="s">
-        <v>3484</v>
+        <v>3482</v>
       </c>
       <c r="C287" s="20" t="s">
         <v>601</v>
@@ -20451,7 +20480,7 @@
         <v>602</v>
       </c>
       <c r="B288" s="25" t="s">
-        <v>3484</v>
+        <v>3482</v>
       </c>
       <c r="C288" s="20" t="s">
         <v>603</v>
@@ -20476,7 +20505,7 @@
         <v>604</v>
       </c>
       <c r="B289" s="25" t="s">
-        <v>3484</v>
+        <v>3482</v>
       </c>
       <c r="C289" s="20" t="s">
         <v>605</v>
@@ -20501,7 +20530,7 @@
         <v>606</v>
       </c>
       <c r="B290" s="25" t="s">
-        <v>3485</v>
+        <v>3483</v>
       </c>
       <c r="C290" s="20" t="s">
         <v>607</v>
@@ -20526,7 +20555,7 @@
         <v>608</v>
       </c>
       <c r="B291" s="25" t="s">
-        <v>3485</v>
+        <v>3483</v>
       </c>
       <c r="C291" s="20" t="s">
         <v>609</v>
@@ -20551,7 +20580,7 @@
         <v>610</v>
       </c>
       <c r="B292" s="25" t="s">
-        <v>3485</v>
+        <v>3483</v>
       </c>
       <c r="C292" s="20" t="s">
         <v>611</v>
@@ -20576,7 +20605,7 @@
         <v>612</v>
       </c>
       <c r="B293" s="25" t="s">
-        <v>3485</v>
+        <v>3483</v>
       </c>
       <c r="C293" s="20" t="s">
         <v>613</v>
@@ -20601,7 +20630,7 @@
         <v>614</v>
       </c>
       <c r="B294" s="25" t="s">
-        <v>3485</v>
+        <v>3483</v>
       </c>
       <c r="C294" s="20" t="s">
         <v>615</v>
@@ -20626,7 +20655,7 @@
         <v>616</v>
       </c>
       <c r="B295" s="25" t="s">
-        <v>3485</v>
+        <v>3483</v>
       </c>
       <c r="C295" s="20" t="s">
         <v>617</v>
@@ -20651,7 +20680,7 @@
         <v>618</v>
       </c>
       <c r="B296" s="25" t="s">
-        <v>3486</v>
+        <v>3484</v>
       </c>
       <c r="C296" s="20" t="s">
         <v>619</v>
@@ -20676,7 +20705,7 @@
         <v>620</v>
       </c>
       <c r="B297" s="25" t="s">
-        <v>3486</v>
+        <v>3484</v>
       </c>
       <c r="C297" s="20" t="s">
         <v>621</v>
@@ -20701,7 +20730,7 @@
         <v>622</v>
       </c>
       <c r="B298" s="25" t="s">
-        <v>3486</v>
+        <v>3484</v>
       </c>
       <c r="C298" s="20" t="s">
         <v>623</v>
@@ -20726,7 +20755,7 @@
         <v>624</v>
       </c>
       <c r="B299" s="25" t="s">
-        <v>3486</v>
+        <v>3484</v>
       </c>
       <c r="C299" s="20" t="s">
         <v>625</v>
@@ -20751,7 +20780,7 @@
         <v>626</v>
       </c>
       <c r="B300" s="25" t="s">
-        <v>3486</v>
+        <v>3484</v>
       </c>
       <c r="C300" s="20" t="s">
         <v>627</v>
@@ -20776,7 +20805,7 @@
         <v>628</v>
       </c>
       <c r="B301" s="25" t="s">
-        <v>3487</v>
+        <v>3485</v>
       </c>
       <c r="C301" s="20" t="s">
         <v>629</v>
@@ -20801,7 +20830,7 @@
         <v>630</v>
       </c>
       <c r="B302" s="25" t="s">
-        <v>3487</v>
+        <v>3485</v>
       </c>
       <c r="C302" s="20" t="s">
         <v>631</v>
@@ -20826,7 +20855,7 @@
         <v>632</v>
       </c>
       <c r="B303" s="25" t="s">
-        <v>3487</v>
+        <v>3485</v>
       </c>
       <c r="C303" s="20" t="s">
         <v>633</v>
@@ -20851,7 +20880,7 @@
         <v>634</v>
       </c>
       <c r="B304" s="25" t="s">
-        <v>3487</v>
+        <v>3485</v>
       </c>
       <c r="C304" s="20" t="s">
         <v>635</v>
@@ -20876,7 +20905,7 @@
         <v>636</v>
       </c>
       <c r="B305" s="25" t="s">
-        <v>3487</v>
+        <v>3485</v>
       </c>
       <c r="C305" s="20" t="s">
         <v>637</v>
@@ -20901,7 +20930,7 @@
         <v>638</v>
       </c>
       <c r="B306" s="25" t="s">
-        <v>3488</v>
+        <v>3486</v>
       </c>
       <c r="C306" s="20" t="s">
         <v>639</v>
@@ -20926,7 +20955,7 @@
         <v>640</v>
       </c>
       <c r="B307" s="25" t="s">
-        <v>3488</v>
+        <v>3486</v>
       </c>
       <c r="C307" s="20" t="s">
         <v>641</v>
@@ -20951,7 +20980,7 @@
         <v>642</v>
       </c>
       <c r="B308" s="25" t="s">
-        <v>3488</v>
+        <v>3486</v>
       </c>
       <c r="C308" s="20" t="s">
         <v>643</v>
@@ -20976,7 +21005,7 @@
         <v>644</v>
       </c>
       <c r="B309" s="25" t="s">
-        <v>3488</v>
+        <v>3486</v>
       </c>
       <c r="C309" s="20" t="s">
         <v>645</v>
@@ -21001,7 +21030,7 @@
         <v>646</v>
       </c>
       <c r="B310" s="25" t="s">
-        <v>3488</v>
+        <v>3486</v>
       </c>
       <c r="C310" s="20" t="s">
         <v>647</v>
@@ -21026,7 +21055,7 @@
         <v>648</v>
       </c>
       <c r="B311" s="25" t="s">
-        <v>3488</v>
+        <v>3486</v>
       </c>
       <c r="C311" s="20" t="s">
         <v>649</v>
@@ -21051,7 +21080,7 @@
         <v>650</v>
       </c>
       <c r="B312" s="25" t="s">
-        <v>3489</v>
+        <v>3487</v>
       </c>
       <c r="C312" s="20" t="s">
         <v>651</v>
@@ -21076,7 +21105,7 @@
         <v>652</v>
       </c>
       <c r="B313" s="25" t="s">
-        <v>3489</v>
+        <v>3487</v>
       </c>
       <c r="C313" s="20" t="s">
         <v>653</v>
@@ -21101,7 +21130,7 @@
         <v>654</v>
       </c>
       <c r="B314" s="25" t="s">
-        <v>3489</v>
+        <v>3487</v>
       </c>
       <c r="C314" s="20" t="s">
         <v>655</v>
@@ -21126,7 +21155,7 @@
         <v>656</v>
       </c>
       <c r="B315" s="25" t="s">
-        <v>3489</v>
+        <v>3487</v>
       </c>
       <c r="C315" s="20" t="s">
         <v>657</v>
@@ -21151,7 +21180,7 @@
         <v>658</v>
       </c>
       <c r="B316" s="25" t="s">
-        <v>3489</v>
+        <v>3487</v>
       </c>
       <c r="C316" s="20" t="s">
         <v>659</v>
@@ -21176,7 +21205,7 @@
         <v>660</v>
       </c>
       <c r="B317" s="25" t="s">
-        <v>3490</v>
+        <v>3488</v>
       </c>
       <c r="C317" s="20" t="s">
         <v>661</v>
@@ -21203,7 +21232,7 @@
         <v>663</v>
       </c>
       <c r="B318" s="25" t="s">
-        <v>3490</v>
+        <v>3488</v>
       </c>
       <c r="C318" s="20" t="s">
         <v>664</v>
@@ -21230,7 +21259,7 @@
         <v>665</v>
       </c>
       <c r="B319" s="25" t="s">
-        <v>3490</v>
+        <v>3488</v>
       </c>
       <c r="C319" s="20" t="s">
         <v>666</v>
@@ -21255,7 +21284,7 @@
         <v>667</v>
       </c>
       <c r="B320" s="25" t="s">
-        <v>3490</v>
+        <v>3488</v>
       </c>
       <c r="C320" s="20" t="s">
         <v>668</v>
@@ -21280,7 +21309,7 @@
         <v>669</v>
       </c>
       <c r="B321" s="25" t="s">
-        <v>3490</v>
+        <v>3488</v>
       </c>
       <c r="C321" s="20" t="s">
         <v>670</v>
@@ -21305,7 +21334,7 @@
         <v>671</v>
       </c>
       <c r="B322" s="25" t="s">
-        <v>3490</v>
+        <v>3488</v>
       </c>
       <c r="C322" s="20" t="s">
         <v>672</v>
@@ -21330,7 +21359,7 @@
         <v>673</v>
       </c>
       <c r="B323" s="25" t="s">
-        <v>3490</v>
+        <v>3488</v>
       </c>
       <c r="C323" s="20" t="s">
         <v>674</v>
@@ -21355,7 +21384,7 @@
         <v>675</v>
       </c>
       <c r="B324" s="25" t="s">
-        <v>3490</v>
+        <v>3488</v>
       </c>
       <c r="C324" s="20" t="s">
         <v>676</v>
@@ -21380,7 +21409,7 @@
         <v>677</v>
       </c>
       <c r="B325" s="25" t="s">
-        <v>3490</v>
+        <v>3488</v>
       </c>
       <c r="C325" s="20" t="s">
         <v>678</v>
@@ -21405,7 +21434,7 @@
         <v>679</v>
       </c>
       <c r="B326" s="25" t="s">
-        <v>3490</v>
+        <v>3488</v>
       </c>
       <c r="C326" s="20" t="s">
         <v>680</v>
@@ -21430,7 +21459,7 @@
         <v>681</v>
       </c>
       <c r="B327" s="25" t="s">
-        <v>3490</v>
+        <v>3488</v>
       </c>
       <c r="C327" s="20" t="s">
         <v>682</v>
@@ -21455,7 +21484,7 @@
         <v>683</v>
       </c>
       <c r="B328" s="25" t="s">
-        <v>3490</v>
+        <v>3488</v>
       </c>
       <c r="C328" s="20" t="s">
         <v>684</v>
@@ -21480,7 +21509,7 @@
         <v>685</v>
       </c>
       <c r="B329" s="25" t="s">
-        <v>3490</v>
+        <v>3488</v>
       </c>
       <c r="C329" s="20" t="s">
         <v>686</v>
@@ -21505,7 +21534,7 @@
         <v>687</v>
       </c>
       <c r="B330" s="25" t="s">
-        <v>3490</v>
+        <v>3488</v>
       </c>
       <c r="C330" s="20" t="s">
         <v>688</v>
@@ -21530,7 +21559,7 @@
         <v>689</v>
       </c>
       <c r="B331" s="25" t="s">
-        <v>3490</v>
+        <v>3488</v>
       </c>
       <c r="C331" s="20" t="s">
         <v>690</v>
@@ -21555,7 +21584,7 @@
         <v>691</v>
       </c>
       <c r="B332" s="25" t="s">
-        <v>3490</v>
+        <v>3488</v>
       </c>
       <c r="C332" s="20" t="s">
         <v>692</v>
@@ -21580,7 +21609,7 @@
         <v>693</v>
       </c>
       <c r="B333" s="25" t="s">
-        <v>3490</v>
+        <v>3488</v>
       </c>
       <c r="C333" s="20" t="s">
         <v>694</v>
@@ -21605,7 +21634,7 @@
         <v>695</v>
       </c>
       <c r="B334" s="25" t="s">
-        <v>3490</v>
+        <v>3488</v>
       </c>
       <c r="C334" s="20" t="s">
         <v>696</v>
@@ -21630,7 +21659,7 @@
         <v>697</v>
       </c>
       <c r="B335" s="25" t="s">
-        <v>3490</v>
+        <v>3488</v>
       </c>
       <c r="C335" s="20" t="s">
         <v>698</v>
@@ -21655,7 +21684,7 @@
         <v>699</v>
       </c>
       <c r="B336" s="25" t="s">
-        <v>3490</v>
+        <v>3488</v>
       </c>
       <c r="C336" s="20" t="s">
         <v>700</v>
@@ -21680,7 +21709,7 @@
         <v>701</v>
       </c>
       <c r="B337" s="25" t="s">
-        <v>3490</v>
+        <v>3488</v>
       </c>
       <c r="C337" s="20" t="s">
         <v>702</v>
@@ -21705,7 +21734,7 @@
         <v>703</v>
       </c>
       <c r="B338" s="25" t="s">
-        <v>3490</v>
+        <v>3488</v>
       </c>
       <c r="C338" s="20" t="s">
         <v>704</v>
@@ -21730,7 +21759,7 @@
         <v>705</v>
       </c>
       <c r="B339" s="25" t="s">
-        <v>3490</v>
+        <v>3488</v>
       </c>
       <c r="C339" s="20" t="s">
         <v>706</v>
@@ -21755,7 +21784,7 @@
         <v>707</v>
       </c>
       <c r="B340" s="25" t="s">
-        <v>3490</v>
+        <v>3488</v>
       </c>
       <c r="C340" s="20" t="s">
         <v>708</v>
@@ -21780,7 +21809,7 @@
         <v>709</v>
       </c>
       <c r="B341" s="25" t="s">
-        <v>3490</v>
+        <v>3488</v>
       </c>
       <c r="C341" s="20" t="s">
         <v>710</v>
@@ -21805,7 +21834,7 @@
         <v>711</v>
       </c>
       <c r="B342" s="25" t="s">
-        <v>3490</v>
+        <v>3488</v>
       </c>
       <c r="C342" s="20" t="s">
         <v>712</v>
@@ -21830,7 +21859,7 @@
         <v>713</v>
       </c>
       <c r="B343" s="25" t="s">
-        <v>3490</v>
+        <v>3488</v>
       </c>
       <c r="C343" s="20" t="s">
         <v>714</v>
@@ -21855,7 +21884,7 @@
         <v>715</v>
       </c>
       <c r="B344" s="25" t="s">
-        <v>3490</v>
+        <v>3488</v>
       </c>
       <c r="C344" s="20" t="s">
         <v>716</v>
@@ -21880,7 +21909,7 @@
         <v>717</v>
       </c>
       <c r="B345" s="25" t="s">
-        <v>3490</v>
+        <v>3488</v>
       </c>
       <c r="C345" s="20" t="s">
         <v>718</v>
@@ -21905,7 +21934,7 @@
         <v>719</v>
       </c>
       <c r="B346" s="25" t="s">
-        <v>3490</v>
+        <v>3488</v>
       </c>
       <c r="C346" s="20" t="s">
         <v>720</v>
@@ -21930,7 +21959,7 @@
         <v>721</v>
       </c>
       <c r="B347" s="25" t="s">
-        <v>3490</v>
+        <v>3488</v>
       </c>
       <c r="C347" s="20" t="s">
         <v>722</v>
@@ -21955,7 +21984,7 @@
         <v>723</v>
       </c>
       <c r="B348" s="25" t="s">
-        <v>3490</v>
+        <v>3488</v>
       </c>
       <c r="C348" s="20" t="s">
         <v>724</v>
@@ -21980,7 +22009,7 @@
         <v>725</v>
       </c>
       <c r="B349" s="25" t="s">
-        <v>3490</v>
+        <v>3488</v>
       </c>
       <c r="C349" s="20" t="s">
         <v>726</v>
@@ -22005,7 +22034,7 @@
         <v>727</v>
       </c>
       <c r="B350" s="25" t="s">
-        <v>3490</v>
+        <v>3488</v>
       </c>
       <c r="C350" s="20" t="s">
         <v>728</v>
@@ -22030,7 +22059,7 @@
         <v>729</v>
       </c>
       <c r="B351" s="25" t="s">
-        <v>3490</v>
+        <v>3488</v>
       </c>
       <c r="C351" s="20" t="s">
         <v>730</v>
@@ -22055,7 +22084,7 @@
         <v>731</v>
       </c>
       <c r="B352" s="25" t="s">
-        <v>3490</v>
+        <v>3488</v>
       </c>
       <c r="C352" s="20" t="s">
         <v>732</v>
@@ -22080,7 +22109,7 @@
         <v>733</v>
       </c>
       <c r="B353" s="25" t="s">
-        <v>3490</v>
+        <v>3488</v>
       </c>
       <c r="C353" s="20" t="s">
         <v>734</v>
@@ -22105,7 +22134,7 @@
         <v>735</v>
       </c>
       <c r="B354" s="25" t="s">
-        <v>3490</v>
+        <v>3488</v>
       </c>
       <c r="C354" s="20" t="s">
         <v>736</v>
@@ -22132,7 +22161,7 @@
         <v>738</v>
       </c>
       <c r="B355" s="25" t="s">
-        <v>3490</v>
+        <v>3488</v>
       </c>
       <c r="C355" s="20" t="s">
         <v>739</v>
@@ -22159,7 +22188,7 @@
         <v>741</v>
       </c>
       <c r="B356" s="25" t="s">
-        <v>3491</v>
+        <v>3489</v>
       </c>
       <c r="C356" s="20" t="s">
         <v>742</v>
@@ -22186,7 +22215,7 @@
         <v>744</v>
       </c>
       <c r="B357" s="25" t="s">
-        <v>3491</v>
+        <v>3489</v>
       </c>
       <c r="C357" s="20" t="s">
         <v>745</v>
@@ -22211,7 +22240,7 @@
         <v>746</v>
       </c>
       <c r="B358" s="25" t="s">
-        <v>3491</v>
+        <v>3489</v>
       </c>
       <c r="C358" s="20" t="s">
         <v>747</v>
@@ -22236,7 +22265,7 @@
         <v>748</v>
       </c>
       <c r="B359" s="25" t="s">
-        <v>3491</v>
+        <v>3489</v>
       </c>
       <c r="C359" s="20" t="s">
         <v>749</v>
@@ -22261,7 +22290,7 @@
         <v>750</v>
       </c>
       <c r="B360" s="25" t="s">
-        <v>3491</v>
+        <v>3489</v>
       </c>
       <c r="C360" s="20" t="s">
         <v>751</v>
@@ -22286,7 +22315,7 @@
         <v>752</v>
       </c>
       <c r="B361" s="25" t="s">
-        <v>3491</v>
+        <v>3489</v>
       </c>
       <c r="C361" s="20" t="s">
         <v>753</v>
@@ -22313,7 +22342,7 @@
         <v>755</v>
       </c>
       <c r="B362" s="25" t="s">
-        <v>3491</v>
+        <v>3489</v>
       </c>
       <c r="C362" s="20" t="s">
         <v>756</v>
@@ -22338,7 +22367,7 @@
         <v>757</v>
       </c>
       <c r="B363" s="25" t="s">
-        <v>3491</v>
+        <v>3489</v>
       </c>
       <c r="C363" s="20" t="s">
         <v>758</v>
@@ -22365,7 +22394,7 @@
         <v>760</v>
       </c>
       <c r="B364" s="25" t="s">
-        <v>3491</v>
+        <v>3489</v>
       </c>
       <c r="C364" s="20" t="s">
         <v>761</v>
@@ -22392,7 +22421,7 @@
         <v>763</v>
       </c>
       <c r="B365" s="25" t="s">
-        <v>3491</v>
+        <v>3489</v>
       </c>
       <c r="C365" s="20" t="s">
         <v>764</v>
@@ -22419,7 +22448,7 @@
         <v>766</v>
       </c>
       <c r="B366" s="25" t="s">
-        <v>3491</v>
+        <v>3489</v>
       </c>
       <c r="C366" s="20" t="s">
         <v>767</v>
@@ -22444,10 +22473,10 @@
         <v>768</v>
       </c>
       <c r="B367" s="25" t="s">
-        <v>3493</v>
+        <v>3491</v>
       </c>
       <c r="C367" s="20" t="s">
-        <v>3492</v>
+        <v>3490</v>
       </c>
       <c r="D367" s="22"/>
       <c r="E367" s="22" t="s">
@@ -22469,7 +22498,7 @@
         <v>769</v>
       </c>
       <c r="B368" s="25" t="s">
-        <v>3493</v>
+        <v>3491</v>
       </c>
       <c r="C368" s="20" t="s">
         <v>770</v>
@@ -22494,7 +22523,7 @@
         <v>771</v>
       </c>
       <c r="B369" s="25" t="s">
-        <v>3493</v>
+        <v>3491</v>
       </c>
       <c r="C369" s="20" t="s">
         <v>772</v>
@@ -22519,7 +22548,7 @@
         <v>773</v>
       </c>
       <c r="B370" s="25" t="s">
-        <v>3493</v>
+        <v>3491</v>
       </c>
       <c r="C370" s="20" t="s">
         <v>774</v>
@@ -22544,7 +22573,7 @@
         <v>775</v>
       </c>
       <c r="B371" s="25" t="s">
-        <v>3493</v>
+        <v>3491</v>
       </c>
       <c r="C371" s="20" t="s">
         <v>776</v>
@@ -22571,7 +22600,7 @@
         <v>778</v>
       </c>
       <c r="B372" s="25" t="s">
-        <v>3493</v>
+        <v>3491</v>
       </c>
       <c r="C372" s="20" t="s">
         <v>779</v>
@@ -22598,7 +22627,7 @@
         <v>781</v>
       </c>
       <c r="B373" s="25" t="s">
-        <v>3493</v>
+        <v>3491</v>
       </c>
       <c r="C373" s="20" t="s">
         <v>782</v>
@@ -22623,7 +22652,7 @@
         <v>783</v>
       </c>
       <c r="B374" s="25" t="s">
-        <v>3493</v>
+        <v>3491</v>
       </c>
       <c r="C374" s="20" t="s">
         <v>784</v>
@@ -22648,7 +22677,7 @@
         <v>785</v>
       </c>
       <c r="B375" s="25" t="s">
-        <v>3493</v>
+        <v>3491</v>
       </c>
       <c r="C375" s="20" t="s">
         <v>786</v>
@@ -22673,7 +22702,7 @@
         <v>787</v>
       </c>
       <c r="B376" s="25" t="s">
-        <v>3494</v>
+        <v>3492</v>
       </c>
       <c r="C376" s="20" t="s">
         <v>788</v>
@@ -22700,7 +22729,7 @@
         <v>790</v>
       </c>
       <c r="B377" s="25" t="s">
-        <v>3494</v>
+        <v>3492</v>
       </c>
       <c r="C377" s="20" t="s">
         <v>791</v>
@@ -22725,7 +22754,7 @@
         <v>792</v>
       </c>
       <c r="B378" s="25" t="s">
-        <v>3494</v>
+        <v>3492</v>
       </c>
       <c r="C378" s="20" t="s">
         <v>793</v>
@@ -22750,7 +22779,7 @@
         <v>794</v>
       </c>
       <c r="B379" s="25" t="s">
-        <v>3494</v>
+        <v>3492</v>
       </c>
       <c r="C379" s="20" t="s">
         <v>795</v>
@@ -22775,7 +22804,7 @@
         <v>796</v>
       </c>
       <c r="B380" s="25" t="s">
-        <v>3494</v>
+        <v>3492</v>
       </c>
       <c r="C380" s="20" t="s">
         <v>797</v>
@@ -22802,7 +22831,7 @@
         <v>799</v>
       </c>
       <c r="B381" s="25" t="s">
-        <v>3494</v>
+        <v>3492</v>
       </c>
       <c r="C381" s="20" t="s">
         <v>800</v>
@@ -22827,7 +22856,7 @@
         <v>801</v>
       </c>
       <c r="B382" s="25" t="s">
-        <v>3494</v>
+        <v>3492</v>
       </c>
       <c r="C382" s="20" t="s">
         <v>802</v>
@@ -22854,7 +22883,7 @@
         <v>804</v>
       </c>
       <c r="B383" s="25" t="s">
-        <v>3495</v>
+        <v>3493</v>
       </c>
       <c r="C383" s="20" t="s">
         <v>805</v>
@@ -22879,7 +22908,7 @@
         <v>806</v>
       </c>
       <c r="B384" s="25" t="s">
-        <v>3496</v>
+        <v>3494</v>
       </c>
       <c r="C384" s="20" t="s">
         <v>807</v>
@@ -22904,7 +22933,7 @@
         <v>808</v>
       </c>
       <c r="B385" s="25" t="s">
-        <v>3496</v>
+        <v>3494</v>
       </c>
       <c r="C385" s="20" t="s">
         <v>809</v>
@@ -22929,7 +22958,7 @@
         <v>810</v>
       </c>
       <c r="B386" s="25" t="s">
-        <v>3496</v>
+        <v>3494</v>
       </c>
       <c r="C386" s="20" t="s">
         <v>811</v>
@@ -22954,10 +22983,10 @@
         <v>812</v>
       </c>
       <c r="B387" s="25" t="s">
-        <v>3496</v>
+        <v>3494</v>
       </c>
       <c r="C387" s="20" t="s">
-        <v>3497</v>
+        <v>3495</v>
       </c>
       <c r="D387" s="22"/>
       <c r="E387" s="22" t="s">
@@ -22979,7 +23008,7 @@
         <v>813</v>
       </c>
       <c r="B388" s="25" t="s">
-        <v>3496</v>
+        <v>3494</v>
       </c>
       <c r="C388" s="20" t="s">
         <v>814</v>
@@ -23004,7 +23033,7 @@
         <v>815</v>
       </c>
       <c r="B389" s="25" t="s">
-        <v>3496</v>
+        <v>3494</v>
       </c>
       <c r="C389" s="20" t="s">
         <v>816</v>
@@ -23029,7 +23058,7 @@
         <v>817</v>
       </c>
       <c r="B390" s="25" t="s">
-        <v>3496</v>
+        <v>3494</v>
       </c>
       <c r="C390" s="20" t="s">
         <v>818</v>
@@ -23054,7 +23083,7 @@
         <v>819</v>
       </c>
       <c r="B391" s="25" t="s">
-        <v>3496</v>
+        <v>3494</v>
       </c>
       <c r="C391" s="20" t="s">
         <v>820</v>
@@ -23079,7 +23108,7 @@
         <v>821</v>
       </c>
       <c r="B392" s="25" t="s">
-        <v>3496</v>
+        <v>3494</v>
       </c>
       <c r="C392" s="20" t="s">
         <v>822</v>
@@ -23104,7 +23133,7 @@
         <v>823</v>
       </c>
       <c r="B393" s="25" t="s">
-        <v>3496</v>
+        <v>3494</v>
       </c>
       <c r="C393" s="20" t="s">
         <v>824</v>
@@ -23129,7 +23158,7 @@
         <v>825</v>
       </c>
       <c r="B394" s="25" t="s">
-        <v>3498</v>
+        <v>3496</v>
       </c>
       <c r="C394" s="20" t="s">
         <v>826</v>
@@ -23154,7 +23183,7 @@
         <v>827</v>
       </c>
       <c r="B395" s="25" t="s">
-        <v>3498</v>
+        <v>3496</v>
       </c>
       <c r="C395" s="20" t="s">
         <v>828</v>
@@ -23179,7 +23208,7 @@
         <v>829</v>
       </c>
       <c r="B396" s="25" t="s">
-        <v>3498</v>
+        <v>3496</v>
       </c>
       <c r="C396" s="20" t="s">
         <v>830</v>
@@ -23204,7 +23233,7 @@
         <v>831</v>
       </c>
       <c r="B397" s="25" t="s">
-        <v>3498</v>
+        <v>3496</v>
       </c>
       <c r="C397" s="20" t="s">
         <v>832</v>
@@ -23229,7 +23258,7 @@
         <v>833</v>
       </c>
       <c r="B398" s="25" t="s">
-        <v>3499</v>
+        <v>3497</v>
       </c>
       <c r="C398" s="20" t="s">
         <v>834</v>
@@ -23254,7 +23283,7 @@
         <v>835</v>
       </c>
       <c r="B399" s="25" t="s">
-        <v>3499</v>
+        <v>3497</v>
       </c>
       <c r="C399" s="20" t="s">
         <v>836</v>
@@ -23279,7 +23308,7 @@
         <v>837</v>
       </c>
       <c r="B400" s="25" t="s">
-        <v>3499</v>
+        <v>3497</v>
       </c>
       <c r="C400" s="20" t="s">
         <v>838</v>
@@ -23304,7 +23333,7 @@
         <v>839</v>
       </c>
       <c r="B401" s="25" t="s">
-        <v>3499</v>
+        <v>3497</v>
       </c>
       <c r="C401" s="20" t="s">
         <v>840</v>
@@ -23329,7 +23358,7 @@
         <v>841</v>
       </c>
       <c r="B402" s="25" t="s">
-        <v>3499</v>
+        <v>3497</v>
       </c>
       <c r="C402" s="20" t="s">
         <v>842</v>
@@ -23354,7 +23383,7 @@
         <v>843</v>
       </c>
       <c r="B403" s="25" t="s">
-        <v>3499</v>
+        <v>3497</v>
       </c>
       <c r="C403" s="20" t="s">
         <v>844</v>
@@ -23379,7 +23408,7 @@
         <v>845</v>
       </c>
       <c r="B404" s="25" t="s">
-        <v>3499</v>
+        <v>3497</v>
       </c>
       <c r="C404" s="20" t="s">
         <v>846</v>
@@ -23404,7 +23433,7 @@
         <v>847</v>
       </c>
       <c r="B405" s="25" t="s">
-        <v>3499</v>
+        <v>3497</v>
       </c>
       <c r="C405" s="20" t="s">
         <v>848</v>
@@ -23429,7 +23458,7 @@
         <v>849</v>
       </c>
       <c r="B406" s="25" t="s">
-        <v>3499</v>
+        <v>3497</v>
       </c>
       <c r="C406" s="20" t="s">
         <v>850</v>
@@ -23454,7 +23483,7 @@
         <v>851</v>
       </c>
       <c r="B407" s="25" t="s">
-        <v>3499</v>
+        <v>3497</v>
       </c>
       <c r="C407" s="20" t="s">
         <v>852</v>
@@ -23479,7 +23508,7 @@
         <v>853</v>
       </c>
       <c r="B408" s="25" t="s">
-        <v>3500</v>
+        <v>3498</v>
       </c>
       <c r="C408" s="20" t="s">
         <v>854</v>
@@ -23504,7 +23533,7 @@
         <v>855</v>
       </c>
       <c r="B409" s="25" t="s">
-        <v>3500</v>
+        <v>3498</v>
       </c>
       <c r="C409" s="20" t="s">
         <v>856</v>
@@ -23529,7 +23558,7 @@
         <v>857</v>
       </c>
       <c r="B410" s="25" t="s">
-        <v>3500</v>
+        <v>3498</v>
       </c>
       <c r="C410" s="20" t="s">
         <v>858</v>
@@ -23554,7 +23583,7 @@
         <v>859</v>
       </c>
       <c r="B411" s="25" t="s">
-        <v>3500</v>
+        <v>3498</v>
       </c>
       <c r="C411" s="20" t="s">
         <v>860</v>
@@ -23579,7 +23608,7 @@
         <v>861</v>
       </c>
       <c r="B412" s="25" t="s">
-        <v>3500</v>
+        <v>3498</v>
       </c>
       <c r="C412" s="20" t="s">
         <v>862</v>
@@ -23604,7 +23633,7 @@
         <v>863</v>
       </c>
       <c r="B413" s="25" t="s">
-        <v>3500</v>
+        <v>3498</v>
       </c>
       <c r="C413" s="20" t="s">
         <v>864</v>
@@ -23629,7 +23658,7 @@
         <v>865</v>
       </c>
       <c r="B414" s="25" t="s">
-        <v>3501</v>
+        <v>3499</v>
       </c>
       <c r="C414" s="20" t="s">
         <v>866</v>
@@ -23654,7 +23683,7 @@
         <v>867</v>
       </c>
       <c r="B415" s="25" t="s">
-        <v>3501</v>
+        <v>3499</v>
       </c>
       <c r="C415" s="20" t="s">
         <v>868</v>
@@ -23679,7 +23708,7 @@
         <v>869</v>
       </c>
       <c r="B416" s="25" t="s">
-        <v>3501</v>
+        <v>3499</v>
       </c>
       <c r="C416" s="20" t="s">
         <v>870</v>
@@ -23704,7 +23733,7 @@
         <v>871</v>
       </c>
       <c r="B417" s="25" t="s">
-        <v>3501</v>
+        <v>3499</v>
       </c>
       <c r="C417" s="20" t="s">
         <v>872</v>
@@ -23729,7 +23758,7 @@
         <v>873</v>
       </c>
       <c r="B418" s="25" t="s">
-        <v>3501</v>
+        <v>3499</v>
       </c>
       <c r="C418" s="20" t="s">
         <v>874</v>
@@ -23754,7 +23783,7 @@
         <v>875</v>
       </c>
       <c r="B419" s="25" t="s">
-        <v>3501</v>
+        <v>3499</v>
       </c>
       <c r="C419" s="20" t="s">
         <v>876</v>
@@ -23779,7 +23808,7 @@
         <v>877</v>
       </c>
       <c r="B420" s="25" t="s">
-        <v>3501</v>
+        <v>3499</v>
       </c>
       <c r="C420" s="20" t="s">
         <v>878</v>
@@ -23804,7 +23833,7 @@
         <v>879</v>
       </c>
       <c r="B421" s="25" t="s">
-        <v>3501</v>
+        <v>3499</v>
       </c>
       <c r="C421" s="20" t="s">
         <v>880</v>
@@ -23829,7 +23858,7 @@
         <v>881</v>
       </c>
       <c r="B422" s="25" t="s">
-        <v>3502</v>
+        <v>3500</v>
       </c>
       <c r="C422" s="20" t="s">
         <v>882</v>
@@ -23854,7 +23883,7 @@
         <v>883</v>
       </c>
       <c r="B423" s="25" t="s">
-        <v>3502</v>
+        <v>3500</v>
       </c>
       <c r="C423" s="20" t="s">
         <v>884</v>
@@ -23879,7 +23908,7 @@
         <v>885</v>
       </c>
       <c r="B424" s="25" t="s">
-        <v>3502</v>
+        <v>3500</v>
       </c>
       <c r="C424" s="20" t="s">
         <v>886</v>
@@ -23904,7 +23933,7 @@
         <v>887</v>
       </c>
       <c r="B425" s="25" t="s">
-        <v>3502</v>
+        <v>3500</v>
       </c>
       <c r="C425" s="20" t="s">
         <v>888</v>
@@ -23929,7 +23958,7 @@
         <v>889</v>
       </c>
       <c r="B426" s="25" t="s">
-        <v>3502</v>
+        <v>3500</v>
       </c>
       <c r="C426" s="20" t="s">
         <v>890</v>
@@ -23954,7 +23983,7 @@
         <v>891</v>
       </c>
       <c r="B427" s="25" t="s">
-        <v>3502</v>
+        <v>3500</v>
       </c>
       <c r="C427" s="20" t="s">
         <v>892</v>
@@ -23979,7 +24008,7 @@
         <v>893</v>
       </c>
       <c r="B428" s="25" t="s">
-        <v>3502</v>
+        <v>3500</v>
       </c>
       <c r="C428" s="20" t="s">
         <v>894</v>
@@ -24004,7 +24033,7 @@
         <v>895</v>
       </c>
       <c r="B429" s="25" t="s">
-        <v>3502</v>
+        <v>3500</v>
       </c>
       <c r="C429" s="20" t="s">
         <v>896</v>
@@ -24029,7 +24058,7 @@
         <v>897</v>
       </c>
       <c r="B430" s="25" t="s">
-        <v>3502</v>
+        <v>3500</v>
       </c>
       <c r="C430" s="20" t="s">
         <v>898</v>
@@ -24054,7 +24083,7 @@
         <v>899</v>
       </c>
       <c r="B431" s="25" t="s">
-        <v>3503</v>
+        <v>3501</v>
       </c>
       <c r="C431" s="20" t="s">
         <v>900</v>
@@ -24079,7 +24108,7 @@
         <v>901</v>
       </c>
       <c r="B432" s="25" t="s">
-        <v>3503</v>
+        <v>3501</v>
       </c>
       <c r="C432" s="20" t="s">
         <v>902</v>
@@ -24104,7 +24133,7 @@
         <v>903</v>
       </c>
       <c r="B433" s="25" t="s">
-        <v>3503</v>
+        <v>3501</v>
       </c>
       <c r="C433" s="20" t="s">
         <v>904</v>
@@ -24129,7 +24158,7 @@
         <v>905</v>
       </c>
       <c r="B434" s="25" t="s">
-        <v>3503</v>
+        <v>3501</v>
       </c>
       <c r="C434" s="20" t="s">
         <v>906</v>
@@ -24154,7 +24183,7 @@
         <v>907</v>
       </c>
       <c r="B435" s="25" t="s">
-        <v>3503</v>
+        <v>3501</v>
       </c>
       <c r="C435" s="20" t="s">
         <v>908</v>
@@ -24179,7 +24208,7 @@
         <v>909</v>
       </c>
       <c r="B436" s="25" t="s">
-        <v>3503</v>
+        <v>3501</v>
       </c>
       <c r="C436" s="20" t="s">
         <v>910</v>
@@ -24204,7 +24233,7 @@
         <v>911</v>
       </c>
       <c r="B437" s="25" t="s">
-        <v>3504</v>
+        <v>3502</v>
       </c>
       <c r="C437" s="20" t="s">
         <v>912</v>
@@ -24479,7 +24508,7 @@
         <v>933</v>
       </c>
       <c r="B448" s="25" t="s">
-        <v>3505</v>
+        <v>3503</v>
       </c>
       <c r="C448" s="20" t="s">
         <v>934</v>
@@ -24504,7 +24533,7 @@
         <v>935</v>
       </c>
       <c r="B449" s="25" t="s">
-        <v>3505</v>
+        <v>3503</v>
       </c>
       <c r="C449" s="20" t="s">
         <v>936</v>
@@ -24529,7 +24558,7 @@
         <v>937</v>
       </c>
       <c r="B450" s="25" t="s">
-        <v>3505</v>
+        <v>3503</v>
       </c>
       <c r="C450" s="20" t="s">
         <v>938</v>
@@ -24554,7 +24583,7 @@
         <v>939</v>
       </c>
       <c r="B451" s="25" t="s">
-        <v>3505</v>
+        <v>3503</v>
       </c>
       <c r="C451" s="20" t="s">
         <v>940</v>
@@ -24579,7 +24608,7 @@
         <v>941</v>
       </c>
       <c r="B452" s="25" t="s">
-        <v>3505</v>
+        <v>3503</v>
       </c>
       <c r="C452" s="20" t="s">
         <v>942</v>
@@ -24604,7 +24633,7 @@
         <v>943</v>
       </c>
       <c r="B453" s="25" t="s">
-        <v>3505</v>
+        <v>3503</v>
       </c>
       <c r="C453" s="20" t="s">
         <v>944</v>
@@ -24629,7 +24658,7 @@
         <v>945</v>
       </c>
       <c r="B454" s="25" t="s">
-        <v>3506</v>
+        <v>3504</v>
       </c>
       <c r="C454" s="20" t="s">
         <v>946</v>
@@ -24654,7 +24683,7 @@
         <v>947</v>
       </c>
       <c r="B455" s="25" t="s">
-        <v>3506</v>
+        <v>3504</v>
       </c>
       <c r="C455" s="20" t="s">
         <v>948</v>
@@ -24679,7 +24708,7 @@
         <v>949</v>
       </c>
       <c r="B456" s="25" t="s">
-        <v>3506</v>
+        <v>3504</v>
       </c>
       <c r="C456" s="20" t="s">
         <v>950</v>
@@ -24704,7 +24733,7 @@
         <v>951</v>
       </c>
       <c r="B457" s="25" t="s">
-        <v>3506</v>
+        <v>3504</v>
       </c>
       <c r="C457" s="20" t="s">
         <v>952</v>
@@ -24729,7 +24758,7 @@
         <v>953</v>
       </c>
       <c r="B458" s="25" t="s">
-        <v>3506</v>
+        <v>3504</v>
       </c>
       <c r="C458" s="20" t="s">
         <v>954</v>
@@ -24754,7 +24783,7 @@
         <v>955</v>
       </c>
       <c r="B459" s="25" t="s">
-        <v>3506</v>
+        <v>3504</v>
       </c>
       <c r="C459" s="20" t="s">
         <v>956</v>
@@ -24913,7 +24942,7 @@
         <v>369</v>
       </c>
       <c r="C465" s="20" t="s">
-        <v>3507</v>
+        <v>3505</v>
       </c>
       <c r="D465" s="22"/>
       <c r="E465" s="22" t="s">
@@ -25257,13 +25286,13 @@
     </row>
     <row r="479" spans="1:9" ht="30">
       <c r="A479" s="22" t="s">
-        <v>3509</v>
+        <v>3507</v>
       </c>
       <c r="B479" s="25" t="s">
         <v>369</v>
       </c>
       <c r="C479" s="33" t="s">
-        <v>3508</v>
+        <v>3506</v>
       </c>
       <c r="D479" s="32"/>
       <c r="E479" s="32" t="s">
@@ -25407,13 +25436,13 @@
     </row>
     <row r="485" spans="1:9" ht="30">
       <c r="A485" s="22" t="s">
-        <v>3511</v>
+        <v>3509</v>
       </c>
       <c r="B485" s="25" t="s">
         <v>369</v>
       </c>
       <c r="C485" s="33" t="s">
-        <v>3510</v>
+        <v>3508</v>
       </c>
       <c r="D485" s="32"/>
       <c r="E485" s="32" t="s">
@@ -25889,7 +25918,7 @@
         <v>1045</v>
       </c>
       <c r="B504" s="25" t="s">
-        <v>3512</v>
+        <v>3510</v>
       </c>
       <c r="C504" s="20" t="s">
         <v>1046</v>
@@ -25914,7 +25943,7 @@
         <v>1047</v>
       </c>
       <c r="B505" s="25" t="s">
-        <v>3512</v>
+        <v>3510</v>
       </c>
       <c r="C505" s="20" t="s">
         <v>1048</v>
@@ -25939,7 +25968,7 @@
         <v>1049</v>
       </c>
       <c r="B506" s="25" t="s">
-        <v>3512</v>
+        <v>3510</v>
       </c>
       <c r="C506" s="20" t="s">
         <v>1050</v>
@@ -25964,10 +25993,10 @@
         <v>1051</v>
       </c>
       <c r="B507" s="25" t="s">
-        <v>3512</v>
+        <v>3510</v>
       </c>
       <c r="C507" s="20" t="s">
-        <v>3513</v>
+        <v>3511</v>
       </c>
       <c r="D507" s="22"/>
       <c r="E507" s="22" t="s">
@@ -25989,7 +26018,7 @@
         <v>1052</v>
       </c>
       <c r="B508" s="25" t="s">
-        <v>3512</v>
+        <v>3510</v>
       </c>
       <c r="C508" s="20" t="s">
         <v>1053</v>
@@ -26016,7 +26045,7 @@
         <v>1055</v>
       </c>
       <c r="B509" s="25" t="s">
-        <v>3512</v>
+        <v>3510</v>
       </c>
       <c r="C509" s="20" t="s">
         <v>1056</v>
@@ -26041,7 +26070,7 @@
         <v>1057</v>
       </c>
       <c r="B510" s="25" t="s">
-        <v>3512</v>
+        <v>3510</v>
       </c>
       <c r="C510" s="20" t="s">
         <v>1058</v>
@@ -26066,7 +26095,7 @@
         <v>1059</v>
       </c>
       <c r="B511" s="25" t="s">
-        <v>3512</v>
+        <v>3510</v>
       </c>
       <c r="C511" s="20" t="s">
         <v>1060</v>
@@ -26091,7 +26120,7 @@
         <v>1061</v>
       </c>
       <c r="B512" s="25" t="s">
-        <v>3512</v>
+        <v>3510</v>
       </c>
       <c r="C512" s="20" t="s">
         <v>1062</v>
@@ -26116,7 +26145,7 @@
         <v>1063</v>
       </c>
       <c r="B513" s="25" t="s">
-        <v>3514</v>
+        <v>3512</v>
       </c>
       <c r="C513" s="20" t="s">
         <v>1064</v>
@@ -26143,7 +26172,7 @@
         <v>1066</v>
       </c>
       <c r="B514" s="25" t="s">
-        <v>3514</v>
+        <v>3512</v>
       </c>
       <c r="C514" s="20" t="s">
         <v>1067</v>
@@ -26168,7 +26197,7 @@
         <v>1068</v>
       </c>
       <c r="B515" s="25" t="s">
-        <v>3514</v>
+        <v>3512</v>
       </c>
       <c r="C515" s="20" t="s">
         <v>1069</v>
@@ -26195,7 +26224,7 @@
         <v>1071</v>
       </c>
       <c r="B516" s="25" t="s">
-        <v>3514</v>
+        <v>3512</v>
       </c>
       <c r="C516" s="20" t="s">
         <v>1072</v>
@@ -26222,7 +26251,7 @@
         <v>1074</v>
       </c>
       <c r="B517" s="25" t="s">
-        <v>3514</v>
+        <v>3512</v>
       </c>
       <c r="C517" s="20" t="s">
         <v>1075</v>
@@ -26247,7 +26276,7 @@
         <v>1076</v>
       </c>
       <c r="B518" s="25" t="s">
-        <v>3514</v>
+        <v>3512</v>
       </c>
       <c r="C518" s="20" t="s">
         <v>1077</v>
@@ -26272,7 +26301,7 @@
         <v>1078</v>
       </c>
       <c r="B519" s="25" t="s">
-        <v>3514</v>
+        <v>3512</v>
       </c>
       <c r="C519" s="20" t="s">
         <v>1079</v>
@@ -26297,7 +26326,7 @@
         <v>1080</v>
       </c>
       <c r="B520" s="25" t="s">
-        <v>3514</v>
+        <v>3512</v>
       </c>
       <c r="C520" s="20" t="s">
         <v>1081</v>
@@ -26322,7 +26351,7 @@
         <v>1082</v>
       </c>
       <c r="B521" s="25" t="s">
-        <v>3514</v>
+        <v>3512</v>
       </c>
       <c r="C521" s="20" t="s">
         <v>1083</v>
@@ -26349,7 +26378,7 @@
         <v>1085</v>
       </c>
       <c r="B522" s="25" t="s">
-        <v>3514</v>
+        <v>3512</v>
       </c>
       <c r="C522" s="20" t="s">
         <v>1086</v>
@@ -26376,7 +26405,7 @@
         <v>1088</v>
       </c>
       <c r="B523" s="25" t="s">
-        <v>3514</v>
+        <v>3512</v>
       </c>
       <c r="C523" s="20" t="s">
         <v>1089</v>
@@ -26401,7 +26430,7 @@
         <v>1090</v>
       </c>
       <c r="B524" s="25" t="s">
-        <v>3514</v>
+        <v>3512</v>
       </c>
       <c r="C524" s="20" t="s">
         <v>1091</v>
@@ -26428,7 +26457,7 @@
         <v>1093</v>
       </c>
       <c r="B525" s="25" t="s">
-        <v>3514</v>
+        <v>3512</v>
       </c>
       <c r="C525" s="20" t="s">
         <v>1094</v>
@@ -26455,7 +26484,7 @@
         <v>1096</v>
       </c>
       <c r="B526" s="25" t="s">
-        <v>3514</v>
+        <v>3512</v>
       </c>
       <c r="C526" s="20" t="s">
         <v>1097</v>
@@ -26480,7 +26509,7 @@
         <v>1098</v>
       </c>
       <c r="B527" s="25" t="s">
-        <v>3514</v>
+        <v>3512</v>
       </c>
       <c r="C527" s="20" t="s">
         <v>1099</v>
@@ -26507,7 +26536,7 @@
         <v>1101</v>
       </c>
       <c r="B528" s="25" t="s">
-        <v>3514</v>
+        <v>3512</v>
       </c>
       <c r="C528" s="20" t="s">
         <v>1102</v>
@@ -26534,10 +26563,10 @@
         <v>1104</v>
       </c>
       <c r="B529" s="25" t="s">
-        <v>3514</v>
+        <v>3512</v>
       </c>
       <c r="C529" s="20" t="s">
-        <v>3515</v>
+        <v>3513</v>
       </c>
       <c r="D529" s="22"/>
       <c r="E529" s="22" t="s">
@@ -26559,7 +26588,7 @@
         <v>1105</v>
       </c>
       <c r="B530" s="25" t="s">
-        <v>3514</v>
+        <v>3512</v>
       </c>
       <c r="C530" s="20" t="s">
         <v>1106</v>
@@ -26584,7 +26613,7 @@
         <v>1107</v>
       </c>
       <c r="B531" s="25" t="s">
-        <v>3514</v>
+        <v>3512</v>
       </c>
       <c r="C531" s="20" t="s">
         <v>1108</v>
@@ -26611,7 +26640,7 @@
         <v>1110</v>
       </c>
       <c r="B532" s="25" t="s">
-        <v>3514</v>
+        <v>3512</v>
       </c>
       <c r="C532" s="20" t="s">
         <v>1111</v>
@@ -26638,7 +26667,7 @@
         <v>1113</v>
       </c>
       <c r="B533" s="25" t="s">
-        <v>3514</v>
+        <v>3512</v>
       </c>
       <c r="C533" s="20" t="s">
         <v>1114</v>
@@ -26663,7 +26692,7 @@
         <v>1115</v>
       </c>
       <c r="B534" s="25" t="s">
-        <v>3514</v>
+        <v>3512</v>
       </c>
       <c r="C534" s="20" t="s">
         <v>1116</v>
@@ -26688,7 +26717,7 @@
         <v>1117</v>
       </c>
       <c r="B535" s="25" t="s">
-        <v>3514</v>
+        <v>3512</v>
       </c>
       <c r="C535" s="20" t="s">
         <v>1118</v>
@@ -26713,7 +26742,7 @@
         <v>1119</v>
       </c>
       <c r="B536" s="25" t="s">
-        <v>3514</v>
+        <v>3512</v>
       </c>
       <c r="C536" s="20" t="s">
         <v>1120</v>
@@ -26738,7 +26767,7 @@
         <v>1121</v>
       </c>
       <c r="B537" s="25" t="s">
-        <v>3514</v>
+        <v>3512</v>
       </c>
       <c r="C537" s="20" t="s">
         <v>1122</v>
@@ -26763,7 +26792,7 @@
         <v>1123</v>
       </c>
       <c r="B538" s="25" t="s">
-        <v>3514</v>
+        <v>3512</v>
       </c>
       <c r="C538" s="20" t="s">
         <v>1124</v>
@@ -26790,7 +26819,7 @@
         <v>1126</v>
       </c>
       <c r="B539" s="25" t="s">
-        <v>3514</v>
+        <v>3512</v>
       </c>
       <c r="C539" s="20" t="s">
         <v>1127</v>
@@ -26817,10 +26846,10 @@
         <v>1129</v>
       </c>
       <c r="B540" s="25" t="s">
+        <v>3512</v>
+      </c>
+      <c r="C540" s="20" t="s">
         <v>3514</v>
-      </c>
-      <c r="C540" s="20" t="s">
-        <v>3516</v>
       </c>
       <c r="D540" s="22"/>
       <c r="E540" s="22" t="s">
@@ -26842,7 +26871,7 @@
         <v>1130</v>
       </c>
       <c r="B541" s="25" t="s">
-        <v>3514</v>
+        <v>3512</v>
       </c>
       <c r="C541" s="20" t="s">
         <v>1131</v>
@@ -26867,7 +26896,7 @@
         <v>1132</v>
       </c>
       <c r="B542" s="25" t="s">
-        <v>3517</v>
+        <v>3515</v>
       </c>
       <c r="C542" s="20" t="s">
         <v>1133</v>
@@ -26894,7 +26923,7 @@
         <v>1135</v>
       </c>
       <c r="B543" s="25" t="s">
-        <v>3517</v>
+        <v>3515</v>
       </c>
       <c r="C543" s="20" t="s">
         <v>1136</v>
@@ -26919,7 +26948,7 @@
         <v>1137</v>
       </c>
       <c r="B544" s="25" t="s">
-        <v>3517</v>
+        <v>3515</v>
       </c>
       <c r="C544" s="20" t="s">
         <v>1138</v>
@@ -26944,10 +26973,10 @@
         <v>1139</v>
       </c>
       <c r="B545" s="25" t="s">
-        <v>3517</v>
+        <v>3515</v>
       </c>
       <c r="C545" s="20" t="s">
-        <v>3518</v>
+        <v>3516</v>
       </c>
       <c r="D545" s="22"/>
       <c r="E545" s="22" t="s">
@@ -26969,10 +26998,10 @@
         <v>1140</v>
       </c>
       <c r="B546" s="25" t="s">
-        <v>3517</v>
+        <v>3515</v>
       </c>
       <c r="C546" s="20" t="s">
-        <v>3618</v>
+        <v>3615</v>
       </c>
       <c r="D546" s="22"/>
       <c r="E546" s="22" t="s">
@@ -26994,10 +27023,10 @@
         <v>1141</v>
       </c>
       <c r="B547" s="25" t="s">
+        <v>3515</v>
+      </c>
+      <c r="C547" s="20" t="s">
         <v>3517</v>
-      </c>
-      <c r="C547" s="20" t="s">
-        <v>3519</v>
       </c>
       <c r="D547" s="22"/>
       <c r="E547" s="22" t="s">
@@ -27019,7 +27048,7 @@
         <v>1142</v>
       </c>
       <c r="B548" s="25" t="s">
-        <v>3517</v>
+        <v>3515</v>
       </c>
       <c r="C548" s="20" t="s">
         <v>1143</v>
@@ -27044,7 +27073,7 @@
         <v>1144</v>
       </c>
       <c r="B549" s="25" t="s">
-        <v>3517</v>
+        <v>3515</v>
       </c>
       <c r="C549" s="20" t="s">
         <v>1145</v>
@@ -27069,7 +27098,7 @@
         <v>1146</v>
       </c>
       <c r="B550" s="25" t="s">
-        <v>3517</v>
+        <v>3515</v>
       </c>
       <c r="C550" s="20" t="s">
         <v>1147</v>
@@ -27094,7 +27123,7 @@
         <v>1148</v>
       </c>
       <c r="B551" s="25" t="s">
-        <v>3517</v>
+        <v>3515</v>
       </c>
       <c r="C551" s="20" t="s">
         <v>1149</v>
@@ -27119,7 +27148,7 @@
         <v>1150</v>
       </c>
       <c r="B552" s="25" t="s">
-        <v>3517</v>
+        <v>3515</v>
       </c>
       <c r="C552" s="20" t="s">
         <v>1151</v>
@@ -27146,7 +27175,7 @@
         <v>1153</v>
       </c>
       <c r="B553" s="25" t="s">
-        <v>3517</v>
+        <v>3515</v>
       </c>
       <c r="C553" s="20" t="s">
         <v>1154</v>
@@ -27173,7 +27202,7 @@
         <v>1156</v>
       </c>
       <c r="B554" s="25" t="s">
-        <v>3517</v>
+        <v>3515</v>
       </c>
       <c r="C554" s="20" t="s">
         <v>1157</v>
@@ -27198,7 +27227,7 @@
         <v>1158</v>
       </c>
       <c r="B555" s="25" t="s">
-        <v>3517</v>
+        <v>3515</v>
       </c>
       <c r="C555" s="20" t="s">
         <v>1159</v>
@@ -27225,7 +27254,7 @@
         <v>1161</v>
       </c>
       <c r="B556" s="25" t="s">
-        <v>3517</v>
+        <v>3515</v>
       </c>
       <c r="C556" s="20" t="s">
         <v>1162</v>
@@ -27252,7 +27281,7 @@
         <v>1164</v>
       </c>
       <c r="B557" s="25" t="s">
-        <v>3517</v>
+        <v>3515</v>
       </c>
       <c r="C557" s="20" t="s">
         <v>1165</v>
@@ -27277,7 +27306,7 @@
         <v>1166</v>
       </c>
       <c r="B558" s="25" t="s">
-        <v>3517</v>
+        <v>3515</v>
       </c>
       <c r="C558" s="20" t="s">
         <v>1167</v>
@@ -27304,7 +27333,7 @@
         <v>1169</v>
       </c>
       <c r="B559" s="25" t="s">
-        <v>3517</v>
+        <v>3515</v>
       </c>
       <c r="C559" s="20" t="s">
         <v>1170</v>
@@ -27331,10 +27360,10 @@
         <v>1172</v>
       </c>
       <c r="B560" s="25" t="s">
-        <v>3517</v>
+        <v>3515</v>
       </c>
       <c r="C560" s="20" t="s">
-        <v>3520</v>
+        <v>3518</v>
       </c>
       <c r="D560" s="22"/>
       <c r="E560" s="22" t="s">
@@ -27356,7 +27385,7 @@
         <v>1173</v>
       </c>
       <c r="B561" s="25" t="s">
-        <v>3517</v>
+        <v>3515</v>
       </c>
       <c r="C561" s="20" t="s">
         <v>1174</v>
@@ -27381,7 +27410,7 @@
         <v>1175</v>
       </c>
       <c r="B562" s="25" t="s">
-        <v>3517</v>
+        <v>3515</v>
       </c>
       <c r="C562" s="20" t="s">
         <v>1176</v>
@@ -27408,7 +27437,7 @@
         <v>1178</v>
       </c>
       <c r="B563" s="25" t="s">
-        <v>3517</v>
+        <v>3515</v>
       </c>
       <c r="C563" s="20" t="s">
         <v>1179</v>
@@ -27435,7 +27464,7 @@
         <v>1181</v>
       </c>
       <c r="B564" s="25" t="s">
-        <v>3517</v>
+        <v>3515</v>
       </c>
       <c r="C564" s="20" t="s">
         <v>1182</v>
@@ -27460,7 +27489,7 @@
         <v>1183</v>
       </c>
       <c r="B565" s="25" t="s">
-        <v>3517</v>
+        <v>3515</v>
       </c>
       <c r="C565" s="20" t="s">
         <v>1184</v>
@@ -27485,10 +27514,10 @@
         <v>1185</v>
       </c>
       <c r="B566" s="25" t="s">
-        <v>3517</v>
+        <v>3515</v>
       </c>
       <c r="C566" s="20" t="s">
-        <v>3521</v>
+        <v>3519</v>
       </c>
       <c r="D566" s="22"/>
       <c r="E566" s="22" t="s">
@@ -27510,7 +27539,7 @@
         <v>1186</v>
       </c>
       <c r="B567" s="25" t="s">
-        <v>3517</v>
+        <v>3515</v>
       </c>
       <c r="C567" s="20" t="s">
         <v>1187</v>
@@ -27535,7 +27564,7 @@
         <v>1188</v>
       </c>
       <c r="B568" s="25" t="s">
-        <v>3517</v>
+        <v>3515</v>
       </c>
       <c r="C568" s="20" t="s">
         <v>1189</v>
@@ -27560,7 +27589,7 @@
         <v>1190</v>
       </c>
       <c r="B569" s="25" t="s">
-        <v>3517</v>
+        <v>3515</v>
       </c>
       <c r="C569" s="20" t="s">
         <v>1191</v>
@@ -27587,7 +27616,7 @@
         <v>1193</v>
       </c>
       <c r="B570" s="25" t="s">
-        <v>3517</v>
+        <v>3515</v>
       </c>
       <c r="C570" s="20" t="s">
         <v>1194</v>
@@ -27614,10 +27643,10 @@
         <v>1196</v>
       </c>
       <c r="B571" s="25" t="s">
-        <v>3517</v>
+        <v>3515</v>
       </c>
       <c r="C571" s="20" t="s">
-        <v>3522</v>
+        <v>3520</v>
       </c>
       <c r="D571" s="22"/>
       <c r="E571" s="22" t="s">
@@ -27639,10 +27668,10 @@
         <v>1197</v>
       </c>
       <c r="B572" s="25" t="s">
-        <v>3517</v>
+        <v>3515</v>
       </c>
       <c r="C572" s="20" t="s">
-        <v>3523</v>
+        <v>3521</v>
       </c>
       <c r="D572" s="22"/>
       <c r="E572" s="22" t="s">
@@ -27658,7 +27687,7 @@
         <v>17</v>
       </c>
       <c r="I572" s="20" t="s">
-        <v>3611</v>
+        <v>3608</v>
       </c>
     </row>
     <row r="573" spans="1:9" ht="30">
@@ -28821,7 +28850,7 @@
         <v>17</v>
       </c>
       <c r="I617" s="20" t="s">
-        <v>3610</v>
+        <v>3607</v>
       </c>
     </row>
     <row r="618" spans="1:9" ht="30">
@@ -29396,7 +29425,7 @@
         <v>1342</v>
       </c>
       <c r="C640" s="20" t="s">
-        <v>3524</v>
+        <v>3522</v>
       </c>
       <c r="D640" s="22"/>
       <c r="E640" s="22" t="s">
@@ -29471,7 +29500,7 @@
         <v>1342</v>
       </c>
       <c r="C643" s="20" t="s">
-        <v>3619</v>
+        <v>3616</v>
       </c>
       <c r="D643" s="22"/>
       <c r="E643" s="22" t="s">
@@ -29673,7 +29702,7 @@
         <v>1342</v>
       </c>
       <c r="C651" s="20" t="s">
-        <v>3525</v>
+        <v>3523</v>
       </c>
       <c r="D651" s="22"/>
       <c r="E651" s="22" t="s">
@@ -29950,7 +29979,7 @@
         <v>1400</v>
       </c>
       <c r="C662" s="20" t="s">
-        <v>3526</v>
+        <v>3524</v>
       </c>
       <c r="D662" s="22"/>
       <c r="E662" s="22" t="s">
@@ -30106,7 +30135,7 @@
         <v>1400</v>
       </c>
       <c r="C668" s="20" t="s">
-        <v>3528</v>
+        <v>3526</v>
       </c>
       <c r="D668" s="22"/>
       <c r="E668" s="22" t="s">
@@ -30131,7 +30160,7 @@
         <v>1400</v>
       </c>
       <c r="C669" s="20" t="s">
-        <v>3527</v>
+        <v>3525</v>
       </c>
       <c r="D669" s="22"/>
       <c r="E669" s="22" t="s">
@@ -30260,7 +30289,7 @@
         <v>1425</v>
       </c>
       <c r="C674" s="20" t="s">
-        <v>3529</v>
+        <v>3527</v>
       </c>
       <c r="D674" s="22"/>
       <c r="E674" s="22" t="s">
@@ -30566,7 +30595,7 @@
         <v>1425</v>
       </c>
       <c r="C686" s="20" t="s">
-        <v>3530</v>
+        <v>3528</v>
       </c>
       <c r="D686" s="22"/>
       <c r="E686" s="22" t="s">
@@ -30860,13 +30889,13 @@
     </row>
     <row r="698" spans="1:9" ht="30">
       <c r="A698" s="22" t="s">
-        <v>3531</v>
+        <v>3529</v>
       </c>
       <c r="B698" s="25" t="s">
         <v>1425</v>
       </c>
-      <c r="C698" s="33" t="s">
-        <v>3532</v>
+      <c r="C698" s="20" t="s">
+        <v>3530</v>
       </c>
       <c r="D698" s="32"/>
       <c r="E698" s="32" t="s">
@@ -31141,7 +31170,7 @@
         <v>1425</v>
       </c>
       <c r="C709" s="20" t="s">
-        <v>3620</v>
+        <v>3617</v>
       </c>
       <c r="D709" s="22"/>
       <c r="E709" s="22" t="s">
@@ -31166,7 +31195,7 @@
         <v>1425</v>
       </c>
       <c r="C710" s="20" t="s">
-        <v>3533</v>
+        <v>3531</v>
       </c>
       <c r="D710" s="22"/>
       <c r="E710" s="22" t="s">
@@ -31291,7 +31320,7 @@
         <v>1507</v>
       </c>
       <c r="C715" s="20" t="s">
-        <v>3534</v>
+        <v>3532</v>
       </c>
       <c r="D715" s="22"/>
       <c r="E715" s="22" t="s">
@@ -31601,7 +31630,7 @@
         <v>1507</v>
       </c>
       <c r="C727" s="20" t="s">
-        <v>3535</v>
+        <v>3533</v>
       </c>
       <c r="D727" s="22"/>
       <c r="E727" s="22" t="s">
@@ -31776,7 +31805,7 @@
         <v>1507</v>
       </c>
       <c r="C734" s="20" t="s">
-        <v>3536</v>
+        <v>3534</v>
       </c>
       <c r="D734" s="22"/>
       <c r="E734" s="22" t="s">
@@ -32128,7 +32157,7 @@
         <v>1575</v>
       </c>
       <c r="C748" s="20" t="s">
-        <v>3537</v>
+        <v>3535</v>
       </c>
       <c r="D748" s="22"/>
       <c r="E748" s="22" t="s">
@@ -32536,7 +32565,7 @@
         <v>1575</v>
       </c>
       <c r="C764" s="20" t="s">
-        <v>3621</v>
+        <v>3618</v>
       </c>
       <c r="D764" s="22"/>
       <c r="E764" s="22" t="s">
@@ -32661,7 +32690,7 @@
         <v>1622</v>
       </c>
       <c r="C769" s="20" t="s">
-        <v>3538</v>
+        <v>3536</v>
       </c>
       <c r="D769" s="22"/>
       <c r="E769" s="22" t="s">
@@ -33192,7 +33221,7 @@
         <v>1667</v>
       </c>
       <c r="C790" s="20" t="s">
-        <v>3539</v>
+        <v>3537</v>
       </c>
       <c r="D790" s="22"/>
       <c r="E790" s="22" t="s">
@@ -33498,7 +33527,7 @@
         <v>1667</v>
       </c>
       <c r="C802" s="20" t="s">
-        <v>3540</v>
+        <v>3538</v>
       </c>
       <c r="D802" s="22"/>
       <c r="E802" s="22" t="s">
@@ -33573,7 +33602,7 @@
         <v>1667</v>
       </c>
       <c r="C805" s="20" t="s">
-        <v>3541</v>
+        <v>3539</v>
       </c>
       <c r="D805" s="22"/>
       <c r="E805" s="22" t="s">
@@ -33648,7 +33677,7 @@
         <v>1667</v>
       </c>
       <c r="C808" s="20" t="s">
-        <v>3622</v>
+        <v>3619</v>
       </c>
       <c r="D808" s="22"/>
       <c r="E808" s="22" t="s">
@@ -33664,7 +33693,7 @@
         <v>17</v>
       </c>
       <c r="I808" s="20" t="s">
-        <v>3632</v>
+        <v>3628</v>
       </c>
     </row>
     <row r="809" spans="1:9" ht="60">
@@ -33829,7 +33858,7 @@
         <v>1667</v>
       </c>
       <c r="C815" s="20" t="s">
-        <v>3542</v>
+        <v>3540</v>
       </c>
       <c r="D815" s="22"/>
       <c r="E815" s="22" t="s">
@@ -33879,7 +33908,7 @@
         <v>1667</v>
       </c>
       <c r="C817" s="20" t="s">
-        <v>3543</v>
+        <v>3541</v>
       </c>
       <c r="D817" s="22"/>
       <c r="E817" s="22" t="s">
@@ -33904,7 +33933,7 @@
         <v>1667</v>
       </c>
       <c r="C818" s="20" t="s">
-        <v>3623</v>
+        <v>3620</v>
       </c>
       <c r="D818" s="22"/>
       <c r="E818" s="22" t="s">
@@ -34229,7 +34258,7 @@
         <v>1746</v>
       </c>
       <c r="C831" s="20" t="s">
-        <v>3544</v>
+        <v>3542</v>
       </c>
       <c r="D831" s="22"/>
       <c r="E831" s="22" t="s">
@@ -34612,7 +34641,7 @@
         <v>1746</v>
       </c>
       <c r="C846" s="20" t="s">
-        <v>3545</v>
+        <v>3543</v>
       </c>
       <c r="D846" s="22"/>
       <c r="E846" s="22" t="s">
@@ -34687,7 +34716,7 @@
         <v>1746</v>
       </c>
       <c r="C849" s="20" t="s">
-        <v>3546</v>
+        <v>3544</v>
       </c>
       <c r="D849" s="22"/>
       <c r="E849" s="22" t="s">
@@ -35291,7 +35320,7 @@
         <v>1746</v>
       </c>
       <c r="C873" s="20" t="s">
-        <v>3547</v>
+        <v>3545</v>
       </c>
       <c r="D873" s="22"/>
       <c r="E873" s="22" t="s">
@@ -35441,7 +35470,7 @@
         <v>1746</v>
       </c>
       <c r="C879" s="20" t="s">
-        <v>3548</v>
+        <v>3546</v>
       </c>
       <c r="D879" s="22"/>
       <c r="E879" s="22" t="s">
@@ -35566,7 +35595,7 @@
         <v>1854</v>
       </c>
       <c r="C884" s="20" t="s">
-        <v>3549</v>
+        <v>3547</v>
       </c>
       <c r="D884" s="22"/>
       <c r="E884" s="22" t="s">
@@ -35951,7 +35980,7 @@
         <v>1854</v>
       </c>
       <c r="C899" s="20" t="s">
-        <v>3550</v>
+        <v>3548</v>
       </c>
       <c r="D899" s="22"/>
       <c r="E899" s="22" t="s">
@@ -36026,7 +36055,7 @@
         <v>1854</v>
       </c>
       <c r="C902" s="20" t="s">
-        <v>3551</v>
+        <v>3549</v>
       </c>
       <c r="D902" s="22"/>
       <c r="E902" s="22" t="s">
@@ -36101,7 +36130,7 @@
         <v>1854</v>
       </c>
       <c r="C905" s="20" t="s">
-        <v>3552</v>
+        <v>3550</v>
       </c>
       <c r="D905" s="22"/>
       <c r="E905" s="22" t="s">
@@ -36878,7 +36907,7 @@
         <v>1960</v>
       </c>
       <c r="C936" s="20" t="s">
-        <v>3553</v>
+        <v>3551</v>
       </c>
       <c r="D936" s="22"/>
       <c r="E936" s="22" t="s">
@@ -37600,7 +37629,7 @@
         <v>1960</v>
       </c>
       <c r="C964" s="20" t="s">
-        <v>3555</v>
+        <v>3553</v>
       </c>
       <c r="D964" s="22"/>
       <c r="E964" s="22" t="s">
@@ -37675,7 +37704,7 @@
         <v>1960</v>
       </c>
       <c r="C967" s="20" t="s">
-        <v>3554</v>
+        <v>3552</v>
       </c>
       <c r="D967" s="22"/>
       <c r="E967" s="22" t="s">
@@ -37750,7 +37779,7 @@
         <v>1960</v>
       </c>
       <c r="C970" s="20" t="s">
-        <v>3556</v>
+        <v>3554</v>
       </c>
       <c r="D970" s="22"/>
       <c r="E970" s="22" t="s">
@@ -38883,7 +38912,7 @@
         <v>2125</v>
       </c>
       <c r="C1015" s="20" t="s">
-        <v>3557</v>
+        <v>3555</v>
       </c>
       <c r="D1015" s="22"/>
       <c r="E1015" s="22" t="s">
@@ -39218,7 +39247,7 @@
         <v>2125</v>
       </c>
       <c r="C1028" s="20" t="s">
-        <v>3558</v>
+        <v>3556</v>
       </c>
       <c r="D1028" s="22"/>
       <c r="E1028" s="22" t="s">
@@ -39293,7 +39322,7 @@
         <v>2125</v>
       </c>
       <c r="C1031" s="20" t="s">
-        <v>3559</v>
+        <v>3557</v>
       </c>
       <c r="D1031" s="22"/>
       <c r="E1031" s="22" t="s">
@@ -39818,7 +39847,7 @@
         <v>2202</v>
       </c>
       <c r="C1052" s="20" t="s">
-        <v>3560</v>
+        <v>3558</v>
       </c>
       <c r="D1052" s="22"/>
       <c r="E1052" s="22" t="s">
@@ -39997,7 +40026,7 @@
         <v>2202</v>
       </c>
       <c r="C1059" s="20" t="s">
-        <v>3561</v>
+        <v>3559</v>
       </c>
       <c r="D1059" s="22"/>
       <c r="E1059" s="22" t="s">
@@ -40022,7 +40051,7 @@
         <v>2202</v>
       </c>
       <c r="C1060" s="20" t="s">
-        <v>3562</v>
+        <v>3560</v>
       </c>
       <c r="D1060" s="22"/>
       <c r="E1060" s="22" t="s">
@@ -40099,7 +40128,7 @@
         <v>2202</v>
       </c>
       <c r="C1063" s="20" t="s">
-        <v>3563</v>
+        <v>3561</v>
       </c>
       <c r="D1063" s="22"/>
       <c r="E1063" s="22" t="s">
@@ -40399,7 +40428,7 @@
         <v>2252</v>
       </c>
       <c r="C1075" s="20" t="s">
-        <v>3564</v>
+        <v>3562</v>
       </c>
       <c r="D1075" s="22"/>
       <c r="E1075" s="22" t="s">
@@ -40449,7 +40478,7 @@
         <v>2252</v>
       </c>
       <c r="C1077" s="20" t="s">
-        <v>3565</v>
+        <v>3563</v>
       </c>
       <c r="D1077" s="22"/>
       <c r="E1077" s="22" t="s">
@@ -40578,7 +40607,7 @@
         <v>2252</v>
       </c>
       <c r="C1082" s="20" t="s">
-        <v>3566</v>
+        <v>3564</v>
       </c>
       <c r="D1082" s="22"/>
       <c r="E1082" s="22" t="s">
@@ -40780,7 +40809,7 @@
         <v>2252</v>
       </c>
       <c r="C1090" s="20" t="s">
-        <v>3567</v>
+        <v>3565</v>
       </c>
       <c r="D1090" s="22"/>
       <c r="E1090" s="22" t="s">
@@ -40830,7 +40859,7 @@
         <v>2252</v>
       </c>
       <c r="C1092" s="20" t="s">
-        <v>3568</v>
+        <v>3566</v>
       </c>
       <c r="D1092" s="22"/>
       <c r="E1092" s="22" t="s">
@@ -40930,7 +40959,7 @@
         <v>2291</v>
       </c>
       <c r="C1096" s="20" t="s">
-        <v>3624</v>
+        <v>3621</v>
       </c>
       <c r="D1096" s="22"/>
       <c r="E1096" s="22" t="s">
@@ -40980,7 +41009,7 @@
         <v>2291</v>
       </c>
       <c r="C1098" s="20" t="s">
-        <v>3569</v>
+        <v>3567</v>
       </c>
       <c r="D1098" s="22"/>
       <c r="E1098" s="22" t="s">
@@ -41205,7 +41234,7 @@
         <v>2291</v>
       </c>
       <c r="C1107" s="20" t="s">
-        <v>3570</v>
+        <v>3568</v>
       </c>
       <c r="D1107" s="22"/>
       <c r="E1107" s="22" t="s">
@@ -41355,7 +41384,7 @@
         <v>2291</v>
       </c>
       <c r="C1113" s="20" t="s">
-        <v>3571</v>
+        <v>3569</v>
       </c>
       <c r="D1113" s="22"/>
       <c r="E1113" s="22" t="s">
@@ -41505,7 +41534,7 @@
         <v>2291</v>
       </c>
       <c r="C1119" s="20" t="s">
-        <v>3572</v>
+        <v>3570</v>
       </c>
       <c r="D1119" s="22"/>
       <c r="E1119" s="22" t="s">
@@ -41520,9 +41549,7 @@
       <c r="H1119" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="I1119" s="20" t="s">
-        <v>3631</v>
-      </c>
+      <c r="I1119" s="20"/>
     </row>
     <row r="1120" spans="1:9" ht="60">
       <c r="A1120" s="22" t="s">
@@ -41607,7 +41634,7 @@
         <v>2341</v>
       </c>
       <c r="C1123" s="20" t="s">
-        <v>3574</v>
+        <v>3572</v>
       </c>
       <c r="D1123" s="22"/>
       <c r="E1123" s="22" t="s">
@@ -41713,7 +41740,7 @@
         <v>2341</v>
       </c>
       <c r="C1127" s="20" t="s">
-        <v>3573</v>
+        <v>3571</v>
       </c>
       <c r="D1127" s="22"/>
       <c r="E1127" s="22" t="s">
@@ -42023,7 +42050,7 @@
         <v>2341</v>
       </c>
       <c r="C1139" s="20" t="s">
-        <v>3575</v>
+        <v>3573</v>
       </c>
       <c r="D1139" s="22"/>
       <c r="E1139" s="22" t="s">
@@ -42039,7 +42066,7 @@
         <v>17</v>
       </c>
       <c r="I1139" s="20" t="s">
-        <v>3612</v>
+        <v>3609</v>
       </c>
     </row>
     <row r="1140" spans="1:9" ht="45">
@@ -42125,7 +42152,7 @@
         <v>2341</v>
       </c>
       <c r="C1143" s="20" t="s">
-        <v>3576</v>
+        <v>3574</v>
       </c>
       <c r="D1143" s="22"/>
       <c r="E1143" s="22" t="s">
@@ -42175,7 +42202,7 @@
         <v>2341</v>
       </c>
       <c r="C1145" s="20" t="s">
-        <v>3577</v>
+        <v>3575</v>
       </c>
       <c r="D1145" s="22"/>
       <c r="E1145" s="22" t="s">
@@ -42300,7 +42327,7 @@
         <v>2341</v>
       </c>
       <c r="C1150" s="20" t="s">
-        <v>3637</v>
+        <v>3633</v>
       </c>
       <c r="D1150" s="22"/>
       <c r="E1150" s="22" t="s">
@@ -42325,7 +42352,7 @@
         <v>2341</v>
       </c>
       <c r="C1151" s="20" t="s">
-        <v>3578</v>
+        <v>3576</v>
       </c>
       <c r="D1151" s="22"/>
       <c r="E1151" s="22" t="s">
@@ -42450,7 +42477,7 @@
         <v>2403</v>
       </c>
       <c r="C1156" s="20" t="s">
-        <v>3579</v>
+        <v>3577</v>
       </c>
       <c r="D1156" s="22"/>
       <c r="E1156" s="22" t="s">
@@ -42677,7 +42704,7 @@
         <v>2403</v>
       </c>
       <c r="C1165" s="20" t="s">
-        <v>3581</v>
+        <v>3579</v>
       </c>
       <c r="D1165" s="22"/>
       <c r="E1165" s="22" t="s">
@@ -42702,7 +42729,7 @@
         <v>2403</v>
       </c>
       <c r="C1166" s="20" t="s">
-        <v>3580</v>
+        <v>3578</v>
       </c>
       <c r="D1166" s="22"/>
       <c r="E1166" s="22" t="s">
@@ -42852,7 +42879,7 @@
         <v>2403</v>
       </c>
       <c r="C1172" s="20" t="s">
-        <v>3582</v>
+        <v>3580</v>
       </c>
       <c r="D1172" s="22"/>
       <c r="E1172" s="22" t="s">
@@ -43052,7 +43079,7 @@
         <v>2403</v>
       </c>
       <c r="C1180" s="20" t="s">
-        <v>3583</v>
+        <v>3581</v>
       </c>
       <c r="D1180" s="22"/>
       <c r="E1180" s="22" t="s">
@@ -43152,7 +43179,7 @@
         <v>2403</v>
       </c>
       <c r="C1184" s="20" t="s">
-        <v>3584</v>
+        <v>3582</v>
       </c>
       <c r="D1184" s="22"/>
       <c r="E1184" s="22" t="s">
@@ -43277,7 +43304,7 @@
         <v>2465</v>
       </c>
       <c r="C1189" s="20" t="s">
-        <v>3585</v>
+        <v>3583</v>
       </c>
       <c r="D1189" s="22"/>
       <c r="E1189" s="22" t="s">
@@ -43504,7 +43531,7 @@
         <v>2465</v>
       </c>
       <c r="C1198" s="20" t="s">
-        <v>3586</v>
+        <v>3584</v>
       </c>
       <c r="D1198" s="22"/>
       <c r="E1198" s="22" t="s">
@@ -43529,7 +43556,7 @@
         <v>2465</v>
       </c>
       <c r="C1199" s="20" t="s">
-        <v>3587</v>
+        <v>3585</v>
       </c>
       <c r="D1199" s="22"/>
       <c r="E1199" s="22" t="s">
@@ -43604,7 +43631,7 @@
         <v>2465</v>
       </c>
       <c r="C1202" s="20" t="s">
-        <v>3588</v>
+        <v>3586</v>
       </c>
       <c r="D1202" s="22"/>
       <c r="E1202" s="22" t="s">
@@ -43679,7 +43706,7 @@
         <v>2465</v>
       </c>
       <c r="C1205" s="20" t="s">
-        <v>3589</v>
+        <v>3587</v>
       </c>
       <c r="D1205" s="22"/>
       <c r="E1205" s="22" t="s">
@@ -43879,7 +43906,7 @@
         <v>2465</v>
       </c>
       <c r="C1213" s="20" t="s">
-        <v>3590</v>
+        <v>3588</v>
       </c>
       <c r="D1213" s="22"/>
       <c r="E1213" s="22" t="s">
@@ -43979,7 +44006,7 @@
         <v>2465</v>
       </c>
       <c r="C1217" s="20" t="s">
-        <v>3591</v>
+        <v>3589</v>
       </c>
       <c r="D1217" s="22"/>
       <c r="E1217" s="22" t="s">
@@ -44054,7 +44081,7 @@
         <v>2526</v>
       </c>
       <c r="C1220" s="20" t="s">
-        <v>3592</v>
+        <v>3590</v>
       </c>
       <c r="D1220" s="22"/>
       <c r="E1220" s="22" t="s">
@@ -44104,7 +44131,7 @@
         <v>2526</v>
       </c>
       <c r="C1222" s="20" t="s">
-        <v>3593</v>
+        <v>3591</v>
       </c>
       <c r="D1222" s="22"/>
       <c r="E1222" s="22" t="s">
@@ -44131,7 +44158,7 @@
         <v>2526</v>
       </c>
       <c r="C1223" s="20" t="s">
-        <v>3594</v>
+        <v>3592</v>
       </c>
       <c r="D1223" s="22" t="s">
         <v>2536</v>
@@ -44208,7 +44235,7 @@
         <v>2526</v>
       </c>
       <c r="C1226" s="20" t="s">
-        <v>3625</v>
+        <v>3622</v>
       </c>
       <c r="D1226" s="22"/>
       <c r="E1226" s="22" t="s">
@@ -44660,7 +44687,7 @@
         <v>2526</v>
       </c>
       <c r="C1244" s="20" t="s">
-        <v>3628</v>
+        <v>3625</v>
       </c>
       <c r="D1244" s="22"/>
       <c r="E1244" s="22" t="s">
@@ -45999,7 +46026,7 @@
         <v>2690</v>
       </c>
       <c r="C1297" s="20" t="s">
-        <v>3638</v>
+        <v>3634</v>
       </c>
       <c r="D1297" s="22"/>
       <c r="E1297" s="22" t="s">
@@ -46078,7 +46105,7 @@
         <v>2690</v>
       </c>
       <c r="C1300" s="20" t="s">
-        <v>3639</v>
+        <v>3635</v>
       </c>
       <c r="D1300" s="22" t="s">
         <v>2696</v>
@@ -46207,13 +46234,13 @@
     </row>
     <row r="1305" spans="1:9" ht="75">
       <c r="A1305" s="32" t="s">
-        <v>3640</v>
+        <v>3636</v>
       </c>
       <c r="B1305" s="34" t="s">
         <v>2690</v>
       </c>
       <c r="C1305" s="20" t="s">
-        <v>3641</v>
+        <v>3637</v>
       </c>
       <c r="D1305" s="22" t="s">
         <v>2696</v>
@@ -47958,7 +47985,7 @@
         <v>2844</v>
       </c>
       <c r="C1372" s="20" t="s">
-        <v>3595</v>
+        <v>3593</v>
       </c>
       <c r="D1372" s="22"/>
       <c r="E1372" s="22" t="s">
@@ -49468,7 +49495,7 @@
         <v>2963</v>
       </c>
       <c r="C1432" s="20" t="s">
-        <v>3596</v>
+        <v>3594</v>
       </c>
       <c r="D1432" s="22"/>
       <c r="E1432" s="22" t="s">
@@ -51596,7 +51623,7 @@
         <v>3164</v>
       </c>
       <c r="C1516" s="20" t="s">
-        <v>3626</v>
+        <v>3623</v>
       </c>
       <c r="D1516" s="22" t="s">
         <v>3171</v>
@@ -51623,7 +51650,7 @@
         <v>3164</v>
       </c>
       <c r="C1517" s="20" t="s">
-        <v>3633</v>
+        <v>3629</v>
       </c>
       <c r="D1517" s="22" t="s">
         <v>3174</v>
@@ -51650,7 +51677,7 @@
         <v>3164</v>
       </c>
       <c r="C1518" s="20" t="s">
-        <v>3634</v>
+        <v>3630</v>
       </c>
       <c r="D1518" s="22" t="s">
         <v>3176</v>
@@ -51729,16 +51756,16 @@
     </row>
     <row r="1521" spans="1:9" ht="45">
       <c r="A1521" s="22" t="s">
-        <v>3600</v>
+        <v>3598</v>
       </c>
       <c r="B1521" s="23">
         <v>7</v>
       </c>
       <c r="C1521" s="33" t="s">
-        <v>3597</v>
+        <v>3595</v>
       </c>
       <c r="D1521" s="22" t="s">
-        <v>3607</v>
+        <v>3604</v>
       </c>
       <c r="E1521" s="30" t="s">
         <v>22</v>
@@ -51756,16 +51783,16 @@
     </row>
     <row r="1522" spans="1:9" ht="45">
       <c r="A1522" s="22" t="s">
-        <v>3601</v>
+        <v>3599</v>
       </c>
       <c r="B1522" s="23">
         <v>7</v>
       </c>
       <c r="C1522" s="33" t="s">
-        <v>3630</v>
+        <v>3627</v>
       </c>
       <c r="D1522" s="22" t="s">
-        <v>3607</v>
+        <v>3604</v>
       </c>
       <c r="E1522" s="30" t="s">
         <v>22</v>
@@ -51777,7 +51804,7 @@
         <v>15</v>
       </c>
       <c r="H1522" s="32" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I1522" s="20" t="s">
         <v>2401</v>
@@ -51785,16 +51812,16 @@
     </row>
     <row r="1523" spans="1:9" ht="45">
       <c r="A1523" s="22" t="s">
-        <v>3602</v>
+        <v>3600</v>
       </c>
       <c r="B1523" s="23">
         <v>7</v>
       </c>
-      <c r="C1523" s="33" t="s">
-        <v>3598</v>
+      <c r="C1523" s="20" t="s">
+        <v>3596</v>
       </c>
       <c r="D1523" s="22" t="s">
-        <v>3608</v>
+        <v>3605</v>
       </c>
       <c r="E1523" s="30" t="s">
         <v>22</v>
@@ -51814,16 +51841,16 @@
     </row>
     <row r="1524" spans="1:9" ht="90">
       <c r="A1524" s="22" t="s">
-        <v>3603</v>
+        <v>3601</v>
       </c>
       <c r="B1524" s="23">
         <v>7</v>
       </c>
       <c r="C1524" s="33" t="s">
-        <v>3599</v>
+        <v>3597</v>
       </c>
       <c r="D1524" s="22" t="s">
-        <v>3606</v>
+        <v>3641</v>
       </c>
       <c r="E1524" s="30" t="s">
         <v>22</v>
@@ -51837,22 +51864,20 @@
       <c r="H1524" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="I1524" s="20" t="s">
-        <v>2401</v>
-      </c>
+      <c r="I1524" s="20"/>
     </row>
     <row r="1525" spans="1:9" ht="105">
       <c r="A1525" s="22" t="s">
-        <v>3604</v>
+        <v>3602</v>
       </c>
       <c r="B1525" s="23">
         <v>7</v>
       </c>
       <c r="C1525" s="33" t="s">
-        <v>3642</v>
+        <v>3638</v>
       </c>
       <c r="D1525" s="22" t="s">
-        <v>3609</v>
+        <v>3606</v>
       </c>
       <c r="E1525" s="30" t="s">
         <v>22</v>
@@ -51872,16 +51897,16 @@
     </row>
     <row r="1526" spans="1:9" ht="45">
       <c r="A1526" s="22" t="s">
-        <v>3605</v>
+        <v>3603</v>
       </c>
       <c r="B1526" s="23">
         <v>7</v>
       </c>
       <c r="C1526" s="33" t="s">
-        <v>3635</v>
+        <v>3631</v>
       </c>
       <c r="D1526" s="22" t="s">
-        <v>3609</v>
+        <v>3606</v>
       </c>
       <c r="E1526" s="30" t="s">
         <v>22</v>
@@ -52026,7 +52051,7 @@
     </row>
     <row r="1532" spans="1:9" ht="30">
       <c r="A1532" s="22" t="s">
-        <v>3404</v>
+        <v>3403</v>
       </c>
       <c r="B1532" s="25" t="s">
         <v>3194</v>
@@ -52264,7 +52289,7 @@
         <v>19</v>
       </c>
       <c r="F1541" s="22" t="s">
-        <v>3439</v>
+        <v>3437</v>
       </c>
       <c r="G1541" s="22" t="s">
         <v>15</v>
@@ -52276,20 +52301,20 @@
     </row>
     <row r="1542" spans="1:9" ht="45">
       <c r="A1542" s="22" t="s">
-        <v>3435</v>
+        <v>3433</v>
       </c>
       <c r="B1542" s="25" t="s">
         <v>3194</v>
       </c>
       <c r="C1542" s="20" t="s">
-        <v>3437</v>
+        <v>3435</v>
       </c>
       <c r="D1542" s="22"/>
       <c r="E1542" s="22" t="s">
         <v>19</v>
       </c>
       <c r="F1542" s="22" t="s">
-        <v>3439</v>
+        <v>3437</v>
       </c>
       <c r="G1542" s="22" t="s">
         <v>15</v>
@@ -52301,76 +52326,76 @@
     </row>
     <row r="1543" spans="1:9" ht="30">
       <c r="A1543" s="22" t="s">
-        <v>3436</v>
+        <v>3434</v>
       </c>
       <c r="B1543" s="25" t="s">
         <v>3194</v>
       </c>
       <c r="C1543" s="20" t="s">
-        <v>3438</v>
+        <v>3436</v>
       </c>
       <c r="D1543" s="22"/>
       <c r="E1543" s="22" t="s">
         <v>19</v>
       </c>
       <c r="F1543" s="22" t="s">
-        <v>3439</v>
+        <v>3437</v>
       </c>
       <c r="G1543" s="22" t="s">
         <v>15</v>
       </c>
       <c r="H1543" s="22" t="s">
-        <v>3444</v>
+        <v>3442</v>
       </c>
       <c r="I1543" s="25"/>
     </row>
     <row r="1544" spans="1:9" ht="45">
       <c r="A1544" s="22" t="s">
-        <v>3440</v>
+        <v>3438</v>
       </c>
       <c r="B1544" s="25" t="s">
         <v>3194</v>
       </c>
       <c r="C1544" s="20" t="s">
-        <v>3442</v>
+        <v>3440</v>
       </c>
       <c r="D1544" s="22"/>
       <c r="E1544" s="22" t="s">
         <v>19</v>
       </c>
       <c r="F1544" s="22" t="s">
-        <v>3439</v>
+        <v>3437</v>
       </c>
       <c r="G1544" s="22" t="s">
         <v>15</v>
       </c>
       <c r="H1544" s="22" t="s">
-        <v>3444</v>
+        <v>3442</v>
       </c>
       <c r="I1544" s="25"/>
     </row>
     <row r="1545" spans="1:9" ht="30">
       <c r="A1545" s="22" t="s">
-        <v>3441</v>
+        <v>3439</v>
       </c>
       <c r="B1545" s="25" t="s">
         <v>3194</v>
       </c>
       <c r="C1545" s="20" t="s">
-        <v>3443</v>
+        <v>3441</v>
       </c>
       <c r="D1545" s="22"/>
       <c r="E1545" s="22" t="s">
         <v>19</v>
       </c>
       <c r="F1545" s="22" t="s">
-        <v>3439</v>
+        <v>3437</v>
       </c>
       <c r="G1545" s="22" t="s">
         <v>15</v>
       </c>
       <c r="H1545" s="22" t="s">
-        <v>3444</v>
+        <v>3442</v>
       </c>
       <c r="I1545" s="25"/>
     </row>
@@ -52414,35 +52439,35 @@
         <v>19</v>
       </c>
       <c r="F1547" s="22" t="s">
-        <v>3439</v>
+        <v>3437</v>
       </c>
       <c r="G1547" s="22" t="s">
-        <v>3428</v>
+        <v>3427</v>
       </c>
       <c r="H1547" s="22" t="s">
-        <v>3449</v>
+        <v>3447</v>
       </c>
       <c r="I1547" s="20"/>
     </row>
     <row r="1548" spans="1:9" ht="30">
       <c r="A1548" s="22" t="s">
-        <v>3445</v>
+        <v>3443</v>
       </c>
       <c r="B1548" s="25" t="s">
         <v>3194</v>
       </c>
       <c r="C1548" s="20" t="s">
-        <v>3447</v>
+        <v>3445</v>
       </c>
       <c r="D1548" s="22"/>
       <c r="E1548" s="22" t="s">
         <v>19</v>
       </c>
       <c r="F1548" s="22" t="s">
-        <v>3439</v>
+        <v>3437</v>
       </c>
       <c r="G1548" s="22" t="s">
-        <v>3428</v>
+        <v>3427</v>
       </c>
       <c r="H1548" s="22" t="s">
         <v>18</v>
@@ -52451,23 +52476,23 @@
     </row>
     <row r="1549" spans="1:9" ht="30">
       <c r="A1549" s="22" t="s">
-        <v>3446</v>
+        <v>3444</v>
       </c>
       <c r="B1549" s="25" t="s">
         <v>3194</v>
       </c>
       <c r="C1549" s="20" t="s">
-        <v>3448</v>
+        <v>3446</v>
       </c>
       <c r="D1549" s="22"/>
       <c r="E1549" s="22" t="s">
         <v>19</v>
       </c>
       <c r="F1549" s="22" t="s">
-        <v>3439</v>
+        <v>3437</v>
       </c>
       <c r="G1549" s="22" t="s">
-        <v>3428</v>
+        <v>3427</v>
       </c>
       <c r="H1549" s="22" t="s">
         <v>18</v>
@@ -52726,7 +52751,7 @@
     </row>
     <row r="1560" spans="1:9" ht="30">
       <c r="A1560" s="22" t="s">
-        <v>3429</v>
+        <v>3428</v>
       </c>
       <c r="B1560" s="25" t="s">
         <v>3238</v>
@@ -52776,7 +52801,7 @@
     </row>
     <row r="1562" spans="1:9" ht="45">
       <c r="A1562" s="22" t="s">
-        <v>3430</v>
+        <v>3429</v>
       </c>
       <c r="B1562" s="25" t="s">
         <v>3242</v>
@@ -52826,7 +52851,7 @@
     </row>
     <row r="1564" spans="1:9">
       <c r="A1564" s="22" t="s">
-        <v>3431</v>
+        <v>3430</v>
       </c>
       <c r="B1564" s="25" t="s">
         <v>3246</v>
@@ -52901,13 +52926,13 @@
     </row>
     <row r="1567" spans="1:9">
       <c r="A1567" s="22" t="s">
-        <v>3432</v>
+        <v>3639</v>
       </c>
       <c r="B1567" s="25" t="s">
         <v>3368</v>
       </c>
       <c r="C1567" s="20" t="s">
-        <v>3369</v>
+        <v>3640</v>
       </c>
       <c r="D1567" s="22"/>
       <c r="E1567" s="22" t="s">
@@ -52926,13 +52951,13 @@
     </row>
     <row r="1568" spans="1:9" ht="30">
       <c r="A1568" s="22" t="s">
-        <v>3370</v>
+        <v>3369</v>
       </c>
       <c r="B1568" s="25" t="s">
         <v>3368</v>
       </c>
       <c r="C1568" s="20" t="s">
-        <v>3371</v>
+        <v>3370</v>
       </c>
       <c r="D1568" s="22"/>
       <c r="E1568" s="22" t="s">
@@ -52951,13 +52976,13 @@
     </row>
     <row r="1569" spans="1:9" ht="75">
       <c r="A1569" s="22" t="s">
-        <v>3372</v>
+        <v>3371</v>
       </c>
       <c r="B1569" s="25" t="s">
         <v>3368</v>
       </c>
       <c r="C1569" s="20" t="s">
-        <v>3373</v>
+        <v>3372</v>
       </c>
       <c r="D1569" s="22"/>
       <c r="E1569" s="22" t="s">
@@ -52976,7 +53001,7 @@
     </row>
     <row r="1570" spans="1:9">
       <c r="A1570" s="22" t="s">
-        <v>3433</v>
+        <v>3431</v>
       </c>
       <c r="B1570" s="25" t="s">
         <v>3250</v>
@@ -53051,7 +53076,7 @@
     </row>
     <row r="1573" spans="1:9" ht="30">
       <c r="A1573" s="22" t="s">
-        <v>3434</v>
+        <v>3432</v>
       </c>
       <c r="B1573" s="25" t="s">
         <v>3255</v>
@@ -53529,7 +53554,7 @@
         <v>3298</v>
       </c>
       <c r="B1592" s="25" t="s">
-        <v>3405</v>
+        <v>3404</v>
       </c>
       <c r="C1592" s="20" t="s">
         <v>3299</v>
@@ -53554,7 +53579,7 @@
         <v>3300</v>
       </c>
       <c r="B1593" s="25" t="s">
-        <v>3405</v>
+        <v>3404</v>
       </c>
       <c r="C1593" s="20" t="s">
         <v>3301</v>
@@ -53579,7 +53604,7 @@
         <v>3302</v>
       </c>
       <c r="B1594" s="25" t="s">
-        <v>3406</v>
+        <v>3405</v>
       </c>
       <c r="C1594" s="20" t="s">
         <v>3303</v>
@@ -53604,7 +53629,7 @@
         <v>3304</v>
       </c>
       <c r="B1595" s="25" t="s">
-        <v>3406</v>
+        <v>3405</v>
       </c>
       <c r="C1595" s="20" t="s">
         <v>3305</v>
@@ -53626,10 +53651,10 @@
     </row>
     <row r="1596" spans="1:9">
       <c r="A1596" s="22" t="s">
-        <v>3385</v>
+        <v>3384</v>
       </c>
       <c r="B1596" s="25" t="s">
-        <v>3407</v>
+        <v>3406</v>
       </c>
       <c r="C1596" s="20" t="s">
         <v>3306</v>
@@ -53654,7 +53679,7 @@
         <v>3307</v>
       </c>
       <c r="B1597" s="25" t="s">
-        <v>3407</v>
+        <v>3406</v>
       </c>
       <c r="C1597" s="20" t="s">
         <v>3308</v>
@@ -53676,13 +53701,13 @@
     </row>
     <row r="1598" spans="1:9">
       <c r="A1598" s="22" t="s">
+        <v>3373</v>
+      </c>
+      <c r="B1598" s="25" t="s">
         <v>3374</v>
       </c>
-      <c r="B1598" s="25" t="s">
+      <c r="C1598" s="20" t="s">
         <v>3375</v>
-      </c>
-      <c r="C1598" s="20" t="s">
-        <v>3376</v>
       </c>
       <c r="D1598" s="22"/>
       <c r="E1598" s="22" t="s">
@@ -53701,13 +53726,13 @@
     </row>
     <row r="1599" spans="1:9">
       <c r="A1599" s="22" t="s">
+        <v>3376</v>
+      </c>
+      <c r="B1599" s="25" t="s">
+        <v>3374</v>
+      </c>
+      <c r="C1599" s="20" t="s">
         <v>3377</v>
-      </c>
-      <c r="B1599" s="25" t="s">
-        <v>3375</v>
-      </c>
-      <c r="C1599" s="20" t="s">
-        <v>3378</v>
       </c>
       <c r="D1599" s="22"/>
       <c r="E1599" s="22" t="s">
@@ -53726,13 +53751,13 @@
     </row>
     <row r="1600" spans="1:9">
       <c r="A1600" s="22" t="s">
-        <v>3386</v>
+        <v>3385</v>
       </c>
       <c r="B1600" s="25" t="s">
-        <v>3408</v>
+        <v>3407</v>
       </c>
       <c r="C1600" s="20" t="s">
-        <v>3384</v>
+        <v>3383</v>
       </c>
       <c r="D1600" s="22"/>
       <c r="E1600" s="22" t="s">
@@ -53754,7 +53779,7 @@
         <v>3309</v>
       </c>
       <c r="B1601" s="25" t="s">
-        <v>3408</v>
+        <v>3407</v>
       </c>
       <c r="C1601" s="20" t="s">
         <v>3310</v>
@@ -53776,10 +53801,10 @@
     </row>
     <row r="1602" spans="1:9" ht="30">
       <c r="A1602" s="22" t="s">
-        <v>3387</v>
+        <v>3386</v>
       </c>
       <c r="B1602" s="25" t="s">
-        <v>3409</v>
+        <v>3408</v>
       </c>
       <c r="C1602" s="20" t="s">
         <v>3311</v>
@@ -53804,7 +53829,7 @@
         <v>3312</v>
       </c>
       <c r="B1603" s="25" t="s">
-        <v>3409</v>
+        <v>3408</v>
       </c>
       <c r="C1603" s="20" t="s">
         <v>3313</v>
@@ -53829,7 +53854,7 @@
         <v>3314</v>
       </c>
       <c r="B1604" s="25" t="s">
-        <v>3409</v>
+        <v>3408</v>
       </c>
       <c r="C1604" s="20" t="s">
         <v>3315</v>
@@ -53851,10 +53876,10 @@
     </row>
     <row r="1605" spans="1:9">
       <c r="A1605" s="22" t="s">
-        <v>3388</v>
+        <v>3387</v>
       </c>
       <c r="B1605" s="25" t="s">
-        <v>3410</v>
+        <v>3409</v>
       </c>
       <c r="C1605" s="20" t="s">
         <v>3316</v>
@@ -53879,7 +53904,7 @@
         <v>3317</v>
       </c>
       <c r="B1606" s="25" t="s">
-        <v>3410</v>
+        <v>3409</v>
       </c>
       <c r="C1606" s="20" t="s">
         <v>3318</v>
@@ -53901,10 +53926,10 @@
     </row>
     <row r="1607" spans="1:9">
       <c r="A1607" s="22" t="s">
-        <v>3389</v>
+        <v>3388</v>
       </c>
       <c r="B1607" s="25" t="s">
-        <v>3411</v>
+        <v>3410</v>
       </c>
       <c r="C1607" s="20" t="s">
         <v>3319</v>
@@ -53926,10 +53951,10 @@
     </row>
     <row r="1608" spans="1:9">
       <c r="A1608" s="22" t="s">
-        <v>3390</v>
+        <v>3389</v>
       </c>
       <c r="B1608" s="25" t="s">
-        <v>3412</v>
+        <v>3411</v>
       </c>
       <c r="C1608" s="20" t="s">
         <v>3320</v>
@@ -53954,7 +53979,7 @@
         <v>3321</v>
       </c>
       <c r="B1609" s="25" t="s">
-        <v>3412</v>
+        <v>3411</v>
       </c>
       <c r="C1609" s="20" t="s">
         <v>3322</v>
@@ -53976,10 +54001,10 @@
     </row>
     <row r="1610" spans="1:9">
       <c r="A1610" s="22" t="s">
-        <v>3391</v>
+        <v>3390</v>
       </c>
       <c r="B1610" s="25" t="s">
-        <v>3413</v>
+        <v>3412</v>
       </c>
       <c r="C1610" s="20" t="s">
         <v>3323</v>
@@ -54004,7 +54029,7 @@
         <v>3324</v>
       </c>
       <c r="B1611" s="25" t="s">
-        <v>3413</v>
+        <v>3412</v>
       </c>
       <c r="C1611" s="20" t="s">
         <v>3325</v>
@@ -54026,10 +54051,10 @@
     </row>
     <row r="1612" spans="1:9">
       <c r="A1612" s="22" t="s">
-        <v>3392</v>
+        <v>3391</v>
       </c>
       <c r="B1612" s="25" t="s">
-        <v>3414</v>
+        <v>3413</v>
       </c>
       <c r="C1612" s="20" t="s">
         <v>3326</v>
@@ -54054,7 +54079,7 @@
         <v>3327</v>
       </c>
       <c r="B1613" s="25" t="s">
-        <v>3414</v>
+        <v>3413</v>
       </c>
       <c r="C1613" s="20" t="s">
         <v>3328</v>
@@ -54076,10 +54101,10 @@
     </row>
     <row r="1614" spans="1:9">
       <c r="A1614" s="22" t="s">
-        <v>3393</v>
+        <v>3392</v>
       </c>
       <c r="B1614" s="25" t="s">
-        <v>3415</v>
+        <v>3414</v>
       </c>
       <c r="C1614" s="20" t="s">
         <v>3329</v>
@@ -54104,7 +54129,7 @@
         <v>3330</v>
       </c>
       <c r="B1615" s="25" t="s">
-        <v>3415</v>
+        <v>3414</v>
       </c>
       <c r="C1615" s="20" t="s">
         <v>3331</v>
@@ -54126,10 +54151,10 @@
     </row>
     <row r="1616" spans="1:9">
       <c r="A1616" s="22" t="s">
-        <v>3394</v>
+        <v>3393</v>
       </c>
       <c r="B1616" s="25" t="s">
-        <v>3416</v>
+        <v>3415</v>
       </c>
       <c r="C1616" s="20" t="s">
         <v>3332</v>
@@ -54154,7 +54179,7 @@
         <v>3333</v>
       </c>
       <c r="B1617" s="25" t="s">
-        <v>3416</v>
+        <v>3415</v>
       </c>
       <c r="C1617" s="20" t="s">
         <v>3334</v>
@@ -54176,10 +54201,10 @@
     </row>
     <row r="1618" spans="1:9">
       <c r="A1618" s="22" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="B1618" s="25" t="s">
-        <v>3417</v>
+        <v>3416</v>
       </c>
       <c r="C1618" s="20" t="s">
         <v>3335</v>
@@ -54204,7 +54229,7 @@
         <v>3336</v>
       </c>
       <c r="B1619" s="25" t="s">
-        <v>3417</v>
+        <v>3416</v>
       </c>
       <c r="C1619" s="20" t="s">
         <v>3337</v>
@@ -54226,10 +54251,10 @@
     </row>
     <row r="1620" spans="1:9" ht="30">
       <c r="A1620" s="22" t="s">
-        <v>3396</v>
+        <v>3395</v>
       </c>
       <c r="B1620" s="25" t="s">
-        <v>3418</v>
+        <v>3417</v>
       </c>
       <c r="C1620" s="20" t="s">
         <v>3338</v>
@@ -54254,7 +54279,7 @@
         <v>3339</v>
       </c>
       <c r="B1621" s="25" t="s">
-        <v>3418</v>
+        <v>3417</v>
       </c>
       <c r="C1621" s="20" t="s">
         <v>3340</v>
@@ -54279,7 +54304,7 @@
         <v>3341</v>
       </c>
       <c r="B1622" s="25" t="s">
-        <v>3418</v>
+        <v>3417</v>
       </c>
       <c r="C1622" s="20" t="s">
         <v>3342</v>
@@ -54301,10 +54326,10 @@
     </row>
     <row r="1623" spans="1:9">
       <c r="A1623" s="22" t="s">
-        <v>3397</v>
+        <v>3396</v>
       </c>
       <c r="B1623" s="25" t="s">
-        <v>3419</v>
+        <v>3418</v>
       </c>
       <c r="C1623" s="20" t="s">
         <v>3343</v>
@@ -54329,7 +54354,7 @@
         <v>3344</v>
       </c>
       <c r="B1624" s="25" t="s">
-        <v>3419</v>
+        <v>3418</v>
       </c>
       <c r="C1624" s="20" t="s">
         <v>3345</v>
@@ -54351,10 +54376,10 @@
     </row>
     <row r="1625" spans="1:9">
       <c r="A1625" s="22" t="s">
-        <v>3398</v>
+        <v>3397</v>
       </c>
       <c r="B1625" s="25" t="s">
-        <v>3420</v>
+        <v>3419</v>
       </c>
       <c r="C1625" s="20" t="s">
         <v>3346</v>
@@ -54376,10 +54401,10 @@
     </row>
     <row r="1626" spans="1:9">
       <c r="A1626" s="22" t="s">
-        <v>3399</v>
+        <v>3398</v>
       </c>
       <c r="B1626" s="25" t="s">
-        <v>3421</v>
+        <v>3420</v>
       </c>
       <c r="C1626" s="20" t="s">
         <v>3347</v>
@@ -54401,10 +54426,10 @@
     </row>
     <row r="1627" spans="1:9">
       <c r="A1627" s="22" t="s">
-        <v>3400</v>
+        <v>3399</v>
       </c>
       <c r="B1627" s="25" t="s">
-        <v>3422</v>
+        <v>3421</v>
       </c>
       <c r="C1627" s="20" t="s">
         <v>3348</v>
@@ -54429,7 +54454,7 @@
         <v>3349</v>
       </c>
       <c r="B1628" s="25" t="s">
-        <v>3422</v>
+        <v>3421</v>
       </c>
       <c r="C1628" s="20" t="s">
         <v>3350</v>
@@ -54451,10 +54476,10 @@
     </row>
     <row r="1629" spans="1:9">
       <c r="A1629" s="22" t="s">
-        <v>3401</v>
+        <v>3400</v>
       </c>
       <c r="B1629" s="25" t="s">
-        <v>3423</v>
+        <v>3422</v>
       </c>
       <c r="C1629" s="20" t="s">
         <v>3351</v>
@@ -54479,7 +54504,7 @@
         <v>3352</v>
       </c>
       <c r="B1630" s="25" t="s">
-        <v>3423</v>
+        <v>3422</v>
       </c>
       <c r="C1630" s="20" t="s">
         <v>3353</v>
@@ -54501,10 +54526,10 @@
     </row>
     <row r="1631" spans="1:9">
       <c r="A1631" s="22" t="s">
-        <v>3402</v>
+        <v>3401</v>
       </c>
       <c r="B1631" s="25" t="s">
-        <v>3424</v>
+        <v>3423</v>
       </c>
       <c r="C1631" s="20" t="s">
         <v>3354</v>
@@ -54529,7 +54554,7 @@
         <v>3355</v>
       </c>
       <c r="B1632" s="25" t="s">
-        <v>3424</v>
+        <v>3423</v>
       </c>
       <c r="C1632" s="20" t="s">
         <v>3356</v>
@@ -54551,10 +54576,10 @@
     </row>
     <row r="1633" spans="1:9">
       <c r="A1633" s="22" t="s">
-        <v>3403</v>
+        <v>3402</v>
       </c>
       <c r="B1633" s="25" t="s">
-        <v>3425</v>
+        <v>3424</v>
       </c>
       <c r="C1633" s="20" t="s">
         <v>3357</v>
@@ -54564,7 +54589,7 @@
         <v>19</v>
       </c>
       <c r="F1633" s="22" t="s">
-        <v>3427</v>
+        <v>3426</v>
       </c>
       <c r="G1633" s="22" t="s">
         <v>15</v>
@@ -54579,20 +54604,20 @@
         <v>3358</v>
       </c>
       <c r="B1634" s="25" t="s">
-        <v>3425</v>
+        <v>3424</v>
       </c>
       <c r="C1634" s="20" t="s">
         <v>3359</v>
       </c>
       <c r="D1634" s="22"/>
       <c r="E1634" s="22" t="s">
-        <v>3426</v>
+        <v>3425</v>
       </c>
       <c r="F1634" s="22" t="s">
         <v>3</v>
       </c>
       <c r="G1634" s="22" t="s">
-        <v>3428</v>
+        <v>3427</v>
       </c>
       <c r="H1634" s="22" t="s">
         <v>20</v>
@@ -54601,13 +54626,13 @@
     </row>
     <row r="1635" spans="1:9">
       <c r="A1635" s="22" t="s">
+        <v>3378</v>
+      </c>
+      <c r="B1635" s="25" t="s">
         <v>3379</v>
       </c>
-      <c r="B1635" s="25" t="s">
+      <c r="C1635" s="22" t="s">
         <v>3380</v>
-      </c>
-      <c r="C1635" s="22" t="s">
-        <v>3381</v>
       </c>
       <c r="D1635" s="22"/>
       <c r="E1635" s="22" t="s">
@@ -54626,13 +54651,13 @@
     </row>
     <row r="1636" spans="1:9">
       <c r="A1636" s="22" t="s">
+        <v>3381</v>
+      </c>
+      <c r="B1636" s="25" t="s">
+        <v>3379</v>
+      </c>
+      <c r="C1636" s="22" t="s">
         <v>3382</v>
-      </c>
-      <c r="B1636" s="25" t="s">
-        <v>3380</v>
-      </c>
-      <c r="C1636" s="22" t="s">
-        <v>3383</v>
       </c>
       <c r="D1636" s="22"/>
       <c r="E1636" s="22" t="s">
@@ -54676,6 +54701,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="B8:I8"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B5:I5"/>
     <mergeCell ref="B11:I11"/>
     <mergeCell ref="D12:I15"/>
     <mergeCell ref="B16:I16"/>
@@ -54683,11 +54713,6 @@
     <mergeCell ref="B9:I9"/>
     <mergeCell ref="B10:I10"/>
     <mergeCell ref="B17:I17"/>
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="B8:I8"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="B5:I5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1542:B1545 A1548:B1549 A1637:I1637 A1634:H1634 D1542:I1545 A1546:I1547 A1550:I1566 D1548:I1549 A1600:I1633 A20:I46 A1570:I1597 E1567:H1569 D1598:H1599 D1635:H1636 G47:G48 I47:K48 A49:I1541">

--- a/ExchangeMAPI/Docs/MS-OXNSPI/MS-OXNSPI_RequirementSpecification.xlsx
+++ b/ExchangeMAPI/Docs/MS-OXNSPI/MS-OXNSPI_RequirementSpecification.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21001"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1699DA49-7995-4443-A585-124C8B8145AC}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="60" windowWidth="15405" windowHeight="6900" tabRatio="570"/>
+    <workbookView xWindow="-15" yWindow="60" windowWidth="15405" windowHeight="6900" tabRatio="570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements" sheetId="2" r:id="rId1"/>
@@ -11532,7 +11533,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="165" formatCode="0.0.0"/>
@@ -12950,34 +12951,34 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Requirement" displayName="Requirement" ref="A19:I1630" tableType="xml" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17" headerRowCellStyle="Normal" dataCellStyle="Normal">
-  <autoFilter ref="A19:I1630"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Requirement" displayName="Requirement" ref="A19:I1630" tableType="xml" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17" headerRowCellStyle="Normal" dataCellStyle="Normal">
+  <autoFilter ref="A19:I1630" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="9">
-    <tableColumn id="1" uniqueName="ns1:REQ_ID" name="Req ID" dataDxfId="16" dataCellStyle="Normal">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="ns1:REQ_ID" name="Req ID" dataDxfId="16" dataCellStyle="Normal">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:REQ_ID" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="2" uniqueName="ns1:Doc_Sect" name="Doc Sect" dataDxfId="15" dataCellStyle="Normal">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="ns1:Doc_Sect" name="Doc Sect" dataDxfId="15" dataCellStyle="Normal">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Doc_Sect" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="3" uniqueName="ns1:Description" name="Description" dataDxfId="14" dataCellStyle="Normal">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" uniqueName="ns1:Description" name="Description" dataDxfId="14" dataCellStyle="Normal">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Description" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="18" uniqueName="ns1:Derived" name="Derived" dataDxfId="13" dataCellStyle="Normal">
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" uniqueName="ns1:Derived" name="Derived" dataDxfId="13" dataCellStyle="Normal">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Derived" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="6" uniqueName="ns1:Behavior" name="Behavior" dataDxfId="12" dataCellStyle="Normal">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" uniqueName="ns1:Behavior" name="Behavior" dataDxfId="12" dataCellStyle="Normal">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Behavior" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="7" uniqueName="ns1:Scope" name="Scope" dataDxfId="11" dataCellStyle="Normal">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" uniqueName="ns1:Scope" name="Scope" dataDxfId="11" dataCellStyle="Normal">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Scope" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="9" uniqueName="ns1:IsNormative" name="Informative_x000a_/Normative" dataDxfId="10" dataCellStyle="Normal">
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" uniqueName="ns1:IsNormative" name="Informative_x000a_/Normative" dataDxfId="10" dataCellStyle="Normal">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:IsNormative" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="10" uniqueName="ns1:Verification" name="Verification" dataDxfId="9" dataCellStyle="Normal">
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" uniqueName="ns1:Verification" name="Verification" dataDxfId="9" dataCellStyle="Normal">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Verification" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="8" uniqueName="ns1:VerificationComment" name="Verification Comment" dataDxfId="8">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" uniqueName="ns1:VerificationComment" name="Verification Comment" dataDxfId="8">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:VerificationComment" xmlDataType="string"/>
     </tableColumn>
   </tableColumns>
@@ -12986,12 +12987,12 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Scope" displayName="Scope" ref="A12:C15" totalsRowShown="0" headerRowDxfId="7" dataDxfId="5" headerRowBorderDxfId="6" tableBorderDxfId="4" totalsRowBorderDxfId="3">
-  <autoFilter ref="A12:C15"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Scope" displayName="Scope" ref="A12:C15" totalsRowShown="0" headerRowDxfId="7" dataDxfId="5" headerRowBorderDxfId="6" tableBorderDxfId="4" totalsRowBorderDxfId="3">
+  <autoFilter ref="A12:C15" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Scope" dataDxfId="2"/>
-    <tableColumn id="2" name="Test" dataDxfId="1"/>
-    <tableColumn id="3" name="Description" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Scope" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Test" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Description" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -13073,6 +13074,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -13108,6 +13126,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -13283,13 +13318,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:L1635"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1630" sqref="B1630"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
@@ -54904,30 +54937,30 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="7">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4 F20:F1631">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4 F20:F1631" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>$A$13:$A$15</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4 E20:E1631">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4 E20:E1631" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"Protocol,Product"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4 G20:G1631">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4 G20:G1631" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"Informative,Normative"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B13:B15">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B13:B15" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>"In, Out"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H20:H1508">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3" xr:uid="{00000000-0002-0000-0000-000004000000}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H20:H1508" xr:uid="{00000000-0002-0000-0000-000005000000}">
       <formula1>"Non-testable, Unverified, Adapter, Test Case, Deleted"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1509:H1631">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1509:H1631" xr:uid="{00000000-0002-0000-0000-000006000000}">
       <formula1>"Non-testable, Unverified, Adapter, Test Case"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.25" right="0.25" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="74" orientation="landscape" blackAndWhite="1" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="B19:B924 B1517:B1585 B926:B1514 B1631:B1635" numberStoredAsText="1"/>
+    <ignoredError sqref="B19:B925 B1516:B1630 B926:B1515 B1631:B1635 C3" numberStoredAsText="1"/>
   </ignoredErrors>
   <tableParts count="2">
     <tablePart r:id="rId2"/>

--- a/ExchangeMAPI/Docs/MS-OXNSPI/MS-OXNSPI_RequirementSpecification.xlsx
+++ b/ExchangeMAPI/Docs/MS-OXNSPI/MS-OXNSPI_RequirementSpecification.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25128"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20D06EAC-73E6-4144-8D84-40377F9565B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B91AC29-F2B6-4AD5-A4CF-C0FB41FAA81D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11439,10 +11439,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>MS-OXNSPI_R1194001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>7</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -11459,14 +11455,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>MS-OXNSPI_R1194002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[In Appendix A: Product Behavior] Implementation does return the value "Success" if SortType field in the input parameter pStat has any value other than SortTypeDisplayName .&lt;6&gt; Section 3.1.4.1.1411:  Exchange 2019 returns "Success".</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[In NspiModProps] [Server Processing Rules: Upon receiving message NspiModProps, the server MUST process the data from the message subject to the following constraints:] [Constraint 10] The server SHOULD&lt;7&gt; add all values for all properties specified in the input parameter pRow to the object specified by the field CurrentRec in the input parameter pStat.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -11496,10 +11484,6 @@
   </si>
   <si>
     <t>[In Appendix A: Product Behavior] Implementation does return the value "ErrorsReturned" (0x00040380). &lt;5&gt; Section 3.1.4.1.7:  Microsoft Exchange Server 2010 Service Pack 3 (SP3), Exchange 2013, Exchange 2016, and Exchange 2019 return "ErrorsReturned" (0x00040380).</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[In Appendix A: Product Behavior] Implementation does return the value "GeneralFailure" if SortType field in the input parameter pStat has any value other than SortTypeDisplayName .(Exchange 2007, Exchange 2010, Exchange 2013 and Exchange 2016 follows this behavior)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -11570,7 +11554,19 @@
     <t>[In NspiModLinkAtt] lpEntryIds: A BinaryArray_r value.</t>
   </si>
   <si>
-    <t>13.0</t>
+    <t>13.1</t>
+  </si>
+  <si>
+    <t>MS-OXNSPI_R1194002</t>
+  </si>
+  <si>
+    <t>[In Appendix A: Product Behavior] Implementation does return the value "Success" if SortType field in the input parameter pStat has any value other than SortTypeDisplayName .&lt;6&gt; Section 3.1.4.1.1411:  Exchange 2013, Exchange 2016, and 2019 returns "Success".</t>
+  </si>
+  <si>
+    <t>MS-OXNSPI_R1194001</t>
+  </si>
+  <si>
+    <t>[In Appendix A: Product Behavior] Implementation does return the value "GeneralFailure" if SortType field in the input parameter pStat has any value other than SortTypeDisplayName .(Exchange 2007, Exchange 2010 follows this behavior)</t>
   </si>
 </sst>
 </file>
@@ -11870,6 +11866,21 @@
     <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -11893,21 +11904,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -13366,8 +13362,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:L1637"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:I9"/>
+    <sheetView tabSelected="1" topLeftCell="A1517" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C1518" sqref="C1518"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -13411,138 +13407,138 @@
         <v>25</v>
       </c>
       <c r="C3" s="31" t="s">
-        <v>3637</v>
+        <v>3633</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>26</v>
       </c>
       <c r="F3" s="12">
-        <v>44425</v>
+        <v>44607</v>
       </c>
       <c r="J3" s="5"/>
     </row>
     <row r="4" spans="1:10" ht="21">
-      <c r="A4" s="46" t="s">
+      <c r="A4" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="46"/>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
       <c r="J4" s="5"/>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="49" t="s">
+      <c r="B5" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="50"/>
-      <c r="D5" s="50"/>
-      <c r="E5" s="50"/>
-      <c r="F5" s="50"/>
-      <c r="G5" s="50"/>
-      <c r="H5" s="50"/>
-      <c r="I5" s="50"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="42"/>
       <c r="J5" s="5"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="48" t="s">
+      <c r="B6" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="48"/>
-      <c r="H6" s="48"/>
-      <c r="I6" s="48"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="40"/>
       <c r="J6" s="5"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="47" t="s">
-        <v>3634</v>
-      </c>
-      <c r="C7" s="47"/>
-      <c r="D7" s="47"/>
-      <c r="E7" s="47"/>
-      <c r="F7" s="47"/>
-      <c r="G7" s="47"/>
-      <c r="H7" s="47"/>
-      <c r="I7" s="47"/>
+      <c r="B7" s="39" t="s">
+        <v>3630</v>
+      </c>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="39"/>
+      <c r="I7" s="39"/>
       <c r="J7" s="5"/>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="47" t="s">
+      <c r="B8" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="47"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="47"/>
-      <c r="G8" s="47"/>
-      <c r="H8" s="47"/>
-      <c r="I8" s="47"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="39"/>
+      <c r="I8" s="39"/>
       <c r="J8" s="5"/>
     </row>
     <row r="9" spans="1:10" ht="78.75" customHeight="1">
       <c r="A9" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="42" t="s">
+      <c r="B9" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="43"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="43"/>
-      <c r="F9" s="43"/>
-      <c r="G9" s="43"/>
-      <c r="H9" s="43"/>
-      <c r="I9" s="43"/>
+      <c r="C9" s="48"/>
+      <c r="D9" s="48"/>
+      <c r="E9" s="48"/>
+      <c r="F9" s="48"/>
+      <c r="G9" s="48"/>
+      <c r="H9" s="48"/>
+      <c r="I9" s="48"/>
       <c r="J9" s="5"/>
     </row>
     <row r="10" spans="1:10" ht="33.75" customHeight="1">
       <c r="A10" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="42" t="s">
-        <v>3635</v>
-      </c>
-      <c r="C10" s="43"/>
-      <c r="D10" s="43"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="43"/>
-      <c r="G10" s="43"/>
-      <c r="H10" s="43"/>
-      <c r="I10" s="43"/>
+      <c r="B10" s="47" t="s">
+        <v>3631</v>
+      </c>
+      <c r="C10" s="48"/>
+      <c r="D10" s="48"/>
+      <c r="E10" s="48"/>
+      <c r="F10" s="48"/>
+      <c r="G10" s="48"/>
+      <c r="H10" s="48"/>
+      <c r="I10" s="48"/>
       <c r="J10" s="5"/>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="38" t="s">
+      <c r="B11" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="38"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
-      <c r="H11" s="38"/>
-      <c r="I11" s="38"/>
+      <c r="C11" s="43"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="43"/>
+      <c r="F11" s="43"/>
+      <c r="G11" s="43"/>
+      <c r="H11" s="43"/>
+      <c r="I11" s="43"/>
       <c r="J11" s="5"/>
     </row>
     <row r="12" spans="1:10">
@@ -13555,12 +13551,12 @@
       <c r="C12" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="39"/>
-      <c r="E12" s="39"/>
-      <c r="F12" s="39"/>
-      <c r="G12" s="39"/>
-      <c r="H12" s="39"/>
-      <c r="I12" s="39"/>
+      <c r="D12" s="44"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="44"/>
+      <c r="G12" s="44"/>
+      <c r="H12" s="44"/>
+      <c r="I12" s="44"/>
       <c r="J12" s="5"/>
     </row>
     <row r="13" spans="1:10" ht="15" customHeight="1">
@@ -13573,12 +13569,12 @@
       <c r="C13" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="40"/>
-      <c r="E13" s="40"/>
-      <c r="F13" s="40"/>
-      <c r="G13" s="40"/>
-      <c r="H13" s="40"/>
-      <c r="I13" s="40"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="45"/>
+      <c r="F13" s="45"/>
+      <c r="G13" s="45"/>
+      <c r="H13" s="45"/>
+      <c r="I13" s="45"/>
       <c r="J13" s="5"/>
     </row>
     <row r="14" spans="1:10">
@@ -13591,12 +13587,12 @@
       <c r="C14" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="40"/>
-      <c r="E14" s="40"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="40"/>
-      <c r="H14" s="40"/>
-      <c r="I14" s="40"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="45"/>
+      <c r="F14" s="45"/>
+      <c r="G14" s="45"/>
+      <c r="H14" s="45"/>
+      <c r="I14" s="45"/>
       <c r="J14" s="5"/>
     </row>
     <row r="15" spans="1:10">
@@ -13609,60 +13605,60 @@
       <c r="C15" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="D15" s="41"/>
-      <c r="E15" s="41"/>
-      <c r="F15" s="41"/>
-      <c r="G15" s="41"/>
-      <c r="H15" s="41"/>
-      <c r="I15" s="41"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="46"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="46"/>
+      <c r="H15" s="46"/>
+      <c r="I15" s="46"/>
       <c r="J15" s="5"/>
     </row>
     <row r="16" spans="1:10" ht="30" customHeight="1">
       <c r="A16" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="38" t="s">
+      <c r="B16" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="38"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="38"/>
-      <c r="H16" s="38"/>
-      <c r="I16" s="38"/>
+      <c r="C16" s="43"/>
+      <c r="D16" s="43"/>
+      <c r="E16" s="43"/>
+      <c r="F16" s="43"/>
+      <c r="G16" s="43"/>
+      <c r="H16" s="43"/>
+      <c r="I16" s="43"/>
       <c r="J16" s="5"/>
     </row>
     <row r="17" spans="1:12" ht="64.5" customHeight="1">
       <c r="A17" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="44" t="s">
+      <c r="B17" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="45"/>
-      <c r="D17" s="45"/>
-      <c r="E17" s="45"/>
-      <c r="F17" s="45"/>
-      <c r="G17" s="45"/>
-      <c r="H17" s="45"/>
-      <c r="I17" s="45"/>
+      <c r="C17" s="50"/>
+      <c r="D17" s="50"/>
+      <c r="E17" s="50"/>
+      <c r="F17" s="50"/>
+      <c r="G17" s="50"/>
+      <c r="H17" s="50"/>
+      <c r="I17" s="50"/>
       <c r="J17" s="5"/>
     </row>
     <row r="18" spans="1:12" ht="30" customHeight="1">
       <c r="A18" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="38" t="s">
+      <c r="B18" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="38"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="38"/>
-      <c r="H18" s="38"/>
-      <c r="I18" s="38"/>
+      <c r="C18" s="43"/>
+      <c r="D18" s="43"/>
+      <c r="E18" s="43"/>
+      <c r="F18" s="43"/>
+      <c r="G18" s="43"/>
+      <c r="H18" s="43"/>
+      <c r="I18" s="43"/>
       <c r="J18" s="5"/>
       <c r="L18" s="4"/>
     </row>
@@ -31079,7 +31075,7 @@
         <v>1423</v>
       </c>
       <c r="C705" s="20" t="s">
-        <v>3632</v>
+        <v>3628</v>
       </c>
       <c r="D705" s="22"/>
       <c r="E705" s="22" t="s">
@@ -40870,7 +40866,7 @@
         <v>2264</v>
       </c>
       <c r="C1092" s="20" t="s">
-        <v>3633</v>
+        <v>3629</v>
       </c>
       <c r="D1092" s="22"/>
       <c r="E1092" s="22" t="s">
@@ -41445,7 +41441,7 @@
         <v>2264</v>
       </c>
       <c r="C1115" s="20" t="s">
-        <v>3621</v>
+        <v>3618</v>
       </c>
       <c r="D1115" s="22"/>
       <c r="E1115" s="22" t="s">
@@ -41834,7 +41830,7 @@
         <v>2314</v>
       </c>
       <c r="C1130" s="20" t="s">
-        <v>3636</v>
+        <v>3632</v>
       </c>
       <c r="D1130" s="22"/>
       <c r="E1130" s="22" t="s">
@@ -41961,7 +41957,7 @@
         <v>2314</v>
       </c>
       <c r="C1135" s="20" t="s">
-        <v>3622</v>
+        <v>3619</v>
       </c>
       <c r="D1135" s="22"/>
       <c r="E1135" s="22" t="s">
@@ -51534,7 +51530,7 @@
         <v>3136</v>
       </c>
       <c r="C1512" s="20" t="s">
-        <v>3623</v>
+        <v>3620</v>
       </c>
       <c r="D1512" s="22" t="s">
         <v>3143</v>
@@ -51561,7 +51557,7 @@
         <v>7</v>
       </c>
       <c r="C1513" s="20" t="s">
-        <v>3624</v>
+        <v>3621</v>
       </c>
       <c r="D1513" s="22" t="s">
         <v>3530</v>
@@ -51588,7 +51584,7 @@
         <v>7</v>
       </c>
       <c r="C1514" s="20" t="s">
-        <v>3625</v>
+        <v>3622</v>
       </c>
       <c r="D1514" s="22" t="s">
         <v>3530</v>
@@ -51617,7 +51613,7 @@
         <v>3136</v>
       </c>
       <c r="C1515" s="20" t="s">
-        <v>3626</v>
+        <v>3623</v>
       </c>
       <c r="D1515" s="35" t="s">
         <v>3578</v>
@@ -51644,7 +51640,7 @@
         <v>3136</v>
       </c>
       <c r="C1516" s="20" t="s">
-        <v>3627</v>
+        <v>3624</v>
       </c>
       <c r="D1516" s="35" t="s">
         <v>3579</v>
@@ -51671,7 +51667,7 @@
         <v>7</v>
       </c>
       <c r="C1517" s="20" t="s">
-        <v>3628</v>
+        <v>3625</v>
       </c>
       <c r="D1517" s="22" t="s">
         <v>3531</v>
@@ -51694,16 +51690,16 @@
     </row>
     <row r="1518" spans="1:9" ht="45">
       <c r="A1518" s="22" t="s">
+        <v>3636</v>
+      </c>
+      <c r="B1518" s="25" t="s">
         <v>3614</v>
       </c>
-      <c r="B1518" s="25" t="s">
-        <v>3615</v>
-      </c>
       <c r="C1518" s="20" t="s">
-        <v>3629</v>
+        <v>3637</v>
       </c>
       <c r="D1518" s="22" t="s">
-        <v>3618</v>
+        <v>3617</v>
       </c>
       <c r="E1518" s="22" t="s">
         <v>22</v>
@@ -51723,16 +51719,16 @@
     </row>
     <row r="1519" spans="1:9" ht="45">
       <c r="A1519" s="22" t="s">
-        <v>3619</v>
+        <v>3634</v>
       </c>
       <c r="B1519" s="25" t="s">
-        <v>3615</v>
+        <v>3614</v>
       </c>
       <c r="C1519" s="20" t="s">
-        <v>3620</v>
+        <v>3635</v>
       </c>
       <c r="D1519" s="22" t="s">
-        <v>3618</v>
+        <v>3617</v>
       </c>
       <c r="E1519" s="22" t="s">
         <v>22</v>
@@ -51758,10 +51754,10 @@
         <v>7</v>
       </c>
       <c r="C1520" s="20" t="s">
-        <v>3630</v>
+        <v>3626</v>
       </c>
       <c r="D1520" s="22" t="s">
-        <v>3617</v>
+        <v>3616</v>
       </c>
       <c r="E1520" s="30" t="s">
         <v>22</v>
@@ -51785,7 +51781,7 @@
         <v>7</v>
       </c>
       <c r="C1521" s="20" t="s">
-        <v>3631</v>
+        <v>3627</v>
       </c>
       <c r="D1521" s="22" t="s">
         <v>3532</v>
@@ -51814,7 +51810,7 @@
         <v>7</v>
       </c>
       <c r="C1522" s="20" t="s">
-        <v>3616</v>
+        <v>3615</v>
       </c>
       <c r="D1522" s="22" t="s">
         <v>3532</v>
@@ -54612,11 +54608,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="B8:I8"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="B5:I5"/>
     <mergeCell ref="B11:I11"/>
     <mergeCell ref="D12:I15"/>
     <mergeCell ref="B16:I16"/>
@@ -54624,6 +54615,11 @@
     <mergeCell ref="B9:I9"/>
     <mergeCell ref="B10:I10"/>
     <mergeCell ref="B17:I17"/>
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="B8:I8"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B5:I5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1538:B1541 A1544:B1545 A1633:I1633 A1630:H1630 D1538:I1541 A1542:I1543 A1546:I1562 D1544:I1545 A1596:I1629 A20:I46 A1566:I1593 E1563:H1565 D1594:H1595 D1631:H1632 G47:G48 I47:K48 A49:I1537">
